--- a/BackTest/2019-11-02 BackTest GXC.xlsx
+++ b/BackTest/2019-11-02 BackTest GXC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>23</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>89.47368421052632</v>
+      </c>
       <c r="L12" t="n">
         <v>639.9</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>25</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>90.47619047619048</v>
+      </c>
       <c r="L13" t="n">
         <v>641.8</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>43</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>94.73684210526315</v>
+      </c>
       <c r="L14" t="n">
         <v>645.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>72</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L15" t="n">
         <v>646.2</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>81</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>11.76470588235294</v>
+      </c>
       <c r="L16" t="n">
         <v>647.7</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>81</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>11.76470588235294</v>
+      </c>
       <c r="L17" t="n">
         <v>648.5</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>85</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>10.44776119402985</v>
+      </c>
       <c r="L18" t="n">
         <v>649.7</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>87</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>13.04347826086956</v>
+      </c>
       <c r="L19" t="n">
         <v>650.6</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>90</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>18.30985915492958</v>
+      </c>
       <c r="L20" t="n">
         <v>651.8</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>94</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>18.30985915492958</v>
+      </c>
       <c r="L21" t="n">
         <v>653.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>98</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>20.54794520547945</v>
+      </c>
       <c r="L22" t="n">
         <v>655.2</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>108</v>
       </c>
       <c r="K23" t="n">
-        <v>42.30769230769231</v>
+        <v>10.76923076923077</v>
       </c>
       <c r="L23" t="n">
         <v>657.7</v>
@@ -1466,7 +1488,7 @@
         <v>109</v>
       </c>
       <c r="K24" t="n">
-        <v>40.95238095238095</v>
+        <v>94.5945945945946</v>
       </c>
       <c r="L24" t="n">
         <v>658.3</v>
@@ -1515,7 +1537,7 @@
         <v>110</v>
       </c>
       <c r="K25" t="n">
-        <v>40.95238095238095</v>
+        <v>93.10344827586206</v>
       </c>
       <c r="L25" t="n">
         <v>661.9</v>
@@ -1564,7 +1586,7 @@
         <v>120</v>
       </c>
       <c r="K26" t="n">
-        <v>28.07017543859649</v>
+        <v>43.58974358974359</v>
       </c>
       <c r="L26" t="n">
         <v>663.6</v>
@@ -1613,7 +1635,7 @@
         <v>129</v>
       </c>
       <c r="K27" t="n">
-        <v>13.79310344827586</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L27" t="n">
         <v>664.4</v>
@@ -1662,7 +1684,7 @@
         <v>130</v>
       </c>
       <c r="K28" t="n">
-        <v>12.82051282051282</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L28" t="n">
         <v>664.7</v>
@@ -1711,7 +1733,7 @@
         <v>131</v>
       </c>
       <c r="K29" t="n">
-        <v>7.964601769911504</v>
+        <v>-7.317073170731707</v>
       </c>
       <c r="L29" t="n">
         <v>664.7</v>
@@ -1760,7 +1782,7 @@
         <v>133</v>
       </c>
       <c r="K30" t="n">
-        <v>9.565217391304348</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L30" t="n">
         <v>664.6</v>
@@ -1809,7 +1831,7 @@
         <v>144</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8</v>
+        <v>-43.47826086956522</v>
       </c>
       <c r="L31" t="n">
         <v>663</v>
@@ -1860,7 +1882,7 @@
         <v>146</v>
       </c>
       <c r="K32" t="n">
-        <v>-4.065040650406504</v>
+        <v>-84.21052631578947</v>
       </c>
       <c r="L32" t="n">
         <v>660.8</v>
@@ -1911,7 +1933,7 @@
         <v>146</v>
       </c>
       <c r="K33" t="n">
-        <v>-5.785123966942149</v>
+        <v>-83.78378378378379</v>
       </c>
       <c r="L33" t="n">
         <v>657.6</v>
@@ -1962,7 +1984,7 @@
         <v>154</v>
       </c>
       <c r="K34" t="n">
-        <v>-15.31531531531531</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L34" t="n">
         <v>655.3</v>
@@ -2013,7 +2035,7 @@
         <v>159</v>
       </c>
       <c r="K35" t="n">
-        <v>19.54022988505747</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L35" t="n">
         <v>653.4</v>
@@ -2064,7 +2086,7 @@
         <v>170</v>
       </c>
       <c r="K36" t="n">
-        <v>21.34831460674157</v>
+        <v>26.82926829268293</v>
       </c>
       <c r="L36" t="n">
         <v>653.6</v>
@@ -2115,7 +2137,7 @@
         <v>189</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-11.86440677966102</v>
       </c>
       <c r="L37" t="n">
         <v>652.8</v>
@@ -2166,7 +2188,7 @@
         <v>203</v>
       </c>
       <c r="K38" t="n">
-        <v>8.474576271186439</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L38" t="n">
         <v>653.5</v>
@@ -2217,7 +2239,7 @@
         <v>205</v>
       </c>
       <c r="K39" t="n">
-        <v>5.084745762711865</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L39" t="n">
         <v>654.1</v>
@@ -2268,7 +2290,7 @@
         <v>207</v>
       </c>
       <c r="K40" t="n">
-        <v>0.8547008547008548</v>
+        <v>20.63492063492063</v>
       </c>
       <c r="L40" t="n">
         <v>654.3</v>
@@ -2319,7 +2341,7 @@
         <v>214</v>
       </c>
       <c r="K41" t="n">
-        <v>-8.333333333333332</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L41" t="n">
         <v>654.9</v>
@@ -2370,7 +2392,7 @@
         <v>222</v>
       </c>
       <c r="K42" t="n">
-        <v>-17.74193548387097</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>654.9</v>
@@ -2421,7 +2443,7 @@
         <v>224</v>
       </c>
       <c r="K43" t="n">
-        <v>-29.3103448275862</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L43" t="n">
         <v>654.7</v>
@@ -2472,7 +2494,7 @@
         <v>228</v>
       </c>
       <c r="K44" t="n">
-        <v>-24.36974789915966</v>
+        <v>-15.94202898550724</v>
       </c>
       <c r="L44" t="n">
         <v>654.1</v>
@@ -2523,7 +2545,7 @@
         <v>237</v>
       </c>
       <c r="K45" t="n">
-        <v>-30.70866141732284</v>
+        <v>-46.26865671641791</v>
       </c>
       <c r="L45" t="n">
         <v>652.1</v>
@@ -2574,7 +2596,7 @@
         <v>238</v>
       </c>
       <c r="K46" t="n">
-        <v>-25.42372881355932</v>
+        <v>-26.53061224489796</v>
       </c>
       <c r="L46" t="n">
         <v>648.9</v>
@@ -2625,7 +2647,7 @@
         <v>242</v>
       </c>
       <c r="K47" t="n">
-        <v>-15.04424778761062</v>
+        <v>-58.97435897435898</v>
       </c>
       <c r="L47" t="n">
         <v>648</v>
@@ -2676,7 +2698,7 @@
         <v>242</v>
       </c>
       <c r="K48" t="n">
-        <v>-14.28571428571428</v>
+        <v>-56.75675675675676</v>
       </c>
       <c r="L48" t="n">
         <v>645.7</v>
@@ -2727,7 +2749,7 @@
         <v>248</v>
       </c>
       <c r="K49" t="n">
-        <v>-17.94871794871795</v>
+        <v>-60.97560975609756</v>
       </c>
       <c r="L49" t="n">
         <v>643</v>
@@ -2778,7 +2800,7 @@
         <v>252</v>
       </c>
       <c r="K50" t="n">
-        <v>-22.6890756302521</v>
+        <v>-57.89473684210527</v>
       </c>
       <c r="L50" t="n">
         <v>640.1</v>
@@ -2829,7 +2851,7 @@
         <v>252</v>
       </c>
       <c r="K51" t="n">
-        <v>-14.81481481481481</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L51" t="n">
         <v>637.9</v>
@@ -2880,7 +2902,7 @@
         <v>252</v>
       </c>
       <c r="K52" t="n">
-        <v>-13.20754716981132</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L52" t="n">
         <v>636.5</v>
@@ -2931,7 +2953,7 @@
         <v>253</v>
       </c>
       <c r="K53" t="n">
-        <v>-12.14953271028037</v>
+        <v>-60</v>
       </c>
       <c r="L53" t="n">
         <v>635.4</v>
@@ -2982,7 +3004,7 @@
         <v>254</v>
       </c>
       <c r="K54" t="n">
-        <v>-22</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L54" t="n">
         <v>633.8</v>
@@ -3033,7 +3055,7 @@
         <v>255</v>
       </c>
       <c r="K55" t="n">
-        <v>-27.08333333333333</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L55" t="n">
         <v>633.2</v>
@@ -3084,7 +3106,7 @@
         <v>256</v>
       </c>
       <c r="K56" t="n">
-        <v>-44.18604651162791</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L56" t="n">
         <v>632.6</v>
@@ -3135,7 +3157,7 @@
         <v>256</v>
       </c>
       <c r="K57" t="n">
-        <v>-28.35820895522388</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L57" t="n">
         <v>631.6</v>
@@ -3186,7 +3208,7 @@
         <v>256</v>
       </c>
       <c r="K58" t="n">
-        <v>-62.26415094339622</v>
+        <v>-50</v>
       </c>
       <c r="L58" t="n">
         <v>630.6</v>
@@ -3237,7 +3259,7 @@
         <v>258</v>
       </c>
       <c r="K59" t="n">
-        <v>-62.26415094339622</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>630</v>
@@ -3288,7 +3310,7 @@
         <v>260</v>
       </c>
       <c r="K60" t="n">
-        <v>-54.71698113207547</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>630</v>
@@ -3339,7 +3361,7 @@
         <v>261</v>
       </c>
       <c r="K61" t="n">
-        <v>-44.68085106382978</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L61" t="n">
         <v>630.1</v>
@@ -3390,7 +3412,7 @@
         <v>266</v>
       </c>
       <c r="K62" t="n">
-        <v>-40.90909090909091</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L62" t="n">
         <v>629.7</v>
@@ -3441,7 +3463,7 @@
         <v>267</v>
       </c>
       <c r="K63" t="n">
-        <v>-34.88372093023256</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L63" t="n">
         <v>629.3</v>
@@ -3492,7 +3514,7 @@
         <v>267</v>
       </c>
       <c r="K64" t="n">
-        <v>-48.71794871794872</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L64" t="n">
         <v>629</v>
@@ -3543,7 +3565,7 @@
         <v>267</v>
       </c>
       <c r="K65" t="n">
-        <v>-33.33333333333333</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L65" t="n">
         <v>628.6</v>
@@ -3594,7 +3616,7 @@
         <v>270</v>
       </c>
       <c r="K66" t="n">
-        <v>-18.75</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>628.6</v>
@@ -3645,7 +3667,7 @@
         <v>271</v>
       </c>
       <c r="K67" t="n">
-        <v>-31.03448275862069</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L67" t="n">
         <v>628.7</v>
@@ -3696,7 +3718,7 @@
         <v>272</v>
       </c>
       <c r="K68" t="n">
-        <v>-33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L68" t="n">
         <v>628.7</v>
@@ -3747,7 +3769,7 @@
         <v>272</v>
       </c>
       <c r="K69" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>628.9</v>
@@ -3798,7 +3820,7 @@
         <v>277</v>
       </c>
       <c r="K70" t="n">
-        <v>-20</v>
+        <v>-37.5</v>
       </c>
       <c r="L70" t="n">
         <v>628.4</v>
@@ -3849,7 +3871,7 @@
         <v>283</v>
       </c>
       <c r="K71" t="n">
-        <v>3.225806451612903</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L71" t="n">
         <v>628.4</v>
@@ -3900,7 +3922,7 @@
         <v>284</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L72" t="n">
         <v>628.8</v>
@@ -3951,7 +3973,7 @@
         <v>285</v>
       </c>
       <c r="K73" t="n">
-        <v>-6.25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L73" t="n">
         <v>629</v>
@@ -4002,7 +4024,7 @@
         <v>286</v>
       </c>
       <c r="K74" t="n">
-        <v>-6.25</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L74" t="n">
         <v>629.1</v>
@@ -4053,7 +4075,7 @@
         <v>294</v>
       </c>
       <c r="K75" t="n">
-        <v>-28.2051282051282</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L75" t="n">
         <v>628.4</v>
@@ -4104,7 +4126,7 @@
         <v>298</v>
       </c>
       <c r="K76" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L76" t="n">
         <v>627.8</v>
@@ -4155,7 +4177,7 @@
         <v>303</v>
       </c>
       <c r="K77" t="n">
-        <v>-2.127659574468085</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L77" t="n">
         <v>627.6</v>
@@ -4206,7 +4228,7 @@
         <v>311</v>
       </c>
       <c r="K78" t="n">
-        <v>-16.36363636363636</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L78" t="n">
         <v>626.7</v>
@@ -4257,7 +4279,7 @@
         <v>311</v>
       </c>
       <c r="K79" t="n">
-        <v>-13.20754716981132</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L79" t="n">
         <v>625.8</v>
@@ -4308,7 +4330,7 @@
         <v>318</v>
       </c>
       <c r="K80" t="n">
-        <v>-3.448275862068965</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L80" t="n">
         <v>626.1</v>
@@ -4359,7 +4381,7 @@
         <v>323</v>
       </c>
       <c r="K81" t="n">
-        <v>-12.90322580645161</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L81" t="n">
         <v>625.3</v>
@@ -4410,7 +4432,7 @@
         <v>325</v>
       </c>
       <c r="K82" t="n">
-        <v>-8.474576271186439</v>
+        <v>-20</v>
       </c>
       <c r="L82" t="n">
         <v>624.4</v>
@@ -4461,7 +4483,7 @@
         <v>329</v>
       </c>
       <c r="K83" t="n">
-        <v>-3.225806451612903</v>
+        <v>-6.976744186046512</v>
       </c>
       <c r="L83" t="n">
         <v>624</v>
@@ -4512,7 +4534,7 @@
         <v>333</v>
       </c>
       <c r="K84" t="n">
-        <v>3.03030303030303</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L84" t="n">
         <v>624.1</v>
@@ -4563,7 +4585,7 @@
         <v>334</v>
       </c>
       <c r="K85" t="n">
-        <v>4.477611940298507</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L85" t="n">
         <v>625.1</v>
@@ -4614,7 +4636,7 @@
         <v>342</v>
       </c>
       <c r="K86" t="n">
-        <v>-11.11111111111111</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L86" t="n">
         <v>624.9</v>
@@ -4665,7 +4687,7 @@
         <v>348</v>
       </c>
       <c r="K87" t="n">
-        <v>-3.896103896103896</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L87" t="n">
         <v>624.8</v>
@@ -4716,7 +4738,7 @@
         <v>353</v>
       </c>
       <c r="K88" t="n">
-        <v>-8.641975308641975</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L88" t="n">
         <v>625</v>
@@ -4767,7 +4789,7 @@
         <v>353</v>
       </c>
       <c r="K89" t="n">
-        <v>-8.641975308641975</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L89" t="n">
         <v>625.2</v>
@@ -4818,7 +4840,7 @@
         <v>353</v>
       </c>
       <c r="K90" t="n">
-        <v>-2.631578947368421</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>624.7</v>
@@ -4869,7 +4891,7 @@
         <v>354</v>
       </c>
       <c r="K91" t="n">
-        <v>-9.859154929577464</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L91" t="n">
         <v>624.8</v>
@@ -4920,7 +4942,7 @@
         <v>357</v>
       </c>
       <c r="K92" t="n">
-        <v>-12.32876712328767</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L92" t="n">
         <v>624.8</v>
@@ -4971,7 +4993,7 @@
         <v>360</v>
       </c>
       <c r="K93" t="n">
-        <v>-6.666666666666667</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L93" t="n">
         <v>624.7</v>
@@ -5022,7 +5044,7 @@
         <v>363</v>
       </c>
       <c r="K94" t="n">
-        <v>-9.090909090909092</v>
+        <v>-31.03448275862069</v>
       </c>
       <c r="L94" t="n">
         <v>623.9</v>
@@ -5073,7 +5095,7 @@
         <v>366</v>
       </c>
       <c r="K95" t="n">
-        <v>5.555555555555555</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L95" t="n">
         <v>623.3</v>
@@ -5124,7 +5146,7 @@
         <v>366</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L96" t="n">
         <v>623.5</v>
@@ -5175,7 +5197,7 @@
         <v>367</v>
       </c>
       <c r="K97" t="n">
-        <v>-6.25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L97" t="n">
         <v>623.2</v>
@@ -5226,7 +5248,7 @@
         <v>369</v>
       </c>
       <c r="K98" t="n">
-        <v>10.3448275862069</v>
+        <v>25</v>
       </c>
       <c r="L98" t="n">
         <v>623.6</v>
@@ -5277,7 +5299,7 @@
         <v>369</v>
       </c>
       <c r="K99" t="n">
-        <v>10.3448275862069</v>
+        <v>25</v>
       </c>
       <c r="L99" t="n">
         <v>624</v>
@@ -5328,7 +5350,7 @@
         <v>373</v>
       </c>
       <c r="K100" t="n">
-        <v>-9.090909090909092</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L100" t="n">
         <v>624</v>
@@ -5379,7 +5401,7 @@
         <v>375</v>
       </c>
       <c r="K101" t="n">
-        <v>-3.846153846153846</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>623.7</v>
@@ -5430,7 +5452,7 @@
         <v>375</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L102" t="n">
         <v>623.7</v>
@@ -5481,7 +5503,7 @@
         <v>375</v>
       </c>
       <c r="K103" t="n">
-        <v>-8.695652173913043</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>623.4</v>
@@ -5532,7 +5554,7 @@
         <v>375</v>
       </c>
       <c r="K104" t="n">
-        <v>-19.04761904761905</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>623.4</v>
@@ -5583,7 +5605,7 @@
         <v>380</v>
       </c>
       <c r="K105" t="n">
-        <v>-8.695652173913043</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L105" t="n">
         <v>623.6</v>
@@ -5634,7 +5656,7 @@
         <v>381</v>
       </c>
       <c r="K106" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>623.7</v>
@@ -5685,7 +5707,7 @@
         <v>385</v>
       </c>
       <c r="K107" t="n">
-        <v>-18.91891891891892</v>
+        <v>-37.5</v>
       </c>
       <c r="L107" t="n">
         <v>623.3</v>
@@ -5736,7 +5758,7 @@
         <v>385</v>
       </c>
       <c r="K108" t="n">
-        <v>-6.25</v>
+        <v>-37.5</v>
       </c>
       <c r="L108" t="n">
         <v>622.7</v>
@@ -5787,7 +5809,7 @@
         <v>386</v>
       </c>
       <c r="K109" t="n">
-        <v>-9.090909090909092</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L109" t="n">
         <v>622</v>
@@ -5889,7 +5911,7 @@
         <v>396</v>
       </c>
       <c r="K111" t="n">
-        <v>-33.33333333333333</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L111" t="n">
         <v>620.6</v>
@@ -5940,7 +5962,7 @@
         <v>405</v>
       </c>
       <c r="K112" t="n">
-        <v>-4.166666666666666</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L112" t="n">
         <v>620.4</v>
@@ -5991,7 +6013,7 @@
         <v>407</v>
       </c>
       <c r="K113" t="n">
-        <v>-14.8936170212766</v>
+        <v>-12.5</v>
       </c>
       <c r="L113" t="n">
         <v>620</v>
@@ -6042,7 +6064,7 @@
         <v>410</v>
       </c>
       <c r="K114" t="n">
-        <v>-14.8936170212766</v>
+        <v>-40</v>
       </c>
       <c r="L114" t="n">
         <v>619.3</v>
@@ -6093,7 +6115,7 @@
         <v>410</v>
       </c>
       <c r="K115" t="n">
-        <v>-22.72727272727273</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L115" t="n">
         <v>618.1</v>
@@ -6144,7 +6166,7 @@
         <v>413</v>
       </c>
       <c r="K116" t="n">
-        <v>-14.8936170212766</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L116" t="n">
         <v>617.3</v>
@@ -6195,7 +6217,7 @@
         <v>420</v>
       </c>
       <c r="K117" t="n">
-        <v>-28.30188679245283</v>
+        <v>-31.42857142857143</v>
       </c>
       <c r="L117" t="n">
         <v>616.2</v>
@@ -6246,7 +6268,7 @@
         <v>428</v>
       </c>
       <c r="K118" t="n">
-        <v>-15.25423728813559</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L118" t="n">
         <v>615.9</v>
@@ -6297,7 +6319,7 @@
         <v>430</v>
       </c>
       <c r="K119" t="n">
-        <v>-11.47540983606557</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>615.9</v>
@@ -6348,7 +6370,7 @@
         <v>432</v>
       </c>
       <c r="K120" t="n">
-        <v>-1.694915254237288</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>616.1</v>
@@ -6399,7 +6421,7 @@
         <v>432</v>
       </c>
       <c r="K121" t="n">
-        <v>1.754385964912281</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L121" t="n">
         <v>617.3</v>
@@ -6450,7 +6472,7 @@
         <v>432</v>
       </c>
       <c r="K122" t="n">
-        <v>1.754385964912281</v>
+        <v>20</v>
       </c>
       <c r="L122" t="n">
         <v>617.6</v>
@@ -6501,7 +6523,7 @@
         <v>439</v>
       </c>
       <c r="K123" t="n">
-        <v>12.5</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L123" t="n">
         <v>618.8</v>
@@ -6552,7 +6574,7 @@
         <v>439</v>
       </c>
       <c r="K124" t="n">
-        <v>12.5</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L124" t="n">
         <v>620.3</v>
@@ -6603,7 +6625,7 @@
         <v>442</v>
       </c>
       <c r="K125" t="n">
-        <v>9.67741935483871</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L125" t="n">
         <v>622.1</v>
@@ -6654,7 +6676,7 @@
         <v>442</v>
       </c>
       <c r="K126" t="n">
-        <v>11.47540983606557</v>
+        <v>100</v>
       </c>
       <c r="L126" t="n">
         <v>623.6</v>
@@ -6705,7 +6727,7 @@
         <v>451</v>
       </c>
       <c r="K127" t="n">
-        <v>30.3030303030303</v>
+        <v>100</v>
       </c>
       <c r="L127" t="n">
         <v>626.7</v>
@@ -6756,7 +6778,7 @@
         <v>451</v>
       </c>
       <c r="K128" t="n">
-        <v>30.3030303030303</v>
+        <v>100</v>
       </c>
       <c r="L128" t="n">
         <v>629</v>
@@ -6807,7 +6829,7 @@
         <v>452</v>
       </c>
       <c r="K129" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L129" t="n">
         <v>631.2</v>
@@ -6858,7 +6880,7 @@
         <v>453</v>
       </c>
       <c r="K130" t="n">
-        <v>31.34328358208955</v>
+        <v>90.47619047619048</v>
       </c>
       <c r="L130" t="n">
         <v>633.1</v>
@@ -6909,7 +6931,7 @@
         <v>453</v>
       </c>
       <c r="K131" t="n">
-        <v>54.38596491228071</v>
+        <v>90.47619047619048</v>
       </c>
       <c r="L131" t="n">
         <v>635</v>
@@ -6960,7 +6982,7 @@
         <v>463</v>
       </c>
       <c r="K132" t="n">
-        <v>20.68965517241379</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L132" t="n">
         <v>635.9</v>
@@ -7011,7 +7033,7 @@
         <v>471</v>
       </c>
       <c r="K133" t="n">
-        <v>34.375</v>
+        <v>31.25</v>
       </c>
       <c r="L133" t="n">
         <v>636.9</v>
@@ -7062,7 +7084,7 @@
         <v>471</v>
       </c>
       <c r="K134" t="n">
-        <v>40.98360655737705</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L134" t="n">
         <v>637.9</v>
@@ -7113,7 +7135,7 @@
         <v>482</v>
       </c>
       <c r="K135" t="n">
-        <v>19.44444444444445</v>
+        <v>-10</v>
       </c>
       <c r="L135" t="n">
         <v>637.5</v>
@@ -7164,7 +7186,7 @@
         <v>483</v>
       </c>
       <c r="K136" t="n">
-        <v>17.14285714285714</v>
+        <v>-37.5</v>
       </c>
       <c r="L136" t="n">
         <v>637.2</v>
@@ -7215,7 +7237,7 @@
         <v>489</v>
       </c>
       <c r="K137" t="n">
-        <v>36.23188405797102</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L137" t="n">
         <v>636.6</v>
@@ -7266,7 +7288,7 @@
         <v>489</v>
       </c>
       <c r="K138" t="n">
-        <v>27.86885245901639</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L138" t="n">
         <v>636</v>
@@ -7317,7 +7339,7 @@
         <v>496</v>
       </c>
       <c r="K139" t="n">
-        <v>33.33333333333333</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L139" t="n">
         <v>636</v>
@@ -7368,7 +7390,7 @@
         <v>504</v>
       </c>
       <c r="K140" t="n">
-        <v>38.88888888888889</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L140" t="n">
         <v>636.9</v>
@@ -7419,7 +7441,7 @@
         <v>513</v>
       </c>
       <c r="K141" t="n">
-        <v>23.45679012345679</v>
+        <v>20</v>
       </c>
       <c r="L141" t="n">
         <v>636.9</v>
@@ -7470,7 +7492,7 @@
         <v>514</v>
       </c>
       <c r="K142" t="n">
-        <v>24.39024390243902</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L142" t="n">
         <v>638</v>
@@ -7521,7 +7543,7 @@
         <v>528</v>
       </c>
       <c r="K143" t="n">
-        <v>-1.123595505617978</v>
+        <v>-19.29824561403509</v>
       </c>
       <c r="L143" t="n">
         <v>636.9</v>
@@ -7572,7 +7594,7 @@
         <v>533</v>
       </c>
       <c r="K144" t="n">
-        <v>4.25531914893617</v>
+        <v>9.803921568627452</v>
       </c>
       <c r="L144" t="n">
         <v>636.3</v>
@@ -7623,7 +7645,7 @@
         <v>540</v>
       </c>
       <c r="K145" t="n">
-        <v>8.163265306122449</v>
+        <v>19.29824561403509</v>
       </c>
       <c r="L145" t="n">
         <v>637.5</v>
@@ -7674,7 +7696,7 @@
         <v>540</v>
       </c>
       <c r="K146" t="n">
-        <v>8.163265306122449</v>
+        <v>9.803921568627452</v>
       </c>
       <c r="L146" t="n">
         <v>638.6</v>
@@ -7725,7 +7747,7 @@
         <v>548</v>
       </c>
       <c r="K147" t="n">
-        <v>-9.278350515463918</v>
+        <v>-5.084745762711865</v>
       </c>
       <c r="L147" t="n">
         <v>638.3</v>
@@ -7776,7 +7798,7 @@
         <v>550</v>
       </c>
       <c r="K148" t="n">
-        <v>-11.11111111111111</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L148" t="n">
         <v>637.8</v>
@@ -7827,7 +7849,7 @@
         <v>555</v>
       </c>
       <c r="K149" t="n">
-        <v>-6.796116504854369</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L149" t="n">
         <v>637.1</v>
@@ -7878,7 +7900,7 @@
         <v>556</v>
       </c>
       <c r="K150" t="n">
-        <v>-6.796116504854369</v>
+        <v>-16.27906976744186</v>
       </c>
       <c r="L150" t="n">
         <v>635.5</v>
@@ -7929,7 +7951,7 @@
         <v>562</v>
       </c>
       <c r="K151" t="n">
-        <v>-0.9174311926605505</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="L151" t="n">
         <v>635.4</v>
@@ -7980,7 +8002,7 @@
         <v>564</v>
       </c>
       <c r="K152" t="n">
-        <v>10.89108910891089</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L152" t="n">
         <v>635.4</v>
@@ -8031,7 +8053,7 @@
         <v>569</v>
       </c>
       <c r="K153" t="n">
-        <v>-2.040816326530612</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L153" t="n">
         <v>636.3</v>
@@ -8082,7 +8104,7 @@
         <v>574</v>
       </c>
       <c r="K154" t="n">
-        <v>-6.796116504854369</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L154" t="n">
         <v>636.2</v>
@@ -8133,7 +8155,7 @@
         <v>579</v>
       </c>
       <c r="K155" t="n">
-        <v>9.278350515463918</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L155" t="n">
         <v>635.9</v>
@@ -8184,7 +8206,7 @@
         <v>579</v>
       </c>
       <c r="K156" t="n">
-        <v>8.333333333333332</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L156" t="n">
         <v>635.6</v>

--- a/BackTest/2019-11-02 BackTest GXC.xlsx
+++ b/BackTest/2019-11-02 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S156"/>
+  <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
-      </c>
-      <c r="J7" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
-      </c>
-      <c r="J8" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18</v>
-      </c>
-      <c r="J9" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
-      </c>
-      <c r="J10" t="n">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>17</v>
-      </c>
-      <c r="J11" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>637.8</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21</v>
-      </c>
-      <c r="J12" t="n">
-        <v>23</v>
-      </c>
-      <c r="K12" t="n">
-        <v>89.47368421052632</v>
-      </c>
-      <c r="L12" t="n">
-        <v>639.9</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>23</v>
-      </c>
-      <c r="J13" t="n">
-        <v>25</v>
-      </c>
-      <c r="K13" t="n">
-        <v>90.47619047619048</v>
-      </c>
-      <c r="L13" t="n">
-        <v>641.8</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41</v>
-      </c>
-      <c r="J14" t="n">
-        <v>43</v>
-      </c>
-      <c r="K14" t="n">
-        <v>94.73684210526315</v>
-      </c>
-      <c r="L14" t="n">
-        <v>645.5</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>12</v>
-      </c>
-      <c r="J15" t="n">
-        <v>72</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L15" t="n">
-        <v>646.2</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21</v>
-      </c>
-      <c r="J16" t="n">
-        <v>81</v>
-      </c>
-      <c r="K16" t="n">
-        <v>11.76470588235294</v>
-      </c>
-      <c r="L16" t="n">
-        <v>647.7</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>21</v>
-      </c>
-      <c r="J17" t="n">
-        <v>81</v>
-      </c>
-      <c r="K17" t="n">
-        <v>11.76470588235294</v>
-      </c>
-      <c r="L17" t="n">
-        <v>648.5</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>25</v>
-      </c>
-      <c r="J18" t="n">
-        <v>85</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10.44776119402985</v>
-      </c>
-      <c r="L18" t="n">
-        <v>649.7</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>27</v>
-      </c>
-      <c r="J19" t="n">
-        <v>87</v>
-      </c>
-      <c r="K19" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L19" t="n">
-        <v>650.6</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>30</v>
-      </c>
-      <c r="J20" t="n">
-        <v>90</v>
-      </c>
-      <c r="K20" t="n">
-        <v>18.30985915492958</v>
-      </c>
-      <c r="L20" t="n">
-        <v>651.8</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>94</v>
-      </c>
-      <c r="K21" t="n">
-        <v>18.30985915492958</v>
-      </c>
-      <c r="L21" t="n">
-        <v>653.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>645.65</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>38</v>
-      </c>
-      <c r="J22" t="n">
-        <v>98</v>
-      </c>
-      <c r="K22" t="n">
-        <v>20.54794520547945</v>
-      </c>
-      <c r="L22" t="n">
-        <v>655.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>647.55</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>48</v>
-      </c>
-      <c r="J23" t="n">
-        <v>108</v>
-      </c>
-      <c r="K23" t="n">
-        <v>10.76923076923077</v>
-      </c>
-      <c r="L23" t="n">
-        <v>657.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>649.75</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>47</v>
-      </c>
-      <c r="J24" t="n">
-        <v>109</v>
-      </c>
-      <c r="K24" t="n">
-        <v>94.5945945945946</v>
-      </c>
-      <c r="L24" t="n">
-        <v>658.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>651.9</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>48</v>
-      </c>
-      <c r="J25" t="n">
-        <v>110</v>
-      </c>
-      <c r="K25" t="n">
-        <v>93.10344827586206</v>
-      </c>
-      <c r="L25" t="n">
-        <v>661.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>654.05</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>38</v>
-      </c>
-      <c r="J26" t="n">
-        <v>120</v>
-      </c>
-      <c r="K26" t="n">
-        <v>43.58974358974359</v>
-      </c>
-      <c r="L26" t="n">
-        <v>663.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>655.65</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>29</v>
-      </c>
-      <c r="J27" t="n">
-        <v>129</v>
-      </c>
-      <c r="K27" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L27" t="n">
-        <v>664.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>656.45</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>28</v>
-      </c>
-      <c r="J28" t="n">
-        <v>130</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.325581395348837</v>
-      </c>
-      <c r="L28" t="n">
-        <v>664.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>657.2</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>27</v>
-      </c>
-      <c r="J29" t="n">
-        <v>131</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-7.317073170731707</v>
-      </c>
-      <c r="L29" t="n">
-        <v>664.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>657.65</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>29</v>
-      </c>
-      <c r="J30" t="n">
-        <v>133</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-12.82051282051282</v>
-      </c>
-      <c r="L30" t="n">
-        <v>664.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>658.2</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>18</v>
-      </c>
-      <c r="J31" t="n">
-        <v>144</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-43.47826086956522</v>
-      </c>
-      <c r="L31" t="n">
-        <v>663</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>658.25</v>
-      </c>
-      <c r="N31" t="n">
-        <v>651.4333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>16</v>
-      </c>
-      <c r="J32" t="n">
-        <v>146</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-84.21052631578947</v>
-      </c>
-      <c r="L32" t="n">
-        <v>660.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>658</v>
-      </c>
-      <c r="N32" t="n">
-        <v>651.9666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16</v>
-      </c>
-      <c r="J33" t="n">
-        <v>146</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-83.78378378378379</v>
-      </c>
-      <c r="L33" t="n">
-        <v>657.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>657.65</v>
-      </c>
-      <c r="N33" t="n">
-        <v>652.3666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24</v>
-      </c>
-      <c r="J34" t="n">
-        <v>154</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-54.54545454545454</v>
-      </c>
-      <c r="L34" t="n">
-        <v>655.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>656.8</v>
-      </c>
-      <c r="N34" t="n">
-        <v>653.0333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>29</v>
-      </c>
-      <c r="J35" t="n">
-        <v>159</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L35" t="n">
-        <v>653.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>657.65</v>
-      </c>
-      <c r="N35" t="n">
-        <v>653.8333333333334</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>40</v>
-      </c>
-      <c r="J36" t="n">
-        <v>170</v>
-      </c>
-      <c r="K36" t="n">
-        <v>26.82926829268293</v>
-      </c>
-      <c r="L36" t="n">
-        <v>653.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>658.6</v>
-      </c>
-      <c r="N36" t="n">
-        <v>654.9666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>21</v>
-      </c>
-      <c r="J37" t="n">
-        <v>189</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-11.86440677966102</v>
-      </c>
-      <c r="L37" t="n">
-        <v>652.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>658.6</v>
-      </c>
-      <c r="N37" t="n">
-        <v>655.2333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>35</v>
-      </c>
-      <c r="J38" t="n">
-        <v>203</v>
-      </c>
-      <c r="K38" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L38" t="n">
-        <v>653.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>659.1</v>
-      </c>
-      <c r="N38" t="n">
-        <v>655.9666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>33</v>
-      </c>
-      <c r="J39" t="n">
-        <v>205</v>
-      </c>
-      <c r="K39" t="n">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>654.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>659.4</v>
-      </c>
-      <c r="N39" t="n">
-        <v>656.4666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>31</v>
-      </c>
-      <c r="J40" t="n">
-        <v>207</v>
-      </c>
-      <c r="K40" t="n">
-        <v>20.63492063492063</v>
-      </c>
-      <c r="L40" t="n">
-        <v>654.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>659.45</v>
-      </c>
-      <c r="N40" t="n">
-        <v>656.9</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>214</v>
-      </c>
-      <c r="K41" t="n">
-        <v>11.76470588235294</v>
-      </c>
-      <c r="L41" t="n">
-        <v>654.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>658.95</v>
-      </c>
-      <c r="N41" t="n">
-        <v>657.1333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>222</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>654.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>657.85</v>
-      </c>
-      <c r="N42" t="n">
-        <v>656.9666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>14</v>
-      </c>
-      <c r="J43" t="n">
-        <v>224</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L43" t="n">
-        <v>654.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>656.15</v>
-      </c>
-      <c r="N43" t="n">
-        <v>656.6666666666666</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>18</v>
-      </c>
-      <c r="J44" t="n">
-        <v>228</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-15.94202898550724</v>
-      </c>
-      <c r="L44" t="n">
-        <v>654.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>654.7</v>
-      </c>
-      <c r="N44" t="n">
-        <v>655.9</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>9</v>
-      </c>
-      <c r="J45" t="n">
-        <v>237</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-46.26865671641791</v>
-      </c>
-      <c r="L45" t="n">
-        <v>652.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>652.75</v>
-      </c>
-      <c r="N45" t="n">
-        <v>655.8</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>238</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-26.53061224489796</v>
-      </c>
-      <c r="L46" t="n">
-        <v>648.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>651.25</v>
-      </c>
-      <c r="N46" t="n">
-        <v>655.3666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>12</v>
-      </c>
-      <c r="J47" t="n">
-        <v>242</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-58.97435897435898</v>
-      </c>
-      <c r="L47" t="n">
-        <v>648</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>650.4</v>
-      </c>
-      <c r="N47" t="n">
-        <v>655.0666666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>12</v>
-      </c>
-      <c r="J48" t="n">
-        <v>242</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-56.75675675675676</v>
-      </c>
-      <c r="L48" t="n">
-        <v>645.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>649.6</v>
-      </c>
-      <c r="N48" t="n">
-        <v>654.6333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
-      </c>
-      <c r="J49" t="n">
-        <v>248</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-60.97560975609756</v>
-      </c>
-      <c r="L49" t="n">
-        <v>643</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>648.55</v>
-      </c>
-      <c r="N49" t="n">
-        <v>653.9333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" t="n">
-        <v>252</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-57.89473684210527</v>
-      </c>
-      <c r="L50" t="n">
-        <v>640.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>647.2</v>
-      </c>
-      <c r="N50" t="n">
-        <v>653</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>252</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-46.66666666666666</v>
-      </c>
-      <c r="L51" t="n">
-        <v>637.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>646.4</v>
-      </c>
-      <c r="N51" t="n">
-        <v>651.9333333333333</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
-      </c>
-      <c r="J52" t="n">
-        <v>252</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L52" t="n">
-        <v>636.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>645.7</v>
-      </c>
-      <c r="N52" t="n">
-        <v>650.7333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>253</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L53" t="n">
-        <v>635.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>645.05</v>
-      </c>
-      <c r="N53" t="n">
-        <v>649.2333333333333</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>254</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-41.17647058823529</v>
-      </c>
-      <c r="L54" t="n">
-        <v>633.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>643.95</v>
-      </c>
-      <c r="N54" t="n">
-        <v>647.7333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
-      </c>
-      <c r="J55" t="n">
-        <v>255</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L55" t="n">
-        <v>633.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>642.65</v>
-      </c>
-      <c r="N55" t="n">
-        <v>646.2333333333333</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
-      </c>
-      <c r="J56" t="n">
-        <v>256</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L56" t="n">
-        <v>632.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>640.75</v>
-      </c>
-      <c r="N56" t="n">
-        <v>645.0333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
-      </c>
-      <c r="J57" t="n">
-        <v>256</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L57" t="n">
-        <v>631.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>639.8</v>
-      </c>
-      <c r="N57" t="n">
-        <v>644.1333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
-      </c>
-      <c r="J58" t="n">
-        <v>256</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L58" t="n">
-        <v>630.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>638.15</v>
-      </c>
-      <c r="N58" t="n">
-        <v>643.2666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3255,26 +2451,10 @@
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>258</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L59" t="n">
-        <v>630</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>636.5</v>
-      </c>
-      <c r="N59" t="n">
-        <v>642.3666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>260</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>635.05</v>
-      </c>
-      <c r="N60" t="n">
-        <v>641.4666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>261</v>
-      </c>
-      <c r="K61" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L61" t="n">
-        <v>630.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>634</v>
-      </c>
-      <c r="N61" t="n">
-        <v>640.9666666666667</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>266</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-38.46153846153847</v>
-      </c>
-      <c r="L62" t="n">
-        <v>629.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>633.1</v>
-      </c>
-      <c r="N62" t="n">
-        <v>640.3666666666667</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>267</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L63" t="n">
-        <v>629.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>632.35</v>
-      </c>
-      <c r="N63" t="n">
-        <v>639.8</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>267</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L64" t="n">
-        <v>629</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>631.4</v>
-      </c>
-      <c r="N64" t="n">
-        <v>638.9666666666667</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>267</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L65" t="n">
-        <v>628.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>630.9</v>
-      </c>
-      <c r="N65" t="n">
-        <v>637.9666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
-      </c>
-      <c r="J66" t="n">
-        <v>270</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>628.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>630.6</v>
-      </c>
-      <c r="N66" t="n">
-        <v>636.7</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
-      </c>
-      <c r="J67" t="n">
-        <v>271</v>
-      </c>
-      <c r="K67" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L67" t="n">
-        <v>628.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>630.15</v>
-      </c>
-      <c r="N67" t="n">
-        <v>636.1</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>272</v>
-      </c>
-      <c r="K68" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L68" t="n">
-        <v>628.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>629.65</v>
-      </c>
-      <c r="N68" t="n">
-        <v>635</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>272</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>628.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>629.45</v>
-      </c>
-      <c r="N69" t="n">
-        <v>633.9666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>277</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L70" t="n">
-        <v>628.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>629.2</v>
-      </c>
-      <c r="N70" t="n">
-        <v>632.8333333333334</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>283</v>
-      </c>
-      <c r="K71" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L71" t="n">
-        <v>628.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>629.25</v>
-      </c>
-      <c r="N71" t="n">
-        <v>632.1333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
-      </c>
-      <c r="J72" t="n">
-        <v>284</v>
-      </c>
-      <c r="K72" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L72" t="n">
-        <v>628.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>629.25</v>
-      </c>
-      <c r="N72" t="n">
-        <v>631.6666666666666</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>285</v>
-      </c>
-      <c r="K73" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L73" t="n">
-        <v>629</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>629.15</v>
-      </c>
-      <c r="N73" t="n">
-        <v>631.2333333333333</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4020,26 +2976,10 @@
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>286</v>
-      </c>
-      <c r="K74" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L74" t="n">
-        <v>629.1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>629.05</v>
-      </c>
-      <c r="N74" t="n">
-        <v>630.6333333333333</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J75" t="n">
-        <v>294</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-41.66666666666667</v>
-      </c>
-      <c r="L75" t="n">
-        <v>628.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>628.5</v>
-      </c>
-      <c r="N75" t="n">
-        <v>630.0666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J76" t="n">
-        <v>298</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-25.92592592592592</v>
-      </c>
-      <c r="L76" t="n">
-        <v>627.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>628.2</v>
-      </c>
-      <c r="N76" t="n">
-        <v>629.6666666666666</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>303</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-3.225806451612903</v>
-      </c>
-      <c r="L77" t="n">
-        <v>627.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>628.15</v>
-      </c>
-      <c r="N77" t="n">
-        <v>629.3</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J78" t="n">
-        <v>311</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L78" t="n">
-        <v>626.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>627.7</v>
-      </c>
-      <c r="N78" t="n">
-        <v>628.6666666666666</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J79" t="n">
-        <v>311</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-11.76470588235294</v>
-      </c>
-      <c r="L79" t="n">
-        <v>625.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>627.35</v>
-      </c>
-      <c r="N79" t="n">
-        <v>628.2333333333333</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4326,26 +3186,10 @@
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>318</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-8.571428571428571</v>
-      </c>
-      <c r="L80" t="n">
-        <v>626.1</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>627.25</v>
-      </c>
-      <c r="N80" t="n">
-        <v>628.1666666666666</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>323</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-17.94871794871795</v>
-      </c>
-      <c r="L81" t="n">
-        <v>625.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>626.85</v>
-      </c>
-      <c r="N81" t="n">
-        <v>627.9333333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J82" t="n">
-        <v>325</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L82" t="n">
-        <v>624.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>626.6</v>
-      </c>
-      <c r="N82" t="n">
-        <v>627.6333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3289,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J83" t="n">
-        <v>329</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-6.976744186046512</v>
-      </c>
-      <c r="L83" t="n">
-        <v>624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>626.5</v>
-      </c>
-      <c r="N83" t="n">
-        <v>627.4333333333333</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>333</v>
-      </c>
-      <c r="K84" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L84" t="n">
-        <v>624.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>626.6</v>
-      </c>
-      <c r="N84" t="n">
-        <v>627.4</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>334</v>
-      </c>
-      <c r="K85" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L85" t="n">
-        <v>625.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>626.75</v>
-      </c>
-      <c r="N85" t="n">
-        <v>627.3666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>342</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-17.94871794871795</v>
-      </c>
-      <c r="L86" t="n">
-        <v>624.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>626.35</v>
-      </c>
-      <c r="N86" t="n">
-        <v>627.1</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,26 +3431,10 @@
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>348</v>
-      </c>
-      <c r="K87" t="n">
-        <v>18.91891891891892</v>
-      </c>
-      <c r="L87" t="n">
-        <v>624.8</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>626.2</v>
-      </c>
-      <c r="N87" t="n">
-        <v>627.0333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3464,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>353</v>
-      </c>
-      <c r="K88" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L88" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>625.85</v>
-      </c>
-      <c r="N88" t="n">
-        <v>626.8</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>353</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L89" t="n">
-        <v>625.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>625.5</v>
-      </c>
-      <c r="N89" t="n">
-        <v>626.6333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J90" t="n">
-        <v>353</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>624.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>625.4</v>
-      </c>
-      <c r="N90" t="n">
-        <v>626.4</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J91" t="n">
-        <v>354</v>
-      </c>
-      <c r="K91" t="n">
-        <v>10.3448275862069</v>
-      </c>
-      <c r="L91" t="n">
-        <v>624.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>625.05</v>
-      </c>
-      <c r="N91" t="n">
-        <v>626.1666666666666</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3604,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>357</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L92" t="n">
-        <v>624.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>624.6</v>
-      </c>
-      <c r="N92" t="n">
-        <v>626</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J93" t="n">
-        <v>360</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-18.51851851851852</v>
-      </c>
-      <c r="L93" t="n">
-        <v>624.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>624.35</v>
-      </c>
-      <c r="N93" t="n">
-        <v>625.9</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J94" t="n">
-        <v>363</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-31.03448275862069</v>
-      </c>
-      <c r="L94" t="n">
-        <v>623.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>624</v>
-      </c>
-      <c r="N94" t="n">
-        <v>625.7</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J95" t="n">
-        <v>366</v>
-      </c>
-      <c r="K95" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="L95" t="n">
-        <v>623.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>624.2</v>
-      </c>
-      <c r="N95" t="n">
-        <v>625.6</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3744,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J96" t="n">
-        <v>366</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L96" t="n">
-        <v>623.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>624.2</v>
-      </c>
-      <c r="N96" t="n">
-        <v>625.4</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3779,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>367</v>
-      </c>
-      <c r="K97" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L97" t="n">
-        <v>623.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>624</v>
-      </c>
-      <c r="N97" t="n">
-        <v>625.2</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>369</v>
-      </c>
-      <c r="K98" t="n">
-        <v>25</v>
-      </c>
-      <c r="L98" t="n">
-        <v>623.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>624.3</v>
-      </c>
-      <c r="N98" t="n">
-        <v>625.1</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +3849,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>369</v>
-      </c>
-      <c r="K99" t="n">
-        <v>25</v>
-      </c>
-      <c r="L99" t="n">
-        <v>624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>624.6</v>
-      </c>
-      <c r="N99" t="n">
-        <v>625</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J100" t="n">
-        <v>373</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L100" t="n">
-        <v>624</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>624.35</v>
-      </c>
-      <c r="N100" t="n">
-        <v>624.9333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +3919,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>375</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>623.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>624.25</v>
-      </c>
-      <c r="N101" t="n">
-        <v>624.6</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J102" t="n">
-        <v>375</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L102" t="n">
-        <v>623.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>624.25</v>
-      </c>
-      <c r="N102" t="n">
-        <v>624.3</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J103" t="n">
-        <v>375</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>623.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>624.05</v>
-      </c>
-      <c r="N103" t="n">
-        <v>624.0333333333333</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J104" t="n">
-        <v>375</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L104" t="n">
-        <v>623.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>623.65</v>
-      </c>
-      <c r="N104" t="n">
-        <v>623.8</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4059,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J105" t="n">
-        <v>380</v>
-      </c>
-      <c r="K105" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L105" t="n">
-        <v>623.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>623.45</v>
-      </c>
-      <c r="N105" t="n">
-        <v>624</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5647,31 +4091,19 @@
         <v>626.85</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>381</v>
+        <v>625</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>623.7</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>623.6</v>
-      </c>
-      <c r="N106" t="n">
-        <v>624.0333333333333</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4133,18 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J107" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L107" t="n">
-        <v>623.3</v>
+        <v>625</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>623.25</v>
-      </c>
-      <c r="N107" t="n">
-        <v>623.7666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4174,18 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J108" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L108" t="n">
-        <v>622.7</v>
+        <v>625</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>623.15</v>
-      </c>
-      <c r="N108" t="n">
-        <v>623.7666666666667</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4215,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J109" t="n">
-        <v>386</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L109" t="n">
-        <v>622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>623</v>
-      </c>
-      <c r="N109" t="n">
-        <v>623.7333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5851,31 +4247,19 @@
         <v>625.8166666666667</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>386</v>
+        <v>620</v>
       </c>
       <c r="K110" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L110" t="n">
-        <v>621.7</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>622.85</v>
-      </c>
-      <c r="N110" t="n">
-        <v>623.4666666666667</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5902,31 +4286,23 @@
         <v>625.4833333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>396</v>
+        <v>616</v>
       </c>
       <c r="K111" t="n">
-        <v>-52.38095238095239</v>
-      </c>
-      <c r="L111" t="n">
-        <v>620.6</v>
+        <v>620</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>622.15</v>
-      </c>
-      <c r="N111" t="n">
-        <v>623.0333333333333</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5953,31 +4329,23 @@
         <v>625.3</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>405</v>
+        <v>619</v>
       </c>
       <c r="K112" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L112" t="n">
-        <v>620.4</v>
+        <v>620</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>622.05</v>
-      </c>
-      <c r="N112" t="n">
-        <v>622.9666666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6004,31 +4372,23 @@
         <v>625.0666666666667</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>407</v>
+        <v>617</v>
       </c>
       <c r="K113" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L113" t="n">
         <v>620</v>
       </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
-        <v>621.7</v>
-      </c>
-      <c r="N113" t="n">
-        <v>622.7</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6055,31 +4415,23 @@
         <v>624.8</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>410</v>
+        <v>614</v>
       </c>
       <c r="K114" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L114" t="n">
-        <v>619.3</v>
+        <v>620</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>621.35</v>
-      </c>
-      <c r="N114" t="n">
-        <v>622.2</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6106,31 +4458,23 @@
         <v>624.5166666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>410</v>
+        <v>614</v>
       </c>
       <c r="K115" t="n">
-        <v>-37.93103448275862</v>
-      </c>
-      <c r="L115" t="n">
-        <v>618.1</v>
+        <v>620</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>620.85</v>
-      </c>
-      <c r="N115" t="n">
-        <v>621.6666666666666</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6157,31 +4501,23 @@
         <v>624.3</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>413</v>
+        <v>614</v>
       </c>
       <c r="K116" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L116" t="n">
-        <v>617.3</v>
+        <v>620</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>620.5</v>
-      </c>
-      <c r="N116" t="n">
-        <v>621.5</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6208,31 +4544,23 @@
         <v>623.9666666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>420</v>
+        <v>610</v>
       </c>
       <c r="K117" t="n">
-        <v>-31.42857142857143</v>
-      </c>
-      <c r="L117" t="n">
-        <v>616.2</v>
+        <v>620</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>619.75</v>
-      </c>
-      <c r="N117" t="n">
-        <v>620.9</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6259,31 +4587,23 @@
         <v>623.7666666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>428</v>
+        <v>618</v>
       </c>
       <c r="K118" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L118" t="n">
-        <v>615.9</v>
+        <v>620</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>619.3</v>
-      </c>
-      <c r="N118" t="n">
-        <v>620.7333333333333</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6310,31 +4630,23 @@
         <v>623.6333333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>430</v>
+        <v>618</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>615.9</v>
+        <v>620</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>618.95</v>
-      </c>
-      <c r="N119" t="n">
-        <v>620.6333333333333</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6361,31 +4673,23 @@
         <v>623.5</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>432</v>
+        <v>622</v>
       </c>
       <c r="K120" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L120" t="n">
-        <v>616.1</v>
+        <v>620</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>618.9</v>
-      </c>
-      <c r="N120" t="n">
-        <v>620.6</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6412,31 +4716,23 @@
         <v>623.35</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>432</v>
+        <v>622</v>
       </c>
       <c r="K121" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L121" t="n">
-        <v>617.3</v>
+        <v>620</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>618.95</v>
-      </c>
-      <c r="N121" t="n">
-        <v>620.5333333333333</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6463,31 +4759,23 @@
         <v>623.2833333333333</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>432</v>
+        <v>622</v>
       </c>
       <c r="K122" t="n">
-        <v>20</v>
-      </c>
-      <c r="L122" t="n">
-        <v>617.6</v>
+        <v>620</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>619</v>
-      </c>
-      <c r="N122" t="n">
-        <v>620.5666666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6514,31 +4802,23 @@
         <v>623.3166666666667</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>439</v>
+        <v>629</v>
       </c>
       <c r="K123" t="n">
-        <v>51.72413793103448</v>
-      </c>
-      <c r="L123" t="n">
-        <v>618.8</v>
+        <v>620</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>619.4</v>
-      </c>
-      <c r="N123" t="n">
-        <v>620.7333333333333</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6565,31 +4845,23 @@
         <v>623.35</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>439</v>
+        <v>629</v>
       </c>
       <c r="K124" t="n">
-        <v>51.72413793103448</v>
-      </c>
-      <c r="L124" t="n">
-        <v>620.3</v>
+        <v>620</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>619.8</v>
-      </c>
-      <c r="N124" t="n">
-        <v>621</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6616,31 +4888,23 @@
         <v>623.4333333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>442</v>
+        <v>630</v>
       </c>
       <c r="K125" t="n">
-        <v>51.72413793103448</v>
-      </c>
-      <c r="L125" t="n">
-        <v>622.1</v>
+        <v>620</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>620.1</v>
-      </c>
-      <c r="N125" t="n">
-        <v>621.2666666666667</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6667,31 +4931,23 @@
         <v>623.4666666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>442</v>
+        <v>632</v>
       </c>
       <c r="K126" t="n">
-        <v>100</v>
-      </c>
-      <c r="L126" t="n">
-        <v>623.6</v>
+        <v>620</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>620.45</v>
-      </c>
-      <c r="N126" t="n">
-        <v>621.5333333333333</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +4977,18 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>13</v>
-      </c>
-      <c r="J127" t="n">
-        <v>451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>100</v>
-      </c>
-      <c r="L127" t="n">
-        <v>626.7</v>
+        <v>620</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>621.45</v>
-      </c>
-      <c r="N127" t="n">
-        <v>622.0666666666667</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5018,18 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>13</v>
-      </c>
-      <c r="J128" t="n">
-        <v>451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>100</v>
-      </c>
-      <c r="L128" t="n">
-        <v>629</v>
+        <v>620</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>622.45</v>
-      </c>
-      <c r="N128" t="n">
-        <v>622.5333333333333</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6823,28 +5059,18 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>14</v>
-      </c>
-      <c r="J129" t="n">
-        <v>452</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>100</v>
-      </c>
-      <c r="L129" t="n">
-        <v>631.2</v>
+        <v>620</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>623.55</v>
-      </c>
-      <c r="N129" t="n">
-        <v>623.0333333333333</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5100,18 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>13</v>
-      </c>
-      <c r="J130" t="n">
-        <v>453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>90.47619047619048</v>
-      </c>
-      <c r="L130" t="n">
-        <v>633.1</v>
+        <v>620</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>624.6</v>
-      </c>
-      <c r="N130" t="n">
-        <v>623.6333333333333</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5141,18 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>13</v>
-      </c>
-      <c r="J131" t="n">
-        <v>453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>90.47619047619048</v>
-      </c>
-      <c r="L131" t="n">
-        <v>635</v>
+        <v>620</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>626.15</v>
-      </c>
-      <c r="N131" t="n">
-        <v>624.3</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5182,18 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
-      </c>
-      <c r="J132" t="n">
-        <v>463</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="L132" t="n">
-        <v>635.9</v>
+        <v>620</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>626.75</v>
-      </c>
-      <c r="N132" t="n">
-        <v>624.6333333333333</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5223,18 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>11</v>
-      </c>
-      <c r="J133" t="n">
-        <v>471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="L133" t="n">
-        <v>636.9</v>
+        <v>620</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>627.85</v>
-      </c>
-      <c r="N133" t="n">
-        <v>625.2333333333333</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,29 +5264,19 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>11</v>
-      </c>
-      <c r="J134" t="n">
-        <v>471</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>24.13793103448276</v>
-      </c>
-      <c r="L134" t="n">
-        <v>637.9</v>
+        <v>620</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>629.1</v>
-      </c>
-      <c r="N134" t="n">
-        <v>625.8333333333334</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
+        <v>1.025645161290323</v>
       </c>
     </row>
     <row r="135">
@@ -7129,1099 +5305,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>482</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L135" t="n">
-        <v>637.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>629.8</v>
-      </c>
-      <c r="N135" t="n">
-        <v>625.9</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>629</v>
-      </c>
-      <c r="C136" t="n">
-        <v>629</v>
-      </c>
-      <c r="D136" t="n">
-        <v>629</v>
-      </c>
-      <c r="E136" t="n">
-        <v>629</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1</v>
-      </c>
-      <c r="G136" t="n">
-        <v>625.0333333333333</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="n">
-        <v>483</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L136" t="n">
-        <v>637.2</v>
-      </c>
-      <c r="M136" t="n">
-        <v>630.4</v>
-      </c>
-      <c r="N136" t="n">
-        <v>626.0333333333333</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>629</v>
-      </c>
-      <c r="C137" t="n">
-        <v>635</v>
-      </c>
-      <c r="D137" t="n">
-        <v>635</v>
-      </c>
-      <c r="E137" t="n">
-        <v>629</v>
-      </c>
-      <c r="F137" t="n">
-        <v>120</v>
-      </c>
-      <c r="G137" t="n">
-        <v>625.1333333333333</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>7</v>
-      </c>
-      <c r="J137" t="n">
-        <v>489</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L137" t="n">
-        <v>636.6</v>
-      </c>
-      <c r="M137" t="n">
-        <v>631.65</v>
-      </c>
-      <c r="N137" t="n">
-        <v>626.5</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>632</v>
-      </c>
-      <c r="C138" t="n">
-        <v>635</v>
-      </c>
-      <c r="D138" t="n">
-        <v>635</v>
-      </c>
-      <c r="E138" t="n">
-        <v>632</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1179</v>
-      </c>
-      <c r="G138" t="n">
-        <v>625.3666666666667</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>7</v>
-      </c>
-      <c r="J138" t="n">
-        <v>489</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-18.91891891891892</v>
-      </c>
-      <c r="L138" t="n">
-        <v>636</v>
-      </c>
-      <c r="M138" t="n">
-        <v>632.5</v>
-      </c>
-      <c r="N138" t="n">
-        <v>626.9666666666667</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>636</v>
-      </c>
-      <c r="C139" t="n">
-        <v>642</v>
-      </c>
-      <c r="D139" t="n">
-        <v>642</v>
-      </c>
-      <c r="E139" t="n">
-        <v>636</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2540.8836</v>
-      </c>
-      <c r="G139" t="n">
-        <v>625.7166666666667</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>14</v>
-      </c>
-      <c r="J139" t="n">
-        <v>496</v>
-      </c>
-      <c r="K139" t="n">
-        <v>2.325581395348837</v>
-      </c>
-      <c r="L139" t="n">
-        <v>636</v>
-      </c>
-      <c r="M139" t="n">
-        <v>633.6</v>
-      </c>
-      <c r="N139" t="n">
-        <v>627.7</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>650</v>
-      </c>
-      <c r="C140" t="n">
-        <v>650</v>
-      </c>
-      <c r="D140" t="n">
-        <v>650</v>
-      </c>
-      <c r="E140" t="n">
-        <v>650</v>
-      </c>
-      <c r="F140" t="n">
-        <v>1</v>
-      </c>
-      <c r="G140" t="n">
-        <v>626.0833333333334</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>22</v>
-      </c>
-      <c r="J140" t="n">
-        <v>504</v>
-      </c>
-      <c r="K140" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L140" t="n">
-        <v>636.9</v>
-      </c>
-      <c r="M140" t="n">
-        <v>635</v>
-      </c>
-      <c r="N140" t="n">
-        <v>628.7</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>641</v>
-      </c>
-      <c r="C141" t="n">
-        <v>641</v>
-      </c>
-      <c r="D141" t="n">
-        <v>641</v>
-      </c>
-      <c r="E141" t="n">
-        <v>641</v>
-      </c>
-      <c r="F141" t="n">
-        <v>84</v>
-      </c>
-      <c r="G141" t="n">
-        <v>626.3833333333333</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>13</v>
-      </c>
-      <c r="J141" t="n">
-        <v>513</v>
-      </c>
-      <c r="K141" t="n">
-        <v>20</v>
-      </c>
-      <c r="L141" t="n">
-        <v>636.9</v>
-      </c>
-      <c r="M141" t="n">
-        <v>635.95</v>
-      </c>
-      <c r="N141" t="n">
-        <v>629.7333333333333</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>642</v>
-      </c>
-      <c r="C142" t="n">
-        <v>642</v>
-      </c>
-      <c r="D142" t="n">
-        <v>642</v>
-      </c>
-      <c r="E142" t="n">
-        <v>642</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1</v>
-      </c>
-      <c r="G142" t="n">
-        <v>626.7333333333333</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>14</v>
-      </c>
-      <c r="J142" t="n">
-        <v>514</v>
-      </c>
-      <c r="K142" t="n">
-        <v>6.976744186046512</v>
-      </c>
-      <c r="L142" t="n">
-        <v>638</v>
-      </c>
-      <c r="M142" t="n">
-        <v>636.95</v>
-      </c>
-      <c r="N142" t="n">
-        <v>630.5</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>636</v>
-      </c>
-      <c r="C143" t="n">
-        <v>628</v>
-      </c>
-      <c r="D143" t="n">
-        <v>636</v>
-      </c>
-      <c r="E143" t="n">
-        <v>628</v>
-      </c>
-      <c r="F143" t="n">
-        <v>80</v>
-      </c>
-      <c r="G143" t="n">
-        <v>626.7833333333333</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>528</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-19.29824561403509</v>
-      </c>
-      <c r="L143" t="n">
-        <v>636.9</v>
-      </c>
-      <c r="M143" t="n">
-        <v>636.9</v>
-      </c>
-      <c r="N143" t="n">
-        <v>630.8666666666667</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>633</v>
-      </c>
-      <c r="C144" t="n">
-        <v>633</v>
-      </c>
-      <c r="D144" t="n">
-        <v>633</v>
-      </c>
-      <c r="E144" t="n">
-        <v>633</v>
-      </c>
-      <c r="F144" t="n">
-        <v>116.4</v>
-      </c>
-      <c r="G144" t="n">
-        <v>626.85</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>5</v>
-      </c>
-      <c r="J144" t="n">
-        <v>533</v>
-      </c>
-      <c r="K144" t="n">
-        <v>9.803921568627452</v>
-      </c>
-      <c r="L144" t="n">
-        <v>636.3</v>
-      </c>
-      <c r="M144" t="n">
-        <v>637.1</v>
-      </c>
-      <c r="N144" t="n">
-        <v>631.5</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>640</v>
-      </c>
-      <c r="C145" t="n">
-        <v>640</v>
-      </c>
-      <c r="D145" t="n">
-        <v>640</v>
-      </c>
-      <c r="E145" t="n">
-        <v>640</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1</v>
-      </c>
-      <c r="G145" t="n">
-        <v>627.0166666666667</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>12</v>
-      </c>
-      <c r="J145" t="n">
-        <v>540</v>
-      </c>
-      <c r="K145" t="n">
-        <v>19.29824561403509</v>
-      </c>
-      <c r="L145" t="n">
-        <v>637.5</v>
-      </c>
-      <c r="M145" t="n">
-        <v>637.5</v>
-      </c>
-      <c r="N145" t="n">
-        <v>632.3666666666667</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>640</v>
-      </c>
-      <c r="C146" t="n">
-        <v>640</v>
-      </c>
-      <c r="D146" t="n">
-        <v>640</v>
-      </c>
-      <c r="E146" t="n">
-        <v>640</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1</v>
-      </c>
-      <c r="G146" t="n">
-        <v>627.3166666666667</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>12</v>
-      </c>
-      <c r="J146" t="n">
-        <v>540</v>
-      </c>
-      <c r="K146" t="n">
-        <v>9.803921568627452</v>
-      </c>
-      <c r="L146" t="n">
-        <v>638.6</v>
-      </c>
-      <c r="M146" t="n">
-        <v>637.9</v>
-      </c>
-      <c r="N146" t="n">
-        <v>633.1333333333333</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>632</v>
-      </c>
-      <c r="C147" t="n">
-        <v>632</v>
-      </c>
-      <c r="D147" t="n">
-        <v>632</v>
-      </c>
-      <c r="E147" t="n">
-        <v>632</v>
-      </c>
-      <c r="F147" t="n">
-        <v>48.2706</v>
-      </c>
-      <c r="G147" t="n">
-        <v>627.3833333333333</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>4</v>
-      </c>
-      <c r="J147" t="n">
-        <v>548</v>
-      </c>
-      <c r="K147" t="n">
-        <v>-5.084745762711865</v>
-      </c>
-      <c r="L147" t="n">
-        <v>638.3</v>
-      </c>
-      <c r="M147" t="n">
-        <v>637.45</v>
-      </c>
-      <c r="N147" t="n">
-        <v>633.8666666666667</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>629</v>
-      </c>
-      <c r="C148" t="n">
-        <v>630</v>
-      </c>
-      <c r="D148" t="n">
-        <v>630</v>
-      </c>
-      <c r="E148" t="n">
-        <v>629</v>
-      </c>
-      <c r="F148" t="n">
-        <v>401.1074</v>
-      </c>
-      <c r="G148" t="n">
-        <v>627.5</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>2</v>
-      </c>
-      <c r="J148" t="n">
-        <v>550</v>
-      </c>
-      <c r="K148" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L148" t="n">
-        <v>637.8</v>
-      </c>
-      <c r="M148" t="n">
-        <v>636.9</v>
-      </c>
-      <c r="N148" t="n">
-        <v>634.2666666666667</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>635</v>
-      </c>
-      <c r="C149" t="n">
-        <v>635</v>
-      </c>
-      <c r="D149" t="n">
-        <v>635</v>
-      </c>
-      <c r="E149" t="n">
-        <v>635</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1</v>
-      </c>
-      <c r="G149" t="n">
-        <v>627.7</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>7</v>
-      </c>
-      <c r="J149" t="n">
-        <v>555</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L149" t="n">
-        <v>637.1</v>
-      </c>
-      <c r="M149" t="n">
-        <v>636.55</v>
-      </c>
-      <c r="N149" t="n">
-        <v>634.7666666666667</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>634</v>
-      </c>
-      <c r="C150" t="n">
-        <v>634</v>
-      </c>
-      <c r="D150" t="n">
-        <v>634</v>
-      </c>
-      <c r="E150" t="n">
-        <v>634</v>
-      </c>
-      <c r="F150" t="n">
-        <v>56.108</v>
-      </c>
-      <c r="G150" t="n">
-        <v>627.8833333333333</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>6</v>
-      </c>
-      <c r="J150" t="n">
-        <v>556</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-16.27906976744186</v>
-      </c>
-      <c r="L150" t="n">
-        <v>635.5</v>
-      </c>
-      <c r="M150" t="n">
-        <v>636.2</v>
-      </c>
-      <c r="N150" t="n">
-        <v>635.1666666666666</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>639</v>
-      </c>
-      <c r="C151" t="n">
-        <v>640</v>
-      </c>
-      <c r="D151" t="n">
-        <v>640</v>
-      </c>
-      <c r="E151" t="n">
-        <v>639</v>
-      </c>
-      <c r="F151" t="n">
-        <v>208.0174</v>
-      </c>
-      <c r="G151" t="n">
-        <v>628.15</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>12</v>
-      </c>
-      <c r="J151" t="n">
-        <v>562</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-4.166666666666666</v>
-      </c>
-      <c r="L151" t="n">
-        <v>635.4</v>
-      </c>
-      <c r="M151" t="n">
-        <v>636.15</v>
-      </c>
-      <c r="N151" t="n">
-        <v>635.7666666666667</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>642</v>
-      </c>
-      <c r="C152" t="n">
-        <v>642</v>
-      </c>
-      <c r="D152" t="n">
-        <v>642</v>
-      </c>
-      <c r="E152" t="n">
-        <v>642</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1</v>
-      </c>
-      <c r="G152" t="n">
-        <v>628.5</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>14</v>
-      </c>
-      <c r="J152" t="n">
-        <v>564</v>
-      </c>
-      <c r="K152" t="n">
-        <v>38.88888888888889</v>
-      </c>
-      <c r="L152" t="n">
-        <v>635.4</v>
-      </c>
-      <c r="M152" t="n">
-        <v>636.7</v>
-      </c>
-      <c r="N152" t="n">
-        <v>636.4333333333333</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>637</v>
-      </c>
-      <c r="C153" t="n">
-        <v>637</v>
-      </c>
-      <c r="D153" t="n">
-        <v>637</v>
-      </c>
-      <c r="E153" t="n">
-        <v>637</v>
-      </c>
-      <c r="F153" t="n">
-        <v>56.4585</v>
-      </c>
-      <c r="G153" t="n">
-        <v>628.7166666666667</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>9</v>
-      </c>
-      <c r="J153" t="n">
-        <v>569</v>
-      </c>
-      <c r="K153" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L153" t="n">
-        <v>636.3</v>
-      </c>
-      <c r="M153" t="n">
-        <v>636.6</v>
-      </c>
-      <c r="N153" t="n">
-        <v>636.7</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>632</v>
-      </c>
-      <c r="C154" t="n">
-        <v>632</v>
-      </c>
-      <c r="D154" t="n">
-        <v>632</v>
-      </c>
-      <c r="E154" t="n">
-        <v>632</v>
-      </c>
-      <c r="F154" t="n">
-        <v>152.139</v>
-      </c>
-      <c r="G154" t="n">
-        <v>628.9</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>4</v>
-      </c>
-      <c r="J154" t="n">
-        <v>574</v>
-      </c>
-      <c r="K154" t="n">
-        <v>-23.52941176470588</v>
-      </c>
-      <c r="L154" t="n">
-        <v>636.2</v>
-      </c>
-      <c r="M154" t="n">
-        <v>636.25</v>
-      </c>
-      <c r="N154" t="n">
-        <v>636.8</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>637</v>
-      </c>
-      <c r="C155" t="n">
-        <v>637</v>
-      </c>
-      <c r="D155" t="n">
-        <v>637</v>
-      </c>
-      <c r="E155" t="n">
-        <v>637</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1</v>
-      </c>
-      <c r="G155" t="n">
-        <v>629.1166666666667</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>9</v>
-      </c>
-      <c r="J155" t="n">
-        <v>579</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L155" t="n">
-        <v>635.9</v>
-      </c>
-      <c r="M155" t="n">
-        <v>636.7</v>
-      </c>
-      <c r="N155" t="n">
-        <v>636.9666666666667</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>637</v>
-      </c>
-      <c r="C156" t="n">
-        <v>637</v>
-      </c>
-      <c r="D156" t="n">
-        <v>637</v>
-      </c>
-      <c r="E156" t="n">
-        <v>637</v>
-      </c>
-      <c r="F156" t="n">
-        <v>151.139</v>
-      </c>
-      <c r="G156" t="n">
-        <v>629.3333333333334</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>9</v>
-      </c>
-      <c r="J156" t="n">
-        <v>579</v>
-      </c>
-      <c r="K156" t="n">
-        <v>16.12903225806452</v>
-      </c>
-      <c r="L156" t="n">
-        <v>635.6</v>
-      </c>
-      <c r="M156" t="n">
-        <v>637.1</v>
-      </c>
-      <c r="N156" t="n">
-        <v>637.1333333333333</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest GXC.xlsx
+++ b/BackTest/2019-11-02 BackTest GXC.xlsx
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -2446,13 +2446,17 @@
         <v>646</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>630</v>
+      </c>
+      <c r="K59" t="n">
+        <v>630</v>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
@@ -2487,8 +2491,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>630</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2516,14 +2526,22 @@
         <v>646.2</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>630</v>
+      </c>
+      <c r="K61" t="n">
+        <v>630</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2551,14 +2569,22 @@
         <v>646.1666666666666</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>631</v>
+      </c>
+      <c r="K62" t="n">
+        <v>630</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2586,14 +2612,22 @@
         <v>646.0833333333334</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>626</v>
+      </c>
+      <c r="K63" t="n">
+        <v>630</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2621,14 +2655,22 @@
         <v>646</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>627</v>
+      </c>
+      <c r="K64" t="n">
+        <v>630</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2662,8 +2704,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>630</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2697,8 +2745,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>630</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2732,8 +2786,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>630</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2767,8 +2827,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>630</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2802,8 +2868,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>630</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2837,8 +2909,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>630</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2872,8 +2950,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>630</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2907,8 +2991,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>630</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2942,8 +3032,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>630</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2977,8 +3073,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>630</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3012,8 +3114,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>630</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3047,8 +3155,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>630</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3082,8 +3196,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>630</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3117,8 +3237,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>630</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3152,8 +3278,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>630</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3187,8 +3319,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>630</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3222,8 +3360,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>630</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3257,8 +3401,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>630</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3442,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>630</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3327,8 +3483,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>630</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3362,8 +3524,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>630</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3397,8 +3565,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>630</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3432,8 +3606,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>630</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3467,8 +3647,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>630</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3502,8 +3688,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>630</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3537,8 +3729,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>630</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3572,8 +3770,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>630</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3607,8 +3811,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>630</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3642,8 +3852,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>630</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3677,8 +3893,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>630</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3712,8 +3934,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>630</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3747,8 +3975,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>630</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3782,8 +4016,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>630</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3817,8 +4057,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>630</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3852,8 +4098,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>630</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3887,8 +4139,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>630</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3922,8 +4180,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>630</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3957,8 +4221,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>630</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3992,8 +4262,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>630</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4027,8 +4303,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>630</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4062,8 +4344,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>630</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4091,18 +4379,20 @@
         <v>626.85</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>625</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>625</v>
-      </c>
-      <c r="L106" t="inlineStr"/>
+        <v>630</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4137,11 +4427,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M107" t="n">
@@ -4178,11 +4468,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M108" t="n">
@@ -4218,8 +4508,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>630</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4247,18 +4543,20 @@
         <v>625.8166666666667</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>620</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>620</v>
-      </c>
-      <c r="L110" t="inlineStr"/>
+        <v>630</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4286,20 +4584,18 @@
         <v>625.4833333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>616</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M111" t="n">
@@ -4329,16 +4625,14 @@
         <v>625.3</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>619</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4372,16 +4666,14 @@
         <v>625.0666666666667</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>617</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4415,16 +4707,14 @@
         <v>624.8</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>614</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4458,16 +4748,14 @@
         <v>624.5166666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>614</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4501,16 +4789,14 @@
         <v>624.3</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>614</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4544,16 +4830,14 @@
         <v>623.9666666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>610</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4587,16 +4871,14 @@
         <v>623.7666666666667</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>618</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4630,16 +4912,14 @@
         <v>623.6333333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>618</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4673,16 +4953,14 @@
         <v>623.5</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>622</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4716,16 +4994,14 @@
         <v>623.35</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>622</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4759,16 +5035,14 @@
         <v>623.2833333333333</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>622</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4802,16 +5076,14 @@
         <v>623.3166666666667</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>629</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4845,16 +5117,14 @@
         <v>623.35</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>629</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4888,16 +5158,14 @@
         <v>623.4333333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>630</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4931,16 +5199,14 @@
         <v>623.4666666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>632</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4981,7 +5247,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5022,7 +5288,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5063,7 +5329,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5104,7 +5370,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5145,7 +5411,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5186,7 +5452,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5227,7 +5493,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5264,19 +5530,19 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>1.025645161290323</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -5305,11 +5571,17 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>630</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-02 BackTest GXC.xlsx
+++ b/BackTest/2019-11-02 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C2" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D2" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E2" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F2" t="n">
-        <v>364.4399</v>
+        <v>41.0419</v>
       </c>
       <c r="G2" t="n">
-        <v>626.6333333333333</v>
+        <v>626.5666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C3" t="n">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D3" t="n">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E3" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F3" t="n">
-        <v>436.295</v>
+        <v>364.4399</v>
       </c>
       <c r="G3" t="n">
-        <v>626.7666666666667</v>
+        <v>626.6333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C4" t="n">
         <v>632</v>
@@ -512,13 +512,13 @@
         <v>632</v>
       </c>
       <c r="E4" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F4" t="n">
-        <v>651.0411</v>
+        <v>436.295</v>
       </c>
       <c r="G4" t="n">
-        <v>626.8666666666667</v>
+        <v>626.7666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>632</v>
       </c>
       <c r="C5" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D5" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E5" t="n">
         <v>632</v>
       </c>
       <c r="F5" t="n">
-        <v>7127.1943</v>
+        <v>651.0411</v>
       </c>
       <c r="G5" t="n">
-        <v>626.9833333333333</v>
+        <v>626.8666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C6" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D6" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E6" t="n">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F6" t="n">
-        <v>410.2186</v>
+        <v>7127.1943</v>
       </c>
       <c r="G6" t="n">
-        <v>627.2</v>
+        <v>626.9833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C7" t="n">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D7" t="n">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E7" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F7" t="n">
-        <v>80</v>
+        <v>410.2186</v>
       </c>
       <c r="G7" t="n">
-        <v>627.45</v>
+        <v>627.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C8" t="n">
         <v>641</v>
@@ -652,13 +652,13 @@
         <v>641</v>
       </c>
       <c r="E8" t="n">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F8" t="n">
-        <v>131.1755</v>
+        <v>80</v>
       </c>
       <c r="G8" t="n">
-        <v>627.7</v>
+        <v>627.45</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C9" t="n">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D9" t="n">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E9" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>131.1755</v>
       </c>
       <c r="G9" t="n">
-        <v>628.0166666666667</v>
+        <v>627.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C10" t="n">
         <v>646</v>
@@ -722,13 +722,13 @@
         <v>646</v>
       </c>
       <c r="E10" t="n">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F10" t="n">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>628.3333333333334</v>
+        <v>628.0166666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C11" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D11" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E11" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F11" t="n">
-        <v>2077.6429</v>
+        <v>189</v>
       </c>
       <c r="G11" t="n">
-        <v>628.6333333333333</v>
+        <v>628.3333333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C12" t="n">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D12" t="n">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E12" t="n">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F12" t="n">
-        <v>3002.8582</v>
+        <v>2077.6429</v>
       </c>
       <c r="G12" t="n">
-        <v>628.8833333333333</v>
+        <v>628.6333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C13" t="n">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D13" t="n">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E13" t="n">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F13" t="n">
-        <v>1598.9999</v>
+        <v>3002.8582</v>
       </c>
       <c r="G13" t="n">
-        <v>629.1833333333333</v>
+        <v>628.8833333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,28 +853,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C14" t="n">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="D14" t="n">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="E14" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="F14" t="n">
-        <v>9968.6764513</v>
+        <v>1598.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>629.7833333333333</v>
+        <v>629.1833333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="C15" t="n">
-        <v>640</v>
+        <v>669</v>
       </c>
       <c r="D15" t="n">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="E15" t="n">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="F15" t="n">
-        <v>711.4045</v>
+        <v>9968.6764513</v>
       </c>
       <c r="G15" t="n">
-        <v>629.9333333333333</v>
+        <v>629.7833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="C16" t="n">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D16" t="n">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="E16" t="n">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F16" t="n">
-        <v>2937.969</v>
+        <v>711.4045</v>
       </c>
       <c r="G16" t="n">
-        <v>630.2166666666667</v>
+        <v>629.9333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -964,22 +964,22 @@
         <v>649</v>
       </c>
       <c r="D17" t="n">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E17" t="n">
         <v>649</v>
       </c>
       <c r="F17" t="n">
-        <v>299.25</v>
+        <v>2937.969</v>
       </c>
       <c r="G17" t="n">
-        <v>630.5</v>
+        <v>630.2166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C18" t="n">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D18" t="n">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E18" t="n">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F18" t="n">
-        <v>343.2903</v>
+        <v>299.25</v>
       </c>
       <c r="G18" t="n">
-        <v>630.8333333333334</v>
+        <v>630.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>650</v>
+      </c>
+      <c r="C19" t="n">
         <v>653</v>
       </c>
-      <c r="C19" t="n">
-        <v>655</v>
-      </c>
       <c r="D19" t="n">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E19" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F19" t="n">
-        <v>605.7547</v>
+        <v>343.2903</v>
       </c>
       <c r="G19" t="n">
-        <v>631.2</v>
+        <v>630.8333333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>653</v>
+      </c>
+      <c r="C20" t="n">
         <v>655</v>
       </c>
-      <c r="C20" t="n">
-        <v>658</v>
-      </c>
       <c r="D20" t="n">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E20" t="n">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F20" t="n">
-        <v>5408.0325</v>
+        <v>605.7547</v>
       </c>
       <c r="G20" t="n">
-        <v>631.6333333333333</v>
+        <v>631.2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C21" t="n">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D21" t="n">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E21" t="n">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F21" t="n">
-        <v>3828.8718</v>
+        <v>5408.0325</v>
       </c>
       <c r="G21" t="n">
-        <v>632.1333333333333</v>
+        <v>631.6333333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>657</v>
+      </c>
+      <c r="C22" t="n">
         <v>662</v>
       </c>
-      <c r="C22" t="n">
-        <v>666</v>
-      </c>
       <c r="D22" t="n">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="E22" t="n">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F22" t="n">
-        <v>9797.9185</v>
+        <v>3828.8718</v>
       </c>
       <c r="G22" t="n">
-        <v>632.9333333333333</v>
+        <v>632.1333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>662</v>
+      </c>
+      <c r="C23" t="n">
         <v>666</v>
       </c>
-      <c r="C23" t="n">
-        <v>676</v>
-      </c>
       <c r="D23" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E23" t="n">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F23" t="n">
-        <v>609</v>
+        <v>9797.9185</v>
       </c>
       <c r="G23" t="n">
-        <v>633.9</v>
+        <v>632.9333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C24" t="n">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D24" t="n">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E24" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F24" t="n">
-        <v>6248.3066</v>
+        <v>609</v>
       </c>
       <c r="G24" t="n">
-        <v>634.75</v>
+        <v>633.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>667</v>
       </c>
       <c r="C25" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D25" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E25" t="n">
         <v>666</v>
       </c>
       <c r="F25" t="n">
-        <v>1412.41873037</v>
+        <v>6248.3066</v>
       </c>
       <c r="G25" t="n">
-        <v>635.6833333333333</v>
+        <v>634.75</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>667</v>
       </c>
       <c r="C26" t="n">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D26" t="n">
         <v>676</v>
@@ -1285,16 +1285,16 @@
         <v>666</v>
       </c>
       <c r="F26" t="n">
-        <v>1705.0221</v>
+        <v>1412.41873037</v>
       </c>
       <c r="G26" t="n">
-        <v>636.45</v>
+        <v>635.6833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C27" t="n">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="D27" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E27" t="n">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="F27" t="n">
-        <v>4720.144</v>
+        <v>1705.0221</v>
       </c>
       <c r="G27" t="n">
-        <v>636.9</v>
+        <v>636.45</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,28 +1343,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="C28" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D28" t="n">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="E28" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F28" t="n">
-        <v>92</v>
+        <v>4720.144</v>
       </c>
       <c r="G28" t="n">
-        <v>637.4666666666667</v>
+        <v>636.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="C29" t="n">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D29" t="n">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="E29" t="n">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="F29" t="n">
-        <v>2308.589</v>
+        <v>92</v>
       </c>
       <c r="G29" t="n">
-        <v>637.9833333333333</v>
+        <v>637.4666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="C30" t="n">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D30" t="n">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="E30" t="n">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="F30" t="n">
-        <v>111.47233515</v>
+        <v>2308.589</v>
       </c>
       <c r="G30" t="n">
-        <v>638.5333333333333</v>
+        <v>637.9833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="C31" t="n">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="D31" t="n">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="E31" t="n">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="F31" t="n">
-        <v>141</v>
+        <v>111.47233515</v>
       </c>
       <c r="G31" t="n">
-        <v>638.9</v>
+        <v>638.5333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>647</v>
+      </c>
+      <c r="C32" t="n">
         <v>646</v>
       </c>
-      <c r="C32" t="n">
-        <v>644</v>
-      </c>
       <c r="D32" t="n">
+        <v>647</v>
+      </c>
+      <c r="E32" t="n">
         <v>646</v>
       </c>
-      <c r="E32" t="n">
-        <v>644</v>
-      </c>
       <c r="F32" t="n">
-        <v>3171.8484</v>
+        <v>141</v>
       </c>
       <c r="G32" t="n">
-        <v>639.25</v>
+        <v>638.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C33" t="n">
         <v>644</v>
       </c>
       <c r="D33" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E33" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="F33" t="n">
-        <v>444</v>
+        <v>3171.8484</v>
       </c>
       <c r="G33" t="n">
-        <v>639.6</v>
+        <v>639.25</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>644</v>
       </c>
       <c r="C34" t="n">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="D34" t="n">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="E34" t="n">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F34" t="n">
-        <v>3183.612</v>
+        <v>444</v>
       </c>
       <c r="G34" t="n">
-        <v>640.0833333333334</v>
+        <v>639.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="C35" t="n">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D35" t="n">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E35" t="n">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="F35" t="n">
-        <v>6</v>
+        <v>3183.612</v>
       </c>
       <c r="G35" t="n">
-        <v>640.65</v>
+        <v>640.0833333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>657</v>
       </c>
       <c r="C36" t="n">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="D36" t="n">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="E36" t="n">
         <v>657</v>
       </c>
       <c r="F36" t="n">
-        <v>1316.5298</v>
+        <v>6</v>
       </c>
       <c r="G36" t="n">
-        <v>641.4333333333333</v>
+        <v>640.65</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="C37" t="n">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="D37" t="n">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="E37" t="n">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="F37" t="n">
-        <v>223.004</v>
+        <v>1316.5298</v>
       </c>
       <c r="G37" t="n">
-        <v>641.7333333333333</v>
+        <v>641.4333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>649</v>
       </c>
       <c r="C38" t="n">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="D38" t="n">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="E38" t="n">
         <v>649</v>
       </c>
       <c r="F38" t="n">
-        <v>5644.484</v>
+        <v>223.004</v>
       </c>
       <c r="G38" t="n">
-        <v>642.4</v>
+        <v>641.7333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C39" t="n">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D39" t="n">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E39" t="n">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F39" t="n">
-        <v>332.9242</v>
+        <v>5644.484</v>
       </c>
       <c r="G39" t="n">
-        <v>643</v>
+        <v>642.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C40" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D40" t="n">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E40" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F40" t="n">
-        <v>223</v>
+        <v>332.9242</v>
       </c>
       <c r="G40" t="n">
-        <v>643.6166666666667</v>
+        <v>643</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C41" t="n">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="D41" t="n">
         <v>659</v>
       </c>
       <c r="E41" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F41" t="n">
-        <v>1267.8421</v>
+        <v>223</v>
       </c>
       <c r="G41" t="n">
-        <v>644.1333333333333</v>
+        <v>643.6166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>653</v>
+      </c>
+      <c r="C42" t="n">
         <v>652</v>
       </c>
-      <c r="C42" t="n">
-        <v>644</v>
-      </c>
       <c r="D42" t="n">
+        <v>659</v>
+      </c>
+      <c r="E42" t="n">
         <v>652</v>
       </c>
-      <c r="E42" t="n">
-        <v>644</v>
-      </c>
       <c r="F42" t="n">
-        <v>18124.4248</v>
+        <v>1267.8421</v>
       </c>
       <c r="G42" t="n">
-        <v>644.5166666666667</v>
+        <v>644.1333333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="C43" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D43" t="n">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="E43" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="F43" t="n">
-        <v>691.5916999999999</v>
+        <v>18124.4248</v>
       </c>
       <c r="G43" t="n">
-        <v>644.8666666666667</v>
+        <v>644.5166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>643</v>
+      </c>
+      <c r="C44" t="n">
         <v>642</v>
       </c>
-      <c r="C44" t="n">
-        <v>646</v>
-      </c>
       <c r="D44" t="n">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E44" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F44" t="n">
-        <v>871.5042999999999</v>
+        <v>691.5916999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>645.1166666666667</v>
+        <v>644.8666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="C45" t="n">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="D45" t="n">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="E45" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="F45" t="n">
-        <v>337.7435</v>
+        <v>871.5042999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>645.2</v>
+        <v>645.1166666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>637</v>
       </c>
       <c r="C46" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D46" t="n">
         <v>637</v>
       </c>
       <c r="E46" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F46" t="n">
-        <v>620.215</v>
+        <v>337.7435</v>
       </c>
       <c r="G46" t="n">
-        <v>645.4</v>
+        <v>645.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C47" t="n">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D47" t="n">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E47" t="n">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F47" t="n">
-        <v>3.5515625</v>
+        <v>620.215</v>
       </c>
       <c r="G47" t="n">
-        <v>645.5833333333334</v>
+        <v>645.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>640</v>
       </c>
       <c r="F48" t="n">
-        <v>126.6781</v>
+        <v>3.5515625</v>
       </c>
       <c r="G48" t="n">
-        <v>645.7166666666667</v>
+        <v>645.5833333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C49" t="n">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D49" t="n">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="E49" t="n">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="F49" t="n">
-        <v>6670.8105</v>
+        <v>126.6781</v>
       </c>
       <c r="G49" t="n">
-        <v>645.7</v>
+        <v>645.7166666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C50" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D50" t="n">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="E50" t="n">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F50" t="n">
-        <v>144.9105</v>
+        <v>6670.8105</v>
       </c>
       <c r="G50" t="n">
-        <v>645.6166666666667</v>
+        <v>645.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C51" t="n">
         <v>630</v>
       </c>
       <c r="D51" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E51" t="n">
         <v>630</v>
       </c>
       <c r="F51" t="n">
-        <v>762.8625</v>
+        <v>144.9105</v>
       </c>
       <c r="G51" t="n">
-        <v>645.5333333333333</v>
+        <v>645.6166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C52" t="n">
         <v>630</v>
       </c>
       <c r="D52" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E52" t="n">
         <v>630</v>
       </c>
       <c r="F52" t="n">
-        <v>489.2892</v>
+        <v>762.8625</v>
       </c>
       <c r="G52" t="n">
-        <v>645.6833333333333</v>
+        <v>645.5333333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>630</v>
       </c>
       <c r="C53" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D53" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E53" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="F53" t="n">
-        <v>327.8942</v>
+        <v>489.2892</v>
       </c>
       <c r="G53" t="n">
-        <v>645.6166666666667</v>
+        <v>645.6833333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>630</v>
       </c>
       <c r="C54" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D54" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E54" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F54" t="n">
-        <v>546.4</v>
+        <v>327.8942</v>
       </c>
       <c r="G54" t="n">
-        <v>645.5333333333333</v>
+        <v>645.6166666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C55" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D55" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E55" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F55" t="n">
-        <v>352</v>
+        <v>546.4</v>
       </c>
       <c r="G55" t="n">
-        <v>645.6</v>
+        <v>645.5333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,31 +2323,35 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C56" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D56" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E56" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F56" t="n">
-        <v>397.8578</v>
+        <v>352</v>
       </c>
       <c r="G56" t="n">
-        <v>645.65</v>
+        <v>645.6</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>630</v>
+      </c>
+      <c r="K56" t="n">
+        <v>630</v>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
@@ -2358,7 +2362,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C57" t="n">
         <v>630</v>
@@ -2367,23 +2371,31 @@
         <v>630</v>
       </c>
       <c r="E57" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="F57" t="n">
-        <v>306.3767</v>
+        <v>397.8578</v>
       </c>
       <c r="G57" t="n">
-        <v>645.7833333333333</v>
+        <v>645.65</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>631</v>
+      </c>
+      <c r="K57" t="n">
+        <v>630</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,7 +2405,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C58" t="n">
         <v>630</v>
@@ -2402,13 +2414,13 @@
         <v>630</v>
       </c>
       <c r="E58" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F58" t="n">
-        <v>97.2</v>
+        <v>306.3767</v>
       </c>
       <c r="G58" t="n">
-        <v>645.9333333333333</v>
+        <v>645.7833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2429,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>630</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,36 +2446,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C59" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D59" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E59" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F59" t="n">
-        <v>4265</v>
+        <v>97.2</v>
       </c>
       <c r="G59" t="n">
-        <v>646</v>
+        <v>645.9333333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>630</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>630</v>
       </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2467,22 +2487,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C60" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D60" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E60" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>4265</v>
       </c>
       <c r="G60" t="n">
-        <v>646.1333333333333</v>
+        <v>646</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2496,7 +2516,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -2508,38 +2528,36 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C61" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D61" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E61" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="F61" t="n">
-        <v>221.2716</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>646.2</v>
+        <v>646.1333333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>630</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>630</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2554,29 +2572,27 @@
         <v>626</v>
       </c>
       <c r="C62" t="n">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="D62" t="n">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="E62" t="n">
         <v>623</v>
       </c>
       <c r="F62" t="n">
-        <v>658.7659</v>
+        <v>221.2716</v>
       </c>
       <c r="G62" t="n">
-        <v>646.1666666666666</v>
+        <v>646.2</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>631</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>630</v>
       </c>
@@ -2597,29 +2613,27 @@
         <v>626</v>
       </c>
       <c r="C63" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D63" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E63" t="n">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F63" t="n">
-        <v>271.2003</v>
+        <v>658.7659</v>
       </c>
       <c r="G63" t="n">
-        <v>646.0833333333334</v>
+        <v>646.1666666666666</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>626</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>630</v>
       </c>
@@ -2637,7 +2651,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C64" t="n">
         <v>627</v>
@@ -2646,23 +2660,21 @@
         <v>627</v>
       </c>
       <c r="E64" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F64" t="n">
-        <v>346.3633</v>
+        <v>271.2003</v>
       </c>
       <c r="G64" t="n">
-        <v>646</v>
+        <v>646.0833333333334</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>627</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>630</v>
       </c>
@@ -2692,10 +2704,10 @@
         <v>627</v>
       </c>
       <c r="F65" t="n">
-        <v>344.3934</v>
+        <v>346.3633</v>
       </c>
       <c r="G65" t="n">
-        <v>645.9</v>
+        <v>646</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2721,22 +2733,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C66" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D66" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E66" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F66" t="n">
-        <v>30</v>
+        <v>344.3934</v>
       </c>
       <c r="G66" t="n">
-        <v>645.8333333333334</v>
+        <v>645.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2762,22 +2774,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C67" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D67" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E67" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F67" t="n">
-        <v>7791.7284</v>
+        <v>30</v>
       </c>
       <c r="G67" t="n">
-        <v>645.6666666666666</v>
+        <v>645.8333333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2803,22 +2815,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C68" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D68" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E68" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F68" t="n">
-        <v>1024</v>
+        <v>7791.7284</v>
       </c>
       <c r="G68" t="n">
-        <v>645.4833333333333</v>
+        <v>645.6666666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2856,10 +2868,10 @@
         <v>630</v>
       </c>
       <c r="F69" t="n">
-        <v>4</v>
+        <v>1024</v>
       </c>
       <c r="G69" t="n">
-        <v>645.2166666666667</v>
+        <v>645.4833333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2885,22 +2897,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C70" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D70" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E70" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="F70" t="n">
-        <v>276.2231</v>
+        <v>4</v>
       </c>
       <c r="G70" t="n">
-        <v>644.8666666666667</v>
+        <v>645.2166666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2926,22 +2938,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C71" t="n">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D71" t="n">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E71" t="n">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F71" t="n">
-        <v>315</v>
+        <v>276.2231</v>
       </c>
       <c r="G71" t="n">
-        <v>644.6333333333333</v>
+        <v>644.8666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2967,22 +2979,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D72" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E72" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F72" t="n">
-        <v>406.4377</v>
+        <v>315</v>
       </c>
       <c r="G72" t="n">
-        <v>644.3166666666667</v>
+        <v>644.6333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3008,22 +3020,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C73" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D73" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E73" t="n">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="F73" t="n">
-        <v>2871.36</v>
+        <v>406.4377</v>
       </c>
       <c r="G73" t="n">
-        <v>643.95</v>
+        <v>644.3166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3049,22 +3061,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>625</v>
+      </c>
+      <c r="C74" t="n">
         <v>629</v>
-      </c>
-      <c r="C74" t="n">
-        <v>628</v>
       </c>
       <c r="D74" t="n">
         <v>629</v>
       </c>
       <c r="E74" t="n">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="F74" t="n">
-        <v>749.1107</v>
+        <v>2871.36</v>
       </c>
       <c r="G74" t="n">
-        <v>643.2666666666667</v>
+        <v>643.95</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3090,22 +3102,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="C75" t="n">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="D75" t="n">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="E75" t="n">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="F75" t="n">
-        <v>1690.0218</v>
+        <v>749.1107</v>
       </c>
       <c r="G75" t="n">
-        <v>642.9333333333333</v>
+        <v>643.2666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3131,22 +3143,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C76" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D76" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E76" t="n">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F76" t="n">
-        <v>8.365</v>
+        <v>1690.0218</v>
       </c>
       <c r="G76" t="n">
-        <v>642.5166666666667</v>
+        <v>642.9333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3172,22 +3184,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C77" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D77" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E77" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="F77" t="n">
-        <v>156</v>
+        <v>8.365</v>
       </c>
       <c r="G77" t="n">
-        <v>642.1833333333333</v>
+        <v>642.5166666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3213,22 +3225,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C78" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D78" t="n">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="E78" t="n">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="F78" t="n">
-        <v>281.0104</v>
+        <v>156</v>
       </c>
       <c r="G78" t="n">
-        <v>641.65</v>
+        <v>642.1833333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3254,22 +3266,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C79" t="n">
         <v>621</v>
       </c>
       <c r="D79" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E79" t="n">
         <v>621</v>
       </c>
       <c r="F79" t="n">
-        <v>11.105</v>
+        <v>281.0104</v>
       </c>
       <c r="G79" t="n">
-        <v>641.0833333333334</v>
+        <v>641.65</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3295,22 +3307,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C80" t="n">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D80" t="n">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="E80" t="n">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>11.105</v>
       </c>
       <c r="G80" t="n">
-        <v>640.5833333333334</v>
+        <v>641.0833333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3336,22 +3348,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C81" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="D81" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="E81" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="F81" t="n">
-        <v>52.8425</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>639.9333333333333</v>
+        <v>640.5833333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3380,19 +3392,19 @@
         <v>623</v>
       </c>
       <c r="C82" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D82" t="n">
         <v>623</v>
       </c>
       <c r="E82" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F82" t="n">
-        <v>257.9528</v>
+        <v>52.8425</v>
       </c>
       <c r="G82" t="n">
-        <v>639.1833333333333</v>
+        <v>639.9333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3418,22 +3430,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C83" t="n">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D83" t="n">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E83" t="n">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>257.9528</v>
       </c>
       <c r="G83" t="n">
-        <v>638.3333333333334</v>
+        <v>639.1833333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3462,19 +3474,19 @@
         <v>625</v>
       </c>
       <c r="C84" t="n">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D84" t="n">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E84" t="n">
         <v>625</v>
       </c>
       <c r="F84" t="n">
-        <v>1667</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>637.5666666666667</v>
+        <v>638.3333333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3500,22 +3512,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>625</v>
+      </c>
+      <c r="C85" t="n">
         <v>629</v>
       </c>
-      <c r="C85" t="n">
-        <v>630</v>
-      </c>
       <c r="D85" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E85" t="n">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F85" t="n">
-        <v>105</v>
+        <v>1667</v>
       </c>
       <c r="G85" t="n">
-        <v>636.8</v>
+        <v>637.5666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3541,22 +3553,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="C86" t="n">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="D86" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E86" t="n">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="F86" t="n">
-        <v>137.0987</v>
+        <v>105</v>
       </c>
       <c r="G86" t="n">
-        <v>636.0666666666667</v>
+        <v>636.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3582,22 +3594,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C87" t="n">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D87" t="n">
         <v>628</v>
       </c>
       <c r="E87" t="n">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>137.0987</v>
       </c>
       <c r="G87" t="n">
-        <v>635.5833333333334</v>
+        <v>636.0666666666667</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3623,22 +3635,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C88" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="D88" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="E88" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="F88" t="n">
-        <v>198.1202</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>635.0333333333333</v>
+        <v>635.5833333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3676,10 +3688,10 @@
         <v>623</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0001</v>
+        <v>198.1202</v>
       </c>
       <c r="G89" t="n">
-        <v>634.5</v>
+        <v>635.0333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3717,10 +3729,10 @@
         <v>623</v>
       </c>
       <c r="F90" t="n">
-        <v>49.2238</v>
+        <v>0.0001</v>
       </c>
       <c r="G90" t="n">
-        <v>633.9333333333333</v>
+        <v>634.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3746,22 +3758,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C91" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D91" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E91" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F91" t="n">
-        <v>2636.5544</v>
+        <v>49.2238</v>
       </c>
       <c r="G91" t="n">
-        <v>633.5666666666667</v>
+        <v>633.9333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3787,22 +3799,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C92" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D92" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E92" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F92" t="n">
-        <v>695.5869</v>
+        <v>2636.5544</v>
       </c>
       <c r="G92" t="n">
-        <v>633.1833333333333</v>
+        <v>633.5666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3828,22 +3840,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C93" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D93" t="n">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E93" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F93" t="n">
-        <v>3724.6746</v>
+        <v>695.5869</v>
       </c>
       <c r="G93" t="n">
-        <v>632.85</v>
+        <v>633.1833333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3869,22 +3881,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="C94" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="D94" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E94" t="n">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F94" t="n">
-        <v>3.4156</v>
+        <v>3724.6746</v>
       </c>
       <c r="G94" t="n">
-        <v>632.3333333333334</v>
+        <v>632.85</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3910,22 +3922,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C95" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D95" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E95" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F95" t="n">
-        <v>2236.0644</v>
+        <v>3.4156</v>
       </c>
       <c r="G95" t="n">
-        <v>631.7833333333333</v>
+        <v>632.3333333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3963,10 +3975,10 @@
         <v>624</v>
       </c>
       <c r="F96" t="n">
-        <v>502.5578</v>
+        <v>2236.0644</v>
       </c>
       <c r="G96" t="n">
-        <v>631.05</v>
+        <v>631.7833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3992,22 +4004,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C97" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D97" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E97" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F97" t="n">
-        <v>341.681</v>
+        <v>502.5578</v>
       </c>
       <c r="G97" t="n">
-        <v>630.65</v>
+        <v>631.05</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4033,22 +4045,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C98" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D98" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E98" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F98" t="n">
-        <v>562.3778</v>
+        <v>341.681</v>
       </c>
       <c r="G98" t="n">
-        <v>630.05</v>
+        <v>630.65</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4086,10 +4098,10 @@
         <v>627</v>
       </c>
       <c r="F99" t="n">
-        <v>3444.5831</v>
+        <v>562.3778</v>
       </c>
       <c r="G99" t="n">
-        <v>629.4833333333333</v>
+        <v>630.05</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4115,22 +4127,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C100" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D100" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="E100" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="F100" t="n">
-        <v>386.4392</v>
+        <v>3444.5831</v>
       </c>
       <c r="G100" t="n">
-        <v>628.8833333333333</v>
+        <v>629.4833333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4156,22 +4168,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>624</v>
+      </c>
+      <c r="C101" t="n">
         <v>623</v>
       </c>
-      <c r="C101" t="n">
-        <v>621</v>
-      </c>
       <c r="D101" t="n">
+        <v>624</v>
+      </c>
+      <c r="E101" t="n">
         <v>623</v>
       </c>
-      <c r="E101" t="n">
-        <v>621</v>
-      </c>
       <c r="F101" t="n">
-        <v>2204.758</v>
+        <v>386.4392</v>
       </c>
       <c r="G101" t="n">
-        <v>628.3666666666667</v>
+        <v>628.8833333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4197,22 +4209,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C102" t="n">
         <v>621</v>
       </c>
       <c r="D102" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E102" t="n">
         <v>621</v>
       </c>
       <c r="F102" t="n">
-        <v>1685</v>
+        <v>2204.758</v>
       </c>
       <c r="G102" t="n">
-        <v>627.9833333333333</v>
+        <v>628.3666666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4238,22 +4250,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C103" t="n">
         <v>621</v>
       </c>
       <c r="D103" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E103" t="n">
         <v>621</v>
       </c>
       <c r="F103" t="n">
-        <v>689</v>
+        <v>1685</v>
       </c>
       <c r="G103" t="n">
-        <v>627.6333333333333</v>
+        <v>627.9833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4291,10 +4303,10 @@
         <v>621</v>
       </c>
       <c r="F104" t="n">
-        <v>1667</v>
+        <v>689</v>
       </c>
       <c r="G104" t="n">
-        <v>627.2166666666667</v>
+        <v>627.6333333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4320,22 +4332,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C105" t="n">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D105" t="n">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E105" t="n">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F105" t="n">
-        <v>3.5399</v>
+        <v>1667</v>
       </c>
       <c r="G105" t="n">
-        <v>627.0333333333333</v>
+        <v>627.2166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4361,22 +4373,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C106" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D106" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E106" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>3.5399</v>
       </c>
       <c r="G106" t="n">
-        <v>626.85</v>
+        <v>627.0333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4402,22 +4414,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C107" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D107" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="E107" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F107" t="n">
-        <v>3878.6851</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>626.5333333333333</v>
+        <v>626.85</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4455,10 +4467,10 @@
         <v>621</v>
       </c>
       <c r="F108" t="n">
-        <v>60.2668</v>
+        <v>3878.6851</v>
       </c>
       <c r="G108" t="n">
-        <v>626.2166666666667</v>
+        <v>626.5333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4484,22 +4496,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C109" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D109" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E109" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F109" t="n">
-        <v>4300.0277</v>
+        <v>60.2668</v>
       </c>
       <c r="G109" t="n">
-        <v>625.9833333333333</v>
+        <v>626.2166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4537,10 +4549,10 @@
         <v>620</v>
       </c>
       <c r="F110" t="n">
-        <v>76.2787</v>
+        <v>4300.0277</v>
       </c>
       <c r="G110" t="n">
-        <v>625.8166666666667</v>
+        <v>625.9833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4566,22 +4578,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C111" t="n">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="D111" t="n">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="E111" t="n">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="F111" t="n">
-        <v>1736.0278</v>
+        <v>76.2787</v>
       </c>
       <c r="G111" t="n">
-        <v>625.4833333333333</v>
+        <v>625.8166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4607,22 +4619,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C112" t="n">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="D112" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E112" t="n">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F112" t="n">
-        <v>150</v>
+        <v>1736.0278</v>
       </c>
       <c r="G112" t="n">
-        <v>625.3</v>
+        <v>625.4833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4648,22 +4660,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C113" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D113" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E113" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="G113" t="n">
-        <v>625.0666666666667</v>
+        <v>625.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4689,22 +4701,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C114" t="n">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D114" t="n">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E114" t="n">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F114" t="n">
-        <v>93.3742</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>624.8</v>
+        <v>625.0666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4739,13 +4751,13 @@
         <v>614</v>
       </c>
       <c r="E115" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F115" t="n">
-        <v>1065.8345</v>
+        <v>93.3742</v>
       </c>
       <c r="G115" t="n">
-        <v>624.5166666666667</v>
+        <v>624.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4774,19 +4786,19 @@
         <v>614</v>
       </c>
       <c r="C116" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D116" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E116" t="n">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F116" t="n">
-        <v>3697.8045</v>
+        <v>1065.8345</v>
       </c>
       <c r="G116" t="n">
-        <v>624.3</v>
+        <v>624.5166666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4812,22 +4824,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C117" t="n">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="D117" t="n">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="E117" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F117" t="n">
-        <v>2000</v>
+        <v>3697.8045</v>
       </c>
       <c r="G117" t="n">
-        <v>623.9666666666667</v>
+        <v>624.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4853,22 +4865,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="C118" t="n">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D118" t="n">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E118" t="n">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F118" t="n">
-        <v>98.1354</v>
+        <v>2000</v>
       </c>
       <c r="G118" t="n">
-        <v>623.7666666666667</v>
+        <v>623.9666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4897,19 +4909,19 @@
         <v>618</v>
       </c>
       <c r="C119" t="n">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D119" t="n">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E119" t="n">
         <v>618</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>98.1354</v>
       </c>
       <c r="G119" t="n">
-        <v>623.6333333333333</v>
+        <v>623.7666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4935,22 +4947,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C120" t="n">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D120" t="n">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E120" t="n">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="F120" t="n">
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>623.5</v>
+        <v>623.6333333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4988,10 +5000,10 @@
         <v>622</v>
       </c>
       <c r="F121" t="n">
-        <v>3.3279</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>623.35</v>
+        <v>623.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5029,10 +5041,10 @@
         <v>622</v>
       </c>
       <c r="F122" t="n">
-        <v>25.6721</v>
+        <v>3.3279</v>
       </c>
       <c r="G122" t="n">
-        <v>623.2833333333333</v>
+        <v>623.35</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5058,22 +5070,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="C123" t="n">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D123" t="n">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E123" t="n">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F123" t="n">
-        <v>69.9999</v>
+        <v>25.6721</v>
       </c>
       <c r="G123" t="n">
-        <v>623.3166666666667</v>
+        <v>623.2833333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5111,10 +5123,10 @@
         <v>629</v>
       </c>
       <c r="F124" t="n">
-        <v>320.9999</v>
+        <v>69.9999</v>
       </c>
       <c r="G124" t="n">
-        <v>623.35</v>
+        <v>623.3166666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5140,22 +5152,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C125" t="n">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D125" t="n">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E125" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F125" t="n">
-        <v>3175.7052</v>
+        <v>320.9999</v>
       </c>
       <c r="G125" t="n">
-        <v>623.4333333333333</v>
+        <v>623.35</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5181,7 +5193,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C126" t="n">
         <v>632</v>
@@ -5190,13 +5202,13 @@
         <v>632</v>
       </c>
       <c r="E126" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F126" t="n">
-        <v>729.7616</v>
+        <v>3175.7052</v>
       </c>
       <c r="G126" t="n">
-        <v>623.4666666666667</v>
+        <v>623.4333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5222,22 +5234,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C127" t="n">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="D127" t="n">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="E127" t="n">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F127" t="n">
-        <v>127</v>
+        <v>729.7616</v>
       </c>
       <c r="G127" t="n">
-        <v>623.6333333333333</v>
+        <v>623.4666666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5263,7 +5275,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="C128" t="n">
         <v>641</v>
@@ -5272,13 +5284,13 @@
         <v>641</v>
       </c>
       <c r="E128" t="n">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F128" t="n">
-        <v>19.9646</v>
+        <v>127</v>
       </c>
       <c r="G128" t="n">
-        <v>623.8166666666667</v>
+        <v>623.6333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5304,22 +5316,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C129" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D129" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E129" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>19.9646</v>
       </c>
       <c r="G129" t="n">
-        <v>624.0166666666667</v>
+        <v>623.8166666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5345,22 +5357,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C130" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D130" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E130" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F130" t="n">
-        <v>1827</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>624.2833333333333</v>
+        <v>624.0166666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5398,10 +5410,10 @@
         <v>641</v>
       </c>
       <c r="F131" t="n">
-        <v>1047.2959</v>
+        <v>1827</v>
       </c>
       <c r="G131" t="n">
-        <v>624.45</v>
+        <v>624.2833333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5427,28 +5439,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="C132" t="n">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="D132" t="n">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="E132" t="n">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="F132" t="n">
-        <v>2887.0249</v>
+        <v>1047.2959</v>
       </c>
       <c r="G132" t="n">
-        <v>624.4666666666667</v>
+        <v>624.45</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
@@ -5456,11 +5468,11 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>1</v>
+        <v>1.012460317460318</v>
       </c>
     </row>
     <row r="133">
@@ -5468,38 +5480,32 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C133" t="n">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="D133" t="n">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E133" t="n">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>2887.0249</v>
       </c>
       <c r="G133" t="n">
-        <v>624.6333333333333</v>
+        <v>624.4666666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>630</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5509,7 +5515,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C134" t="n">
         <v>639</v>
@@ -5518,13 +5524,13 @@
         <v>639</v>
       </c>
       <c r="E134" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F134" t="n">
-        <v>199.0465</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>624.8166666666667</v>
+        <v>624.6333333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5533,14 +5539,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>630</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5550,39 +5550,68 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="C135" t="n">
+        <v>639</v>
+      </c>
+      <c r="D135" t="n">
+        <v>639</v>
+      </c>
+      <c r="E135" t="n">
+        <v>637</v>
+      </c>
+      <c r="F135" t="n">
+        <v>199.0465</v>
+      </c>
+      <c r="G135" t="n">
+        <v>624.8166666666667</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>630</v>
+      </c>
+      <c r="C136" t="n">
         <v>628</v>
       </c>
-      <c r="D135" t="n">
-        <v>630</v>
-      </c>
-      <c r="E135" t="n">
+      <c r="D136" t="n">
+        <v>630</v>
+      </c>
+      <c r="E136" t="n">
         <v>628</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F136" t="n">
         <v>265</v>
       </c>
-      <c r="G135" t="n">
+      <c r="G136" t="n">
         <v>624.95</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>630</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest GXC.xlsx
+++ b/BackTest/2019-11-02 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>41.0419</v>
       </c>
       <c r="G2" t="n">
+        <v>628.4666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>626.5666666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>364.4399</v>
       </c>
       <c r="G3" t="n">
+        <v>628.4</v>
+      </c>
+      <c r="H3" t="n">
         <v>626.6333333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>627</v>
+      </c>
+      <c r="L3" t="n">
+        <v>627</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>436.295</v>
       </c>
       <c r="G4" t="n">
+        <v>628.4</v>
+      </c>
+      <c r="H4" t="n">
         <v>626.7666666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>628</v>
+      </c>
+      <c r="L4" t="n">
+        <v>627</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>651.0411</v>
       </c>
       <c r="G5" t="n">
+        <v>628.2</v>
+      </c>
+      <c r="H5" t="n">
         <v>626.8666666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>627</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,21 @@
         <v>7127.1943</v>
       </c>
       <c r="G6" t="n">
+        <v>628.0666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>626.9833333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +661,21 @@
         <v>410.2186</v>
       </c>
       <c r="G7" t="n">
+        <v>628</v>
+      </c>
+      <c r="H7" t="n">
         <v>627.2</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +699,21 @@
         <v>80</v>
       </c>
       <c r="G8" t="n">
+        <v>629.3333333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>627.45</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +737,21 @@
         <v>131.1755</v>
       </c>
       <c r="G9" t="n">
+        <v>629.7333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>627.7</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +775,21 @@
         <v>40</v>
       </c>
       <c r="G10" t="n">
+        <v>630.4666666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>628.0166666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +813,21 @@
         <v>189</v>
       </c>
       <c r="G11" t="n">
+        <v>631.7333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>628.3333333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +851,21 @@
         <v>2077.6429</v>
       </c>
       <c r="G12" t="n">
+        <v>632.9333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>628.6333333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +889,21 @@
         <v>3002.8582</v>
       </c>
       <c r="G13" t="n">
+        <v>634.7333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>628.8833333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +927,21 @@
         <v>1598.9999</v>
       </c>
       <c r="G14" t="n">
+        <v>636.7333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>629.1833333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +965,21 @@
         <v>9968.6764513</v>
       </c>
       <c r="G15" t="n">
+        <v>639.7333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>629.7833333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1003,21 @@
         <v>711.4045</v>
       </c>
       <c r="G16" t="n">
+        <v>640.9333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>629.9333333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1041,21 @@
         <v>2937.969</v>
       </c>
       <c r="G17" t="n">
+        <v>642.4</v>
+      </c>
+      <c r="H17" t="n">
         <v>630.2166666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1079,21 @@
         <v>299.25</v>
       </c>
       <c r="G18" t="n">
+        <v>643.8</v>
+      </c>
+      <c r="H18" t="n">
         <v>630.5</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1117,21 @@
         <v>343.2903</v>
       </c>
       <c r="G19" t="n">
+        <v>645.2</v>
+      </c>
+      <c r="H19" t="n">
         <v>630.8333333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1155,21 @@
         <v>605.7547</v>
       </c>
       <c r="G20" t="n">
+        <v>646.7333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>631.2</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1193,21 @@
         <v>5408.0325</v>
       </c>
       <c r="G21" t="n">
+        <v>648.4</v>
+      </c>
+      <c r="H21" t="n">
         <v>631.6333333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1231,21 @@
         <v>3828.8718</v>
       </c>
       <c r="G22" t="n">
+        <v>650.2666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>632.1333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1269,21 @@
         <v>9797.9185</v>
       </c>
       <c r="G23" t="n">
+        <v>651.9333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>632.9333333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1307,21 @@
         <v>609</v>
       </c>
       <c r="G24" t="n">
+        <v>654.2666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>633.9</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1345,21 @@
         <v>6248.3066</v>
       </c>
       <c r="G25" t="n">
+        <v>656.2</v>
+      </c>
+      <c r="H25" t="n">
         <v>634.75</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1383,21 @@
         <v>1412.41873037</v>
       </c>
       <c r="G26" t="n">
+        <v>658.2</v>
+      </c>
+      <c r="H26" t="n">
         <v>635.6833333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1421,21 @@
         <v>1705.0221</v>
       </c>
       <c r="G27" t="n">
+        <v>659.6</v>
+      </c>
+      <c r="H27" t="n">
         <v>636.45</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1459,21 @@
         <v>4720.144</v>
       </c>
       <c r="G28" t="n">
+        <v>660.1333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>636.9</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1497,21 @@
         <v>92</v>
       </c>
       <c r="G29" t="n">
+        <v>660.4666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>637.4666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1535,21 @@
         <v>2308.589</v>
       </c>
       <c r="G30" t="n">
+        <v>659.5333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>637.9833333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1573,21 @@
         <v>111.47233515</v>
       </c>
       <c r="G31" t="n">
+        <v>660.6666666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>638.5333333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1611,21 @@
         <v>141</v>
       </c>
       <c r="G32" t="n">
+        <v>660.4666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>638.9</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1649,21 @@
         <v>3171.8484</v>
       </c>
       <c r="G33" t="n">
+        <v>660.1333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>639.25</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1687,21 @@
         <v>444</v>
       </c>
       <c r="G34" t="n">
+        <v>659.5333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>639.6</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1725,21 @@
         <v>3183.612</v>
       </c>
       <c r="G35" t="n">
+        <v>659.3333333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>640.0833333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1763,21 @@
         <v>6</v>
       </c>
       <c r="G36" t="n">
+        <v>659.2666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>640.65</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1801,21 @@
         <v>1316.5298</v>
       </c>
       <c r="G37" t="n">
+        <v>659.6666666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>641.4333333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1839,21 @@
         <v>223.004</v>
       </c>
       <c r="G38" t="n">
+        <v>658.5333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>641.7333333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1877,21 @@
         <v>5644.484</v>
       </c>
       <c r="G39" t="n">
+        <v>657.6666666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>642.4</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1915,21 @@
         <v>332.9242</v>
       </c>
       <c r="G40" t="n">
+        <v>656.7333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>643</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1953,21 @@
         <v>223</v>
       </c>
       <c r="G41" t="n">
+        <v>655.6</v>
+      </c>
+      <c r="H41" t="n">
         <v>643.6166666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1991,21 @@
         <v>1267.8421</v>
       </c>
       <c r="G42" t="n">
+        <v>654.6666666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>644.1333333333333</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2029,21 @@
         <v>18124.4248</v>
       </c>
       <c r="G43" t="n">
+        <v>653.8</v>
+      </c>
+      <c r="H43" t="n">
         <v>644.5166666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2067,21 @@
         <v>691.5916999999999</v>
       </c>
       <c r="G44" t="n">
+        <v>652.8666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>644.8666666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2105,21 @@
         <v>871.5042999999999</v>
       </c>
       <c r="G45" t="n">
+        <v>652.2666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>645.1166666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2143,21 @@
         <v>337.7435</v>
       </c>
       <c r="G46" t="n">
+        <v>650.9333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>645.2</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2181,21 @@
         <v>620.215</v>
       </c>
       <c r="G47" t="n">
+        <v>650.2666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>645.4</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2219,21 @@
         <v>3.5515625</v>
       </c>
       <c r="G48" t="n">
+        <v>650</v>
+      </c>
+      <c r="H48" t="n">
         <v>645.5833333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2257,21 @@
         <v>126.6781</v>
       </c>
       <c r="G49" t="n">
+        <v>649.7333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>645.7166666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2295,21 @@
         <v>6670.8105</v>
       </c>
       <c r="G50" t="n">
+        <v>648.5333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>645.7</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2333,21 @@
         <v>144.9105</v>
       </c>
       <c r="G51" t="n">
+        <v>646.7333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>645.6166666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2371,21 @@
         <v>762.8625</v>
       </c>
       <c r="G52" t="n">
+        <v>644.2</v>
+      </c>
+      <c r="H52" t="n">
         <v>645.5333333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2409,21 @@
         <v>489.2892</v>
       </c>
       <c r="G53" t="n">
+        <v>642.9333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>645.6833333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2447,21 @@
         <v>327.8942</v>
       </c>
       <c r="G54" t="n">
+        <v>640.8</v>
+      </c>
+      <c r="H54" t="n">
         <v>645.6166666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2485,21 @@
         <v>546.4</v>
       </c>
       <c r="G55" t="n">
+        <v>638.7333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>645.5333333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,22 +2523,21 @@
         <v>352</v>
       </c>
       <c r="G56" t="n">
+        <v>636.8666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>645.6</v>
       </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>630</v>
-      </c>
-      <c r="K56" t="n">
-        <v>630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2377,26 +2561,21 @@
         <v>397.8578</v>
       </c>
       <c r="G57" t="n">
+        <v>635.4</v>
+      </c>
+      <c r="H57" t="n">
         <v>645.65</v>
       </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>631</v>
-      </c>
-      <c r="K57" t="n">
-        <v>630</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2420,24 +2599,21 @@
         <v>306.3767</v>
       </c>
       <c r="G58" t="n">
+        <v>634.4666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>645.7833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>630</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,24 +2637,21 @@
         <v>97.2</v>
       </c>
       <c r="G59" t="n">
+        <v>633.6666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>645.9333333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>630</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2502,24 +2675,21 @@
         <v>4265</v>
       </c>
       <c r="G60" t="n">
+        <v>632.4666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>646</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>630</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2543,24 +2713,21 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
+        <v>632</v>
+      </c>
+      <c r="H61" t="n">
         <v>646.1333333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>630</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2584,24 +2751,21 @@
         <v>221.2716</v>
       </c>
       <c r="G62" t="n">
+        <v>631.6666666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>646.2</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>630</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2625,24 +2789,21 @@
         <v>658.7659</v>
       </c>
       <c r="G63" t="n">
+        <v>630.7333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>646.1666666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>630</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2666,24 +2827,21 @@
         <v>271.2003</v>
       </c>
       <c r="G64" t="n">
+        <v>629.8666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>646.0833333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>630</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2707,24 +2865,21 @@
         <v>346.3633</v>
       </c>
       <c r="G65" t="n">
+        <v>629.4</v>
+      </c>
+      <c r="H65" t="n">
         <v>646</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>630</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2748,24 +2903,21 @@
         <v>344.3934</v>
       </c>
       <c r="G66" t="n">
+        <v>629.2</v>
+      </c>
+      <c r="H66" t="n">
         <v>645.9</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>630</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2789,24 +2941,21 @@
         <v>30</v>
       </c>
       <c r="G67" t="n">
+        <v>629.2</v>
+      </c>
+      <c r="H67" t="n">
         <v>645.8333333333334</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>630</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2830,24 +2979,21 @@
         <v>7791.7284</v>
       </c>
       <c r="G68" t="n">
+        <v>629.2666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>645.6666666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>630</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2871,24 +3017,21 @@
         <v>1024</v>
       </c>
       <c r="G69" t="n">
+        <v>629.2</v>
+      </c>
+      <c r="H69" t="n">
         <v>645.4833333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>630</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2912,24 +3055,21 @@
         <v>4</v>
       </c>
       <c r="G70" t="n">
+        <v>629.2</v>
+      </c>
+      <c r="H70" t="n">
         <v>645.2166666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>630</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,24 +3093,21 @@
         <v>276.2231</v>
       </c>
       <c r="G71" t="n">
+        <v>628.8</v>
+      </c>
+      <c r="H71" t="n">
         <v>644.8666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>630</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2994,24 +3131,21 @@
         <v>315</v>
       </c>
       <c r="G72" t="n">
+        <v>628.8666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>644.6333333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>630</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3035,24 +3169,21 @@
         <v>406.4377</v>
       </c>
       <c r="G73" t="n">
+        <v>628.8666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>644.3166666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>630</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3076,24 +3207,21 @@
         <v>2871.36</v>
       </c>
       <c r="G74" t="n">
+        <v>628.8</v>
+      </c>
+      <c r="H74" t="n">
         <v>643.95</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>630</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3117,24 +3245,21 @@
         <v>749.1107</v>
       </c>
       <c r="G75" t="n">
+        <v>628.8</v>
+      </c>
+      <c r="H75" t="n">
         <v>643.2666666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>630</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3158,24 +3283,21 @@
         <v>1690.0218</v>
       </c>
       <c r="G76" t="n">
+        <v>628.1333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>642.9333333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>630</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,24 +3321,21 @@
         <v>8.365</v>
       </c>
       <c r="G77" t="n">
+        <v>627.6666666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>642.5166666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>630</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3240,24 +3359,21 @@
         <v>156</v>
       </c>
       <c r="G78" t="n">
+        <v>627.8666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>642.1833333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>630</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3281,24 +3397,21 @@
         <v>281.0104</v>
       </c>
       <c r="G79" t="n">
+        <v>627.4666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>641.65</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>630</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3322,24 +3435,21 @@
         <v>11.105</v>
       </c>
       <c r="G80" t="n">
+        <v>627.0666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>641.0833333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>630</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3363,24 +3473,21 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
+        <v>627.1333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>640.5833333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>630</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,24 +3511,21 @@
         <v>52.8425</v>
       </c>
       <c r="G82" t="n">
+        <v>626.6666666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>639.9333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>630</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3445,24 +3549,21 @@
         <v>257.9528</v>
       </c>
       <c r="G83" t="n">
+        <v>626</v>
+      </c>
+      <c r="H83" t="n">
         <v>639.1833333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>630</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3486,24 +3587,21 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
+        <v>625.6666666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>638.3333333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>630</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3527,24 +3625,27 @@
         <v>1667</v>
       </c>
       <c r="G85" t="n">
+        <v>625.6</v>
+      </c>
+      <c r="H85" t="n">
         <v>637.5666666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="n">
-        <v>630</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+        <v>625</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3568,24 +3669,25 @@
         <v>105</v>
       </c>
       <c r="G86" t="n">
+        <v>625.9333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>636.8</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>630</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3609,24 +3711,27 @@
         <v>137.0987</v>
       </c>
       <c r="G87" t="n">
+        <v>625.3333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>636.0666666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="n">
         <v>630</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,24 +3755,25 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
+        <v>625.2</v>
+      </c>
+      <c r="H88" t="n">
         <v>635.5833333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>630</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3691,24 +3797,25 @@
         <v>198.1202</v>
       </c>
       <c r="G89" t="n">
+        <v>624.8</v>
+      </c>
+      <c r="H89" t="n">
         <v>635.0333333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>630</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3732,24 +3839,25 @@
         <v>0.0001</v>
       </c>
       <c r="G90" t="n">
+        <v>624.4666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>634.5</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>630</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,24 +3881,25 @@
         <v>49.2238</v>
       </c>
       <c r="G91" t="n">
+        <v>624.6666666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>633.9333333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>630</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,24 +3923,25 @@
         <v>2636.5544</v>
       </c>
       <c r="G92" t="n">
+        <v>624.6666666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>633.5666666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>630</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3855,24 +3965,25 @@
         <v>695.5869</v>
       </c>
       <c r="G93" t="n">
+        <v>624.1333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>633.1833333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>630</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,24 +4007,25 @@
         <v>3724.6746</v>
       </c>
       <c r="G94" t="n">
+        <v>624.3333333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>632.85</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>630</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3937,24 +4049,25 @@
         <v>3.4156</v>
       </c>
       <c r="G95" t="n">
+        <v>624.3333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>632.3333333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>630</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3978,24 +4091,25 @@
         <v>2236.0644</v>
       </c>
       <c r="G96" t="n">
+        <v>624.0666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>631.7833333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>630</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4019,24 +4133,25 @@
         <v>502.5578</v>
       </c>
       <c r="G97" t="n">
+        <v>624.1333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>631.05</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>630</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4060,24 +4175,25 @@
         <v>341.681</v>
       </c>
       <c r="G98" t="n">
+        <v>624.4</v>
+      </c>
+      <c r="H98" t="n">
         <v>630.65</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>630</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4101,24 +4217,25 @@
         <v>562.3778</v>
       </c>
       <c r="G99" t="n">
+        <v>624.5333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>630.05</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>630</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,24 +4259,25 @@
         <v>3444.5831</v>
       </c>
       <c r="G100" t="n">
+        <v>624.4</v>
+      </c>
+      <c r="H100" t="n">
         <v>629.4833333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>630</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4183,24 +4301,25 @@
         <v>386.4392</v>
       </c>
       <c r="G101" t="n">
+        <v>623.9333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>628.8833333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>630</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4224,24 +4343,25 @@
         <v>2204.758</v>
       </c>
       <c r="G102" t="n">
+        <v>623.8666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>628.3666666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>630</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4265,24 +4385,25 @@
         <v>1685</v>
       </c>
       <c r="G103" t="n">
+        <v>623.4</v>
+      </c>
+      <c r="H103" t="n">
         <v>627.9833333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>630</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4306,24 +4427,25 @@
         <v>689</v>
       </c>
       <c r="G104" t="n">
+        <v>623.2666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>627.6333333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>630</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4347,24 +4469,25 @@
         <v>1667</v>
       </c>
       <c r="G105" t="n">
+        <v>623.1333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>627.2166666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>630</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,24 +4511,25 @@
         <v>3.5399</v>
       </c>
       <c r="G106" t="n">
+        <v>623.3333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>627.0333333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>630</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4429,24 +4553,25 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
+        <v>623.4</v>
+      </c>
+      <c r="H107" t="n">
         <v>626.85</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>630</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4470,24 +4595,25 @@
         <v>3878.6851</v>
       </c>
       <c r="G108" t="n">
+        <v>623.4</v>
+      </c>
+      <c r="H108" t="n">
         <v>626.5333333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>630</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4511,24 +4637,25 @@
         <v>60.2668</v>
       </c>
       <c r="G109" t="n">
+        <v>623.2</v>
+      </c>
+      <c r="H109" t="n">
         <v>626.2166666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>630</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4552,24 +4679,25 @@
         <v>4300.0277</v>
       </c>
       <c r="G110" t="n">
+        <v>623.1333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>625.9833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>630</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4593,24 +4721,25 @@
         <v>76.2787</v>
       </c>
       <c r="G111" t="n">
+        <v>622.8666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>625.8166666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>630</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4634,24 +4763,25 @@
         <v>1736.0278</v>
       </c>
       <c r="G112" t="n">
+        <v>621.9333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>625.4833333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>630</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4675,24 +4805,25 @@
         <v>150</v>
       </c>
       <c r="G113" t="n">
+        <v>621.5333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>625.3</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>630</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4716,24 +4847,25 @@
         <v>1</v>
       </c>
       <c r="G114" t="n">
+        <v>620.8666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>625.0666666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>630</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4757,24 +4889,25 @@
         <v>93.3742</v>
       </c>
       <c r="G115" t="n">
+        <v>620</v>
+      </c>
+      <c r="H115" t="n">
         <v>624.8</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>630</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4798,24 +4931,25 @@
         <v>1065.8345</v>
       </c>
       <c r="G116" t="n">
+        <v>619.4</v>
+      </c>
+      <c r="H116" t="n">
         <v>624.5166666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>630</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,24 +4973,25 @@
         <v>3697.8045</v>
       </c>
       <c r="G117" t="n">
+        <v>619.1333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>624.3</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>630</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4880,24 +5015,25 @@
         <v>2000</v>
       </c>
       <c r="G118" t="n">
+        <v>618.4</v>
+      </c>
+      <c r="H118" t="n">
         <v>623.9666666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>630</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4921,24 +5057,25 @@
         <v>98.1354</v>
       </c>
       <c r="G119" t="n">
+        <v>618.2</v>
+      </c>
+      <c r="H119" t="n">
         <v>623.7666666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>630</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,24 +5099,25 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
+        <v>618.1333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>623.6333333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>630</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5003,24 +5141,25 @@
         <v>1</v>
       </c>
       <c r="G121" t="n">
+        <v>617.8666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>623.5</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>630</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5044,24 +5183,25 @@
         <v>3.3279</v>
       </c>
       <c r="G122" t="n">
+        <v>617.6666666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>623.35</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>630</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5085,24 +5225,25 @@
         <v>25.6721</v>
       </c>
       <c r="G123" t="n">
+        <v>617.7333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>623.2833333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>630</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5126,24 +5267,25 @@
         <v>69.9999</v>
       </c>
       <c r="G124" t="n">
+        <v>618.2666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>623.3166666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>630</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5167,24 +5309,25 @@
         <v>320.9999</v>
       </c>
       <c r="G125" t="n">
+        <v>618.8666666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>623.35</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>630</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,24 +5351,25 @@
         <v>3175.7052</v>
       </c>
       <c r="G126" t="n">
+        <v>619.6666666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>623.4333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>630</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5249,24 +5393,25 @@
         <v>729.7616</v>
       </c>
       <c r="G127" t="n">
+        <v>621.1333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>623.4666666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>630</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,24 +5435,25 @@
         <v>127</v>
       </c>
       <c r="G128" t="n">
+        <v>622.6</v>
+      </c>
+      <c r="H128" t="n">
         <v>623.6333333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>630</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5331,24 +5477,25 @@
         <v>19.9646</v>
       </c>
       <c r="G129" t="n">
+        <v>624.2</v>
+      </c>
+      <c r="H129" t="n">
         <v>623.8166666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>630</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5372,24 +5519,25 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
+        <v>626.0666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>624.0166666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>630</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5413,24 +5561,25 @@
         <v>1827</v>
       </c>
       <c r="G131" t="n">
+        <v>627.8666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>624.2833333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>630</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,25 +5603,26 @@
         <v>1047.2959</v>
       </c>
       <c r="G132" t="n">
+        <v>629.4666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>624.45</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>630</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1.012460317460318</v>
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -5495,18 +5645,25 @@
         <v>2887.0249</v>
       </c>
       <c r="G133" t="n">
+        <v>630.8666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>624.4666666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,18 +5687,25 @@
         <v>1</v>
       </c>
       <c r="G134" t="n">
+        <v>632.2666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>624.6333333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5565,18 +5729,25 @@
         <v>199.0465</v>
       </c>
       <c r="G135" t="n">
+        <v>633.5333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>624.8166666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5600,18 +5771,445 @@
         <v>265</v>
       </c>
       <c r="G136" t="n">
+        <v>633.9333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>624.95</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>629</v>
+      </c>
+      <c r="C137" t="n">
+        <v>629</v>
+      </c>
+      <c r="D137" t="n">
+        <v>629</v>
+      </c>
+      <c r="E137" t="n">
+        <v>629</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>634.4</v>
+      </c>
+      <c r="H137" t="n">
+        <v>625.0333333333333</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>629</v>
+      </c>
+      <c r="C138" t="n">
+        <v>635</v>
+      </c>
+      <c r="D138" t="n">
+        <v>635</v>
+      </c>
+      <c r="E138" t="n">
+        <v>629</v>
+      </c>
+      <c r="F138" t="n">
+        <v>120</v>
+      </c>
+      <c r="G138" t="n">
+        <v>635.2666666666667</v>
+      </c>
+      <c r="H138" t="n">
+        <v>625.1333333333333</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>632</v>
+      </c>
+      <c r="C139" t="n">
+        <v>635</v>
+      </c>
+      <c r="D139" t="n">
+        <v>635</v>
+      </c>
+      <c r="E139" t="n">
+        <v>632</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1179</v>
+      </c>
+      <c r="G139" t="n">
+        <v>635.6666666666666</v>
+      </c>
+      <c r="H139" t="n">
+        <v>625.3666666666667</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>636</v>
+      </c>
+      <c r="C140" t="n">
+        <v>642</v>
+      </c>
+      <c r="D140" t="n">
+        <v>642</v>
+      </c>
+      <c r="E140" t="n">
+        <v>636</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2540.8836</v>
+      </c>
+      <c r="G140" t="n">
+        <v>636.5333333333333</v>
+      </c>
+      <c r="H140" t="n">
+        <v>625.7166666666667</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>650</v>
+      </c>
+      <c r="C141" t="n">
+        <v>650</v>
+      </c>
+      <c r="D141" t="n">
+        <v>650</v>
+      </c>
+      <c r="E141" t="n">
+        <v>650</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>637.7333333333333</v>
+      </c>
+      <c r="H141" t="n">
+        <v>626.0833333333334</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>641</v>
+      </c>
+      <c r="C142" t="n">
+        <v>641</v>
+      </c>
+      <c r="D142" t="n">
+        <v>641</v>
+      </c>
+      <c r="E142" t="n">
+        <v>641</v>
+      </c>
+      <c r="F142" t="n">
+        <v>84</v>
+      </c>
+      <c r="G142" t="n">
+        <v>638.3333333333334</v>
+      </c>
+      <c r="H142" t="n">
+        <v>626.3833333333333</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>642</v>
+      </c>
+      <c r="C143" t="n">
+        <v>642</v>
+      </c>
+      <c r="D143" t="n">
+        <v>642</v>
+      </c>
+      <c r="E143" t="n">
+        <v>642</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>638.4</v>
+      </c>
+      <c r="H143" t="n">
+        <v>626.7333333333333</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>636</v>
+      </c>
+      <c r="C144" t="n">
+        <v>628</v>
+      </c>
+      <c r="D144" t="n">
+        <v>636</v>
+      </c>
+      <c r="E144" t="n">
+        <v>628</v>
+      </c>
+      <c r="F144" t="n">
+        <v>80</v>
+      </c>
+      <c r="G144" t="n">
+        <v>637.5333333333333</v>
+      </c>
+      <c r="H144" t="n">
+        <v>626.7833333333333</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>633</v>
+      </c>
+      <c r="C145" t="n">
+        <v>633</v>
+      </c>
+      <c r="D145" t="n">
+        <v>633</v>
+      </c>
+      <c r="E145" t="n">
+        <v>633</v>
+      </c>
+      <c r="F145" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="G145" t="n">
+        <v>636.9333333333333</v>
+      </c>
+      <c r="H145" t="n">
+        <v>626.85</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>640</v>
+      </c>
+      <c r="C146" t="n">
+        <v>640</v>
+      </c>
+      <c r="D146" t="n">
+        <v>640</v>
+      </c>
+      <c r="E146" t="n">
+        <v>640</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>636.8666666666667</v>
+      </c>
+      <c r="H146" t="n">
+        <v>627.0166666666667</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest GXC.xlsx
+++ b/BackTest/2019-11-02 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:M175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C2" t="n">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D2" t="n">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E2" t="n">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F2" t="n">
-        <v>41.0419</v>
+        <v>611</v>
       </c>
       <c r="G2" t="n">
-        <v>628.4666666666667</v>
+        <v>29632.91099999999</v>
       </c>
       <c r="H2" t="n">
-        <v>626.5666666666667</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C3" t="n">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D3" t="n">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E3" t="n">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F3" t="n">
-        <v>364.4399</v>
+        <v>524</v>
       </c>
       <c r="G3" t="n">
-        <v>628.4</v>
+        <v>29632.91099999999</v>
       </c>
       <c r="H3" t="n">
-        <v>626.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>627</v>
-      </c>
-      <c r="L3" t="n">
-        <v>627</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,88 +503,80 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C4" t="n">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="D4" t="n">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E4" t="n">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="F4" t="n">
-        <v>436.295</v>
+        <v>1769.6616</v>
       </c>
       <c r="G4" t="n">
-        <v>628.4</v>
+        <v>29632.91099999999</v>
       </c>
       <c r="H4" t="n">
-        <v>626.7666666666667</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="K4" t="n">
-        <v>628</v>
-      </c>
-      <c r="L4" t="n">
-        <v>627</v>
-      </c>
-      <c r="M4" t="inlineStr">
+        <v>623</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>623</v>
+      </c>
+      <c r="C5" t="n">
+        <v>623</v>
+      </c>
+      <c r="D5" t="n">
+        <v>623</v>
+      </c>
+      <c r="E5" t="n">
+        <v>623</v>
+      </c>
+      <c r="F5" t="n">
+        <v>627.5907999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>29632.91099999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>623</v>
+      </c>
+      <c r="K5" t="n">
+        <v>623</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>632</v>
-      </c>
-      <c r="C5" t="n">
-        <v>632</v>
-      </c>
-      <c r="D5" t="n">
-        <v>632</v>
-      </c>
-      <c r="E5" t="n">
-        <v>632</v>
-      </c>
-      <c r="F5" t="n">
-        <v>651.0411</v>
-      </c>
-      <c r="G5" t="n">
-        <v>628.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>626.8666666666667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>627</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,36 +585,41 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C6" t="n">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="D6" t="n">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E6" t="n">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="F6" t="n">
-        <v>7127.1943</v>
+        <v>1726.1904</v>
       </c>
       <c r="G6" t="n">
-        <v>628.0666666666667</v>
+        <v>27906.72059999999</v>
       </c>
       <c r="H6" t="n">
-        <v>626.9833333333333</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>623</v>
+      </c>
+      <c r="K6" t="n">
+        <v>623</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -646,36 +628,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C7" t="n">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D7" t="n">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E7" t="n">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F7" t="n">
-        <v>410.2186</v>
+        <v>772.2725</v>
       </c>
       <c r="G7" t="n">
-        <v>628</v>
+        <v>28678.99309999999</v>
       </c>
       <c r="H7" t="n">
-        <v>627.2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>623</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -684,36 +669,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="C8" t="n">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="D8" t="n">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="E8" t="n">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="F8" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G8" t="n">
-        <v>629.3333333333334</v>
+        <v>28638.99309999999</v>
       </c>
       <c r="H8" t="n">
-        <v>627.45</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>623</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,36 +710,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="C9" t="n">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="D9" t="n">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="E9" t="n">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="F9" t="n">
-        <v>131.1755</v>
+        <v>280</v>
       </c>
       <c r="G9" t="n">
-        <v>629.7333333333333</v>
+        <v>28918.99309999999</v>
       </c>
       <c r="H9" t="n">
-        <v>627.7</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+        <v>623</v>
+      </c>
+      <c r="K9" t="n">
+        <v>623</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,36 +753,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="C10" t="n">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="D10" t="n">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="E10" t="n">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>402.2115</v>
       </c>
       <c r="G10" t="n">
-        <v>630.4666666666667</v>
+        <v>28516.78159999999</v>
       </c>
       <c r="H10" t="n">
-        <v>628.0166666666667</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>625</v>
+      </c>
+      <c r="K10" t="n">
+        <v>623</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,36 +796,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="C11" t="n">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="D11" t="n">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="E11" t="n">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="F11" t="n">
-        <v>189</v>
+        <v>347.7636</v>
       </c>
       <c r="G11" t="n">
-        <v>631.7333333333333</v>
+        <v>28169.01799999999</v>
       </c>
       <c r="H11" t="n">
-        <v>628.3333333333334</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+        <v>622</v>
+      </c>
+      <c r="K11" t="n">
+        <v>623</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -836,36 +839,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="C12" t="n">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="D12" t="n">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="E12" t="n">
-        <v>645</v>
+        <v>618</v>
       </c>
       <c r="F12" t="n">
-        <v>2077.6429</v>
+        <v>5167.3208</v>
       </c>
       <c r="G12" t="n">
-        <v>632.9333333333333</v>
+        <v>28169.01799999999</v>
       </c>
       <c r="H12" t="n">
-        <v>628.6333333333333</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+        <v>621</v>
+      </c>
+      <c r="K12" t="n">
+        <v>623</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -874,36 +882,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="C13" t="n">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="D13" t="n">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="E13" t="n">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="F13" t="n">
-        <v>3002.8582</v>
+        <v>1037.1241</v>
       </c>
       <c r="G13" t="n">
-        <v>634.7333333333333</v>
+        <v>28169.01799999999</v>
       </c>
       <c r="H13" t="n">
-        <v>628.8833333333333</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+        <v>621</v>
+      </c>
+      <c r="K13" t="n">
+        <v>623</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,36 +925,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651</v>
+        <v>621</v>
       </c>
       <c r="C14" t="n">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="D14" t="n">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="E14" t="n">
-        <v>651</v>
+        <v>621</v>
       </c>
       <c r="F14" t="n">
-        <v>1598.9999</v>
+        <v>2377.3354</v>
       </c>
       <c r="G14" t="n">
-        <v>636.7333333333333</v>
+        <v>30546.35339999999</v>
       </c>
       <c r="H14" t="n">
-        <v>629.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>623</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -950,36 +966,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="C15" t="n">
-        <v>669</v>
+        <v>632</v>
       </c>
       <c r="D15" t="n">
-        <v>670</v>
+        <v>632</v>
       </c>
       <c r="E15" t="n">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F15" t="n">
-        <v>9968.6764513</v>
+        <v>31.645</v>
       </c>
       <c r="G15" t="n">
-        <v>639.7333333333333</v>
+        <v>30577.99839999999</v>
       </c>
       <c r="H15" t="n">
-        <v>629.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>623</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -988,36 +1007,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>665</v>
+        <v>626</v>
       </c>
       <c r="C16" t="n">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="D16" t="n">
-        <v>665</v>
+        <v>626</v>
       </c>
       <c r="E16" t="n">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="F16" t="n">
-        <v>711.4045</v>
+        <v>9223.385899999999</v>
       </c>
       <c r="G16" t="n">
-        <v>640.9333333333333</v>
+        <v>21354.6125</v>
       </c>
       <c r="H16" t="n">
-        <v>629.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>623</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1026,36 +1048,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="C17" t="n">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="D17" t="n">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="E17" t="n">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="F17" t="n">
-        <v>2937.969</v>
+        <v>376.017</v>
       </c>
       <c r="G17" t="n">
-        <v>642.4</v>
+        <v>21730.6295</v>
       </c>
       <c r="H17" t="n">
-        <v>630.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>623</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1064,36 +1089,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="C18" t="n">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="D18" t="n">
-        <v>649</v>
+        <v>632</v>
       </c>
       <c r="E18" t="n">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="F18" t="n">
-        <v>299.25</v>
+        <v>594</v>
       </c>
       <c r="G18" t="n">
-        <v>643.8</v>
+        <v>22324.6295</v>
       </c>
       <c r="H18" t="n">
-        <v>630.5</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>623</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1102,36 +1130,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="C19" t="n">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="D19" t="n">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="E19" t="n">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="F19" t="n">
-        <v>343.2903</v>
+        <v>4018.2797</v>
       </c>
       <c r="G19" t="n">
-        <v>645.2</v>
+        <v>26342.90919999999</v>
       </c>
       <c r="H19" t="n">
-        <v>630.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>623</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1140,36 +1171,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="C20" t="n">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="D20" t="n">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="E20" t="n">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="F20" t="n">
-        <v>605.7547</v>
+        <v>1062.5518</v>
       </c>
       <c r="G20" t="n">
-        <v>646.7333333333333</v>
+        <v>26342.90919999999</v>
       </c>
       <c r="H20" t="n">
-        <v>631.2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>623</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1178,36 +1212,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="C21" t="n">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="D21" t="n">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="E21" t="n">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="F21" t="n">
-        <v>5408.0325</v>
+        <v>3856.3228</v>
       </c>
       <c r="G21" t="n">
-        <v>648.4</v>
+        <v>26342.90919999999</v>
       </c>
       <c r="H21" t="n">
-        <v>631.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>623</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1216,36 +1253,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="C22" t="n">
-        <v>662</v>
+        <v>621</v>
       </c>
       <c r="D22" t="n">
-        <v>662</v>
+        <v>631</v>
       </c>
       <c r="E22" t="n">
-        <v>657</v>
+        <v>621</v>
       </c>
       <c r="F22" t="n">
-        <v>3828.8718</v>
+        <v>1150.9087</v>
       </c>
       <c r="G22" t="n">
-        <v>650.2666666666667</v>
+        <v>25192.00049999999</v>
       </c>
       <c r="H22" t="n">
-        <v>632.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>623</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1254,36 +1294,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="C23" t="n">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="D23" t="n">
-        <v>677</v>
+        <v>635</v>
       </c>
       <c r="E23" t="n">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="F23" t="n">
-        <v>9797.9185</v>
+        <v>343.6212</v>
       </c>
       <c r="G23" t="n">
-        <v>651.9333333333333</v>
+        <v>25535.6217</v>
       </c>
       <c r="H23" t="n">
-        <v>632.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>623</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1292,36 +1335,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="C24" t="n">
-        <v>676</v>
+        <v>635</v>
       </c>
       <c r="D24" t="n">
-        <v>676</v>
+        <v>635</v>
       </c>
       <c r="E24" t="n">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="F24" t="n">
-        <v>609</v>
+        <v>800.8203999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>654.2666666666667</v>
+        <v>25535.6217</v>
       </c>
       <c r="H24" t="n">
-        <v>633.9</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>623</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1330,36 +1376,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="C25" t="n">
-        <v>675</v>
+        <v>627</v>
       </c>
       <c r="D25" t="n">
-        <v>677</v>
+        <v>627</v>
       </c>
       <c r="E25" t="n">
-        <v>666</v>
+        <v>627</v>
       </c>
       <c r="F25" t="n">
-        <v>6248.3066</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>656.2</v>
+        <v>25505.6217</v>
       </c>
       <c r="H25" t="n">
-        <v>634.75</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>623</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1368,36 +1417,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="C26" t="n">
-        <v>676</v>
+        <v>627</v>
       </c>
       <c r="D26" t="n">
-        <v>676</v>
+        <v>627</v>
       </c>
       <c r="E26" t="n">
-        <v>666</v>
+        <v>627</v>
       </c>
       <c r="F26" t="n">
-        <v>1412.41873037</v>
+        <v>1.1939</v>
       </c>
       <c r="G26" t="n">
-        <v>658.2</v>
+        <v>25505.6217</v>
       </c>
       <c r="H26" t="n">
-        <v>635.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>623</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1406,36 +1458,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="C27" t="n">
-        <v>666</v>
+        <v>622</v>
       </c>
       <c r="D27" t="n">
-        <v>676</v>
+        <v>626</v>
       </c>
       <c r="E27" t="n">
-        <v>666</v>
+        <v>622</v>
       </c>
       <c r="F27" t="n">
-        <v>1705.0221</v>
+        <v>1737.3368</v>
       </c>
       <c r="G27" t="n">
-        <v>659.6</v>
+        <v>23768.2849</v>
       </c>
       <c r="H27" t="n">
-        <v>636.45</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>623</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,36 +1499,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>673</v>
+        <v>621</v>
       </c>
       <c r="C28" t="n">
-        <v>657</v>
+        <v>621</v>
       </c>
       <c r="D28" t="n">
-        <v>673</v>
+        <v>621</v>
       </c>
       <c r="E28" t="n">
-        <v>657</v>
+        <v>621</v>
       </c>
       <c r="F28" t="n">
-        <v>4720.144</v>
+        <v>604.1217</v>
       </c>
       <c r="G28" t="n">
-        <v>660.1333333333333</v>
+        <v>23164.1632</v>
       </c>
       <c r="H28" t="n">
-        <v>636.9</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>623</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,36 +1540,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="C29" t="n">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="D29" t="n">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="E29" t="n">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="F29" t="n">
-        <v>92</v>
+        <v>2988.7467</v>
       </c>
       <c r="G29" t="n">
-        <v>660.4666666666667</v>
+        <v>26152.9099</v>
       </c>
       <c r="H29" t="n">
-        <v>637.4666666666667</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+        <v>621</v>
+      </c>
+      <c r="K29" t="n">
+        <v>623</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1520,36 +1583,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>669</v>
+        <v>622</v>
       </c>
       <c r="C30" t="n">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="D30" t="n">
-        <v>671</v>
+        <v>622</v>
       </c>
       <c r="E30" t="n">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="F30" t="n">
-        <v>2308.589</v>
+        <v>326.2148</v>
       </c>
       <c r="G30" t="n">
-        <v>659.5333333333333</v>
+        <v>25826.69509999999</v>
       </c>
       <c r="H30" t="n">
-        <v>637.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>623</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1558,36 +1624,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>656</v>
+        <v>627</v>
       </c>
       <c r="C31" t="n">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="D31" t="n">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="E31" t="n">
-        <v>656</v>
+        <v>627</v>
       </c>
       <c r="F31" t="n">
-        <v>111.47233515</v>
+        <v>41.0419</v>
       </c>
       <c r="G31" t="n">
-        <v>660.6666666666666</v>
+        <v>25867.73699999999</v>
       </c>
       <c r="H31" t="n">
-        <v>638.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>623</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1596,36 +1665,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="C32" t="n">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="D32" t="n">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="E32" t="n">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="F32" t="n">
-        <v>141</v>
+        <v>364.4399</v>
       </c>
       <c r="G32" t="n">
-        <v>660.4666666666667</v>
+        <v>26232.17689999999</v>
       </c>
       <c r="H32" t="n">
-        <v>638.9</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>623</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1634,36 +1706,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="C33" t="n">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="D33" t="n">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="E33" t="n">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="F33" t="n">
-        <v>3171.8484</v>
+        <v>436.295</v>
       </c>
       <c r="G33" t="n">
-        <v>660.1333333333333</v>
+        <v>26668.47189999999</v>
       </c>
       <c r="H33" t="n">
-        <v>639.25</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>623</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1672,36 +1747,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C34" t="n">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="D34" t="n">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="E34" t="n">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F34" t="n">
-        <v>444</v>
+        <v>651.0411</v>
       </c>
       <c r="G34" t="n">
-        <v>659.5333333333333</v>
+        <v>26668.47189999999</v>
       </c>
       <c r="H34" t="n">
-        <v>639.6</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>623</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1710,36 +1788,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C35" t="n">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="D35" t="n">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="E35" t="n">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="F35" t="n">
-        <v>3183.612</v>
+        <v>7127.1943</v>
       </c>
       <c r="G35" t="n">
-        <v>659.3333333333334</v>
+        <v>33795.66619999999</v>
       </c>
       <c r="H35" t="n">
-        <v>640.0833333333334</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>623</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1748,36 +1829,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="C36" t="n">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="D36" t="n">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="E36" t="n">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="F36" t="n">
-        <v>6</v>
+        <v>410.2186</v>
       </c>
       <c r="G36" t="n">
-        <v>659.2666666666667</v>
+        <v>34205.88479999999</v>
       </c>
       <c r="H36" t="n">
-        <v>640.65</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>623</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1786,36 +1870,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="C37" t="n">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="D37" t="n">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="E37" t="n">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="F37" t="n">
-        <v>1316.5298</v>
+        <v>80</v>
       </c>
       <c r="G37" t="n">
-        <v>659.6666666666666</v>
+        <v>34285.88479999999</v>
       </c>
       <c r="H37" t="n">
-        <v>641.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>623</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1824,36 +1911,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C38" t="n">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D38" t="n">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E38" t="n">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F38" t="n">
-        <v>223.004</v>
+        <v>131.1755</v>
       </c>
       <c r="G38" t="n">
-        <v>658.5333333333333</v>
+        <v>34285.88479999999</v>
       </c>
       <c r="H38" t="n">
-        <v>641.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>623</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1862,36 +1952,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="C39" t="n">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="D39" t="n">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="E39" t="n">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F39" t="n">
-        <v>5644.484</v>
+        <v>40</v>
       </c>
       <c r="G39" t="n">
-        <v>657.6666666666666</v>
+        <v>34325.88479999999</v>
       </c>
       <c r="H39" t="n">
-        <v>642.4</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>623</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1900,36 +1993,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C40" t="n">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="D40" t="n">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="E40" t="n">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="F40" t="n">
-        <v>332.9242</v>
+        <v>189</v>
       </c>
       <c r="G40" t="n">
-        <v>656.7333333333333</v>
+        <v>34325.88479999999</v>
       </c>
       <c r="H40" t="n">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>623</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,36 +2034,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C41" t="n">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="D41" t="n">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="E41" t="n">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F41" t="n">
-        <v>223</v>
+        <v>2077.6429</v>
       </c>
       <c r="G41" t="n">
-        <v>655.6</v>
+        <v>32248.24189999999</v>
       </c>
       <c r="H41" t="n">
-        <v>643.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>623</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1976,36 +2075,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C42" t="n">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D42" t="n">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="E42" t="n">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F42" t="n">
-        <v>1267.8421</v>
+        <v>3002.8582</v>
       </c>
       <c r="G42" t="n">
-        <v>654.6666666666666</v>
+        <v>35251.1001</v>
       </c>
       <c r="H42" t="n">
-        <v>644.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>623</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2014,36 +2116,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C43" t="n">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="D43" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E43" t="n">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="F43" t="n">
-        <v>18124.4248</v>
+        <v>1598.9999</v>
       </c>
       <c r="G43" t="n">
-        <v>653.8</v>
+        <v>36850.1</v>
       </c>
       <c r="H43" t="n">
-        <v>644.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>623</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2052,36 +2157,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="C44" t="n">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="D44" t="n">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="E44" t="n">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F44" t="n">
-        <v>691.5916999999999</v>
+        <v>9968.6764513</v>
       </c>
       <c r="G44" t="n">
-        <v>652.8666666666667</v>
+        <v>46818.7764513</v>
       </c>
       <c r="H44" t="n">
-        <v>644.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>623</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2090,36 +2198,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="C45" t="n">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D45" t="n">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="E45" t="n">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F45" t="n">
-        <v>871.5042999999999</v>
+        <v>711.4045</v>
       </c>
       <c r="G45" t="n">
-        <v>652.2666666666667</v>
+        <v>46107.3719513</v>
       </c>
       <c r="H45" t="n">
-        <v>645.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>623</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,36 +2239,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="C46" t="n">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="D46" t="n">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="E46" t="n">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="F46" t="n">
-        <v>337.7435</v>
+        <v>2937.969</v>
       </c>
       <c r="G46" t="n">
-        <v>650.9333333333333</v>
+        <v>49045.3409513</v>
       </c>
       <c r="H46" t="n">
-        <v>645.2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>623</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2166,36 +2280,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="C47" t="n">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="D47" t="n">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="E47" t="n">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="F47" t="n">
-        <v>620.215</v>
+        <v>299.25</v>
       </c>
       <c r="G47" t="n">
-        <v>650.2666666666667</v>
+        <v>49045.3409513</v>
       </c>
       <c r="H47" t="n">
-        <v>645.4</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>623</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2204,36 +2321,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="C48" t="n">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="D48" t="n">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="E48" t="n">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="F48" t="n">
-        <v>3.5515625</v>
+        <v>343.2903</v>
       </c>
       <c r="G48" t="n">
-        <v>650</v>
+        <v>49388.6312513</v>
       </c>
       <c r="H48" t="n">
-        <v>645.5833333333334</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>623</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2242,36 +2362,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="C49" t="n">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="D49" t="n">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="E49" t="n">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="F49" t="n">
-        <v>126.6781</v>
+        <v>605.7547</v>
       </c>
       <c r="G49" t="n">
-        <v>649.7333333333333</v>
+        <v>49994.3859513</v>
       </c>
       <c r="H49" t="n">
-        <v>645.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>623</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2280,36 +2403,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="C50" t="n">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="D50" t="n">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="E50" t="n">
-        <v>634</v>
+        <v>655</v>
       </c>
       <c r="F50" t="n">
-        <v>6670.8105</v>
+        <v>5408.0325</v>
       </c>
       <c r="G50" t="n">
-        <v>648.5333333333333</v>
+        <v>55402.4184513</v>
       </c>
       <c r="H50" t="n">
-        <v>645.7</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>623</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2318,36 +2444,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="C51" t="n">
-        <v>630</v>
+        <v>662</v>
       </c>
       <c r="D51" t="n">
-        <v>630</v>
+        <v>662</v>
       </c>
       <c r="E51" t="n">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="F51" t="n">
-        <v>144.9105</v>
+        <v>3828.8718</v>
       </c>
       <c r="G51" t="n">
-        <v>646.7333333333333</v>
+        <v>59231.2902513</v>
       </c>
       <c r="H51" t="n">
-        <v>645.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>623</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,36 +2485,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>631</v>
+        <v>662</v>
       </c>
       <c r="C52" t="n">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="D52" t="n">
-        <v>631</v>
+        <v>677</v>
       </c>
       <c r="E52" t="n">
-        <v>630</v>
+        <v>662</v>
       </c>
       <c r="F52" t="n">
-        <v>762.8625</v>
+        <v>9797.9185</v>
       </c>
       <c r="G52" t="n">
-        <v>644.2</v>
+        <v>69029.2087513</v>
       </c>
       <c r="H52" t="n">
-        <v>645.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>623</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2394,37 +2526,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="C53" t="n">
-        <v>630</v>
+        <v>676</v>
       </c>
       <c r="D53" t="n">
-        <v>630</v>
+        <v>676</v>
       </c>
       <c r="E53" t="n">
-        <v>630</v>
+        <v>665</v>
       </c>
       <c r="F53" t="n">
-        <v>489.2892</v>
+        <v>609</v>
       </c>
       <c r="G53" t="n">
-        <v>642.9333333333333</v>
+        <v>69638.2087513</v>
       </c>
       <c r="H53" t="n">
-        <v>645.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>623</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>1.080072231139647</v>
       </c>
     </row>
     <row r="54">
@@ -2432,36 +2567,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>630</v>
+        <v>667</v>
       </c>
       <c r="C54" t="n">
-        <v>631</v>
+        <v>675</v>
       </c>
       <c r="D54" t="n">
-        <v>631</v>
+        <v>677</v>
       </c>
       <c r="E54" t="n">
-        <v>625</v>
+        <v>666</v>
       </c>
       <c r="F54" t="n">
-        <v>327.8942</v>
+        <v>6248.3066</v>
       </c>
       <c r="G54" t="n">
-        <v>640.8</v>
+        <v>63389.9021513</v>
       </c>
       <c r="H54" t="n">
-        <v>645.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2470,36 +2602,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>630</v>
+        <v>667</v>
       </c>
       <c r="C55" t="n">
-        <v>630</v>
+        <v>676</v>
       </c>
       <c r="D55" t="n">
-        <v>630</v>
+        <v>676</v>
       </c>
       <c r="E55" t="n">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="F55" t="n">
-        <v>546.4</v>
+        <v>1412.41873037</v>
       </c>
       <c r="G55" t="n">
-        <v>638.7333333333333</v>
+        <v>64802.32088167001</v>
       </c>
       <c r="H55" t="n">
-        <v>645.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2508,36 +2637,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>631</v>
+        <v>667</v>
       </c>
       <c r="C56" t="n">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="D56" t="n">
-        <v>631</v>
+        <v>676</v>
       </c>
       <c r="E56" t="n">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="F56" t="n">
-        <v>352</v>
+        <v>1705.0221</v>
       </c>
       <c r="G56" t="n">
-        <v>636.8666666666667</v>
+        <v>63097.29878167</v>
       </c>
       <c r="H56" t="n">
-        <v>645.6</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2546,36 +2672,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>630</v>
+        <v>673</v>
       </c>
       <c r="C57" t="n">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="D57" t="n">
-        <v>630</v>
+        <v>673</v>
       </c>
       <c r="E57" t="n">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="F57" t="n">
-        <v>397.8578</v>
+        <v>4720.144</v>
       </c>
       <c r="G57" t="n">
-        <v>635.4</v>
+        <v>58377.15478167</v>
       </c>
       <c r="H57" t="n">
-        <v>645.65</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2584,36 +2707,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="C58" t="n">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="D58" t="n">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="E58" t="n">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="F58" t="n">
-        <v>306.3767</v>
+        <v>92</v>
       </c>
       <c r="G58" t="n">
-        <v>634.4666666666667</v>
+        <v>58285.15478167</v>
       </c>
       <c r="H58" t="n">
-        <v>645.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2622,36 +2742,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>630</v>
+        <v>669</v>
       </c>
       <c r="C59" t="n">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="D59" t="n">
-        <v>630</v>
+        <v>671</v>
       </c>
       <c r="E59" t="n">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="F59" t="n">
-        <v>97.2</v>
+        <v>2308.589</v>
       </c>
       <c r="G59" t="n">
-        <v>633.6666666666666</v>
+        <v>55976.56578167</v>
       </c>
       <c r="H59" t="n">
-        <v>645.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2660,36 +2777,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="C60" t="n">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="D60" t="n">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="E60" t="n">
-        <v>628</v>
+        <v>656</v>
       </c>
       <c r="F60" t="n">
-        <v>4265</v>
+        <v>111.47233515</v>
       </c>
       <c r="G60" t="n">
-        <v>632.4666666666667</v>
+        <v>56088.03811682</v>
       </c>
       <c r="H60" t="n">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2698,36 +2812,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="C61" t="n">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="D61" t="n">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="E61" t="n">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="G61" t="n">
-        <v>632</v>
+        <v>55947.03811682</v>
       </c>
       <c r="H61" t="n">
-        <v>646.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2736,36 +2847,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="C62" t="n">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="D62" t="n">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="E62" t="n">
-        <v>623</v>
+        <v>644</v>
       </c>
       <c r="F62" t="n">
-        <v>221.2716</v>
+        <v>3171.8484</v>
       </c>
       <c r="G62" t="n">
-        <v>631.6666666666666</v>
+        <v>52775.18971682</v>
       </c>
       <c r="H62" t="n">
-        <v>646.2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,36 +2882,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="C63" t="n">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="D63" t="n">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="E63" t="n">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="F63" t="n">
-        <v>658.7659</v>
+        <v>444</v>
       </c>
       <c r="G63" t="n">
-        <v>630.7333333333333</v>
+        <v>52775.18971682</v>
       </c>
       <c r="H63" t="n">
-        <v>646.1666666666666</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2812,36 +2917,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="C64" t="n">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="D64" t="n">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="E64" t="n">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="F64" t="n">
-        <v>271.2003</v>
+        <v>3183.612</v>
       </c>
       <c r="G64" t="n">
-        <v>629.8666666666667</v>
+        <v>55958.80171682</v>
       </c>
       <c r="H64" t="n">
-        <v>646.0833333333334</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2850,36 +2952,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="C65" t="n">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="D65" t="n">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="E65" t="n">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="F65" t="n">
-        <v>346.3633</v>
+        <v>6</v>
       </c>
       <c r="G65" t="n">
-        <v>629.4</v>
+        <v>55964.80171682</v>
       </c>
       <c r="H65" t="n">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2888,36 +2987,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="C66" t="n">
-        <v>627</v>
+        <v>668</v>
       </c>
       <c r="D66" t="n">
-        <v>627</v>
+        <v>668</v>
       </c>
       <c r="E66" t="n">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="F66" t="n">
-        <v>344.3934</v>
+        <v>1316.5298</v>
       </c>
       <c r="G66" t="n">
-        <v>629.2</v>
+        <v>57281.33151682</v>
       </c>
       <c r="H66" t="n">
-        <v>645.9</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,36 +3022,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="C67" t="n">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="D67" t="n">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="E67" t="n">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="F67" t="n">
-        <v>30</v>
+        <v>223.004</v>
       </c>
       <c r="G67" t="n">
-        <v>629.2</v>
+        <v>57058.32751682</v>
       </c>
       <c r="H67" t="n">
-        <v>645.8333333333334</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2964,36 +3057,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="C68" t="n">
-        <v>631</v>
+        <v>663</v>
       </c>
       <c r="D68" t="n">
-        <v>631</v>
+        <v>663</v>
       </c>
       <c r="E68" t="n">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="F68" t="n">
-        <v>7791.7284</v>
+        <v>5644.484</v>
       </c>
       <c r="G68" t="n">
-        <v>629.2666666666667</v>
+        <v>62702.81151682</v>
       </c>
       <c r="H68" t="n">
-        <v>645.6666666666666</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,36 +3092,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="C69" t="n">
-        <v>630</v>
+        <v>661</v>
       </c>
       <c r="D69" t="n">
-        <v>630</v>
+        <v>662</v>
       </c>
       <c r="E69" t="n">
-        <v>630</v>
+        <v>652</v>
       </c>
       <c r="F69" t="n">
-        <v>1024</v>
+        <v>332.9242</v>
       </c>
       <c r="G69" t="n">
-        <v>629.2</v>
+        <v>62369.88731682</v>
       </c>
       <c r="H69" t="n">
-        <v>645.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3040,36 +3127,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="C70" t="n">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="D70" t="n">
-        <v>630</v>
+        <v>659</v>
       </c>
       <c r="E70" t="n">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="F70" t="n">
-        <v>4</v>
+        <v>223</v>
       </c>
       <c r="G70" t="n">
-        <v>629.2</v>
+        <v>62146.88731682</v>
       </c>
       <c r="H70" t="n">
-        <v>645.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3078,36 +3162,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="C71" t="n">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="D71" t="n">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="E71" t="n">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="F71" t="n">
-        <v>276.2231</v>
+        <v>1267.8421</v>
       </c>
       <c r="G71" t="n">
-        <v>628.8</v>
+        <v>60879.04521682</v>
       </c>
       <c r="H71" t="n">
-        <v>644.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3116,36 +3197,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="C72" t="n">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="D72" t="n">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="E72" t="n">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="F72" t="n">
-        <v>315</v>
+        <v>18124.4248</v>
       </c>
       <c r="G72" t="n">
-        <v>628.8666666666667</v>
+        <v>42754.62041682</v>
       </c>
       <c r="H72" t="n">
-        <v>644.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3154,36 +3232,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="C73" t="n">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="D73" t="n">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="E73" t="n">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="F73" t="n">
-        <v>406.4377</v>
+        <v>691.5916999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>628.8666666666667</v>
+        <v>42063.02871682</v>
       </c>
       <c r="H73" t="n">
-        <v>644.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3192,36 +3267,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="C74" t="n">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="D74" t="n">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="E74" t="n">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="F74" t="n">
-        <v>2871.36</v>
+        <v>871.5042999999999</v>
       </c>
       <c r="G74" t="n">
-        <v>628.8</v>
+        <v>42934.53301682</v>
       </c>
       <c r="H74" t="n">
-        <v>643.95</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,36 +3302,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="C75" t="n">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="D75" t="n">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="E75" t="n">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="F75" t="n">
-        <v>749.1107</v>
+        <v>337.7435</v>
       </c>
       <c r="G75" t="n">
-        <v>628.8</v>
+        <v>42596.78951682</v>
       </c>
       <c r="H75" t="n">
-        <v>643.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,36 +3337,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="C76" t="n">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="D76" t="n">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="E76" t="n">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="F76" t="n">
-        <v>1690.0218</v>
+        <v>620.215</v>
       </c>
       <c r="G76" t="n">
-        <v>628.1333333333333</v>
+        <v>41976.57451682001</v>
       </c>
       <c r="H76" t="n">
-        <v>642.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3306,36 +3372,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="C77" t="n">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="D77" t="n">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="E77" t="n">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="F77" t="n">
-        <v>8.365</v>
+        <v>3.5515625</v>
       </c>
       <c r="G77" t="n">
-        <v>627.6666666666666</v>
+        <v>41980.12607932001</v>
       </c>
       <c r="H77" t="n">
-        <v>642.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3344,36 +3407,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="C78" t="n">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="D78" t="n">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="E78" t="n">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="F78" t="n">
-        <v>156</v>
+        <v>126.6781</v>
       </c>
       <c r="G78" t="n">
-        <v>627.8666666666667</v>
+        <v>41980.12607932001</v>
       </c>
       <c r="H78" t="n">
-        <v>642.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3382,36 +3442,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="C79" t="n">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="D79" t="n">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="E79" t="n">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="F79" t="n">
-        <v>281.0104</v>
+        <v>6670.8105</v>
       </c>
       <c r="G79" t="n">
-        <v>627.4666666666667</v>
+        <v>35309.31557932001</v>
       </c>
       <c r="H79" t="n">
-        <v>641.65</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3420,36 +3477,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="C80" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="D80" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="E80" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="F80" t="n">
-        <v>11.105</v>
+        <v>144.9105</v>
       </c>
       <c r="G80" t="n">
-        <v>627.0666666666667</v>
+        <v>35164.40507932001</v>
       </c>
       <c r="H80" t="n">
-        <v>641.0833333333334</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,36 +3512,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C81" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D81" t="n">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="E81" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>762.8625</v>
       </c>
       <c r="G81" t="n">
-        <v>627.1333333333333</v>
+        <v>35164.40507932001</v>
       </c>
       <c r="H81" t="n">
-        <v>640.5833333333334</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3496,36 +3547,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="C82" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="D82" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="E82" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="F82" t="n">
-        <v>52.8425</v>
+        <v>489.2892</v>
       </c>
       <c r="G82" t="n">
-        <v>626.6666666666666</v>
+        <v>35164.40507932001</v>
       </c>
       <c r="H82" t="n">
-        <v>639.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3534,36 +3582,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="C83" t="n">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="D83" t="n">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="E83" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F83" t="n">
-        <v>257.9528</v>
+        <v>327.8942</v>
       </c>
       <c r="G83" t="n">
-        <v>626</v>
+        <v>35492.29927932001</v>
       </c>
       <c r="H83" t="n">
-        <v>639.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3572,36 +3617,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C84" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D84" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E84" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>546.4</v>
       </c>
       <c r="G84" t="n">
-        <v>625.6666666666666</v>
+        <v>34945.89927932001</v>
       </c>
       <c r="H84" t="n">
-        <v>638.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,42 +3652,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="C85" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D85" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E85" t="n">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="F85" t="n">
-        <v>1667</v>
+        <v>352</v>
       </c>
       <c r="G85" t="n">
-        <v>625.6</v>
+        <v>35297.89927932001</v>
       </c>
       <c r="H85" t="n">
-        <v>637.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3654,7 +3687,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C86" t="n">
         <v>630</v>
@@ -3663,31 +3696,24 @@
         <v>630</v>
       </c>
       <c r="E86" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F86" t="n">
-        <v>105</v>
+        <v>397.8578</v>
       </c>
       <c r="G86" t="n">
-        <v>625.9333333333333</v>
+        <v>34900.04147932001</v>
       </c>
       <c r="H86" t="n">
-        <v>636.8</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3696,42 +3722,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C87" t="n">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="D87" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E87" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="F87" t="n">
-        <v>137.0987</v>
+        <v>306.3767</v>
       </c>
       <c r="G87" t="n">
-        <v>625.3333333333334</v>
+        <v>34900.04147932001</v>
       </c>
       <c r="H87" t="n">
-        <v>636.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3740,40 +3757,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C88" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D88" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E88" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>97.2</v>
       </c>
       <c r="G88" t="n">
-        <v>625.2</v>
+        <v>34900.04147932001</v>
       </c>
       <c r="H88" t="n">
-        <v>635.5833333333334</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,40 +3792,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C89" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="D89" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="E89" t="n">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="F89" t="n">
-        <v>198.1202</v>
+        <v>4265</v>
       </c>
       <c r="G89" t="n">
-        <v>624.8</v>
+        <v>30635.04147932001</v>
       </c>
       <c r="H89" t="n">
-        <v>635.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,40 +3827,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="C90" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="D90" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="E90" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>624.4666666666667</v>
+        <v>30636.04147932001</v>
       </c>
       <c r="H90" t="n">
-        <v>634.5</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3866,40 +3862,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C91" t="n">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="D91" t="n">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="E91" t="n">
         <v>623</v>
       </c>
       <c r="F91" t="n">
-        <v>49.2238</v>
+        <v>221.2716</v>
       </c>
       <c r="G91" t="n">
-        <v>624.6666666666666</v>
+        <v>30857.31307932001</v>
       </c>
       <c r="H91" t="n">
-        <v>633.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3908,40 +3897,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C92" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D92" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E92" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F92" t="n">
-        <v>2636.5544</v>
+        <v>658.7659</v>
       </c>
       <c r="G92" t="n">
-        <v>624.6666666666666</v>
+        <v>30198.54717932001</v>
       </c>
       <c r="H92" t="n">
-        <v>633.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3950,40 +3932,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C93" t="n">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D93" t="n">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="E93" t="n">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="F93" t="n">
-        <v>695.5869</v>
+        <v>271.2003</v>
       </c>
       <c r="G93" t="n">
-        <v>624.1333333333333</v>
+        <v>30469.74747932001</v>
       </c>
       <c r="H93" t="n">
-        <v>633.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3992,40 +3967,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C94" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D94" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="E94" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F94" t="n">
-        <v>3724.6746</v>
+        <v>346.3633</v>
       </c>
       <c r="G94" t="n">
-        <v>624.3333333333334</v>
+        <v>30469.74747932001</v>
       </c>
       <c r="H94" t="n">
-        <v>632.85</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,40 +4002,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C95" t="n">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D95" t="n">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="E95" t="n">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="F95" t="n">
-        <v>3.4156</v>
+        <v>344.3934</v>
       </c>
       <c r="G95" t="n">
-        <v>624.3333333333334</v>
+        <v>30469.74747932001</v>
       </c>
       <c r="H95" t="n">
-        <v>632.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4076,40 +4037,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C96" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="D96" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="E96" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="F96" t="n">
-        <v>2236.0644</v>
+        <v>30</v>
       </c>
       <c r="G96" t="n">
-        <v>624.0666666666667</v>
+        <v>30499.74747932001</v>
       </c>
       <c r="H96" t="n">
-        <v>631.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4118,40 +4072,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="C97" t="n">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="D97" t="n">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="E97" t="n">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="F97" t="n">
-        <v>502.5578</v>
+        <v>7791.7284</v>
       </c>
       <c r="G97" t="n">
-        <v>624.1333333333333</v>
+        <v>38291.47587932002</v>
       </c>
       <c r="H97" t="n">
-        <v>631.05</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4160,40 +4107,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C98" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="D98" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E98" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="F98" t="n">
-        <v>341.681</v>
+        <v>1024</v>
       </c>
       <c r="G98" t="n">
-        <v>624.4</v>
+        <v>37267.47587932002</v>
       </c>
       <c r="H98" t="n">
-        <v>630.65</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4202,40 +4142,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C99" t="n">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D99" t="n">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E99" t="n">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="F99" t="n">
-        <v>562.3778</v>
+        <v>4</v>
       </c>
       <c r="G99" t="n">
-        <v>624.5333333333333</v>
+        <v>37267.47587932002</v>
       </c>
       <c r="H99" t="n">
-        <v>630.05</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,40 +4177,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C100" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D100" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E100" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F100" t="n">
-        <v>3444.5831</v>
+        <v>276.2231</v>
       </c>
       <c r="G100" t="n">
-        <v>624.4</v>
+        <v>36991.25277932001</v>
       </c>
       <c r="H100" t="n">
-        <v>629.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4286,40 +4212,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="C101" t="n">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="D101" t="n">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="E101" t="n">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="F101" t="n">
-        <v>386.4392</v>
+        <v>315</v>
       </c>
       <c r="G101" t="n">
-        <v>623.9333333333333</v>
+        <v>37306.25277932001</v>
       </c>
       <c r="H101" t="n">
-        <v>628.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4328,40 +4247,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="C102" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="D102" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="E102" t="n">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="F102" t="n">
-        <v>2204.758</v>
+        <v>406.4377</v>
       </c>
       <c r="G102" t="n">
-        <v>623.8666666666667</v>
+        <v>36899.81507932001</v>
       </c>
       <c r="H102" t="n">
-        <v>628.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4370,40 +4282,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C103" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D103" t="n">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="E103" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F103" t="n">
-        <v>1685</v>
+        <v>2871.36</v>
       </c>
       <c r="G103" t="n">
-        <v>623.4</v>
+        <v>34028.45507932001</v>
       </c>
       <c r="H103" t="n">
-        <v>627.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4412,40 +4317,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="C104" t="n">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="D104" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="E104" t="n">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="F104" t="n">
-        <v>689</v>
+        <v>749.1107</v>
       </c>
       <c r="G104" t="n">
-        <v>623.2666666666667</v>
+        <v>33279.34437932001</v>
       </c>
       <c r="H104" t="n">
-        <v>627.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,40 +4352,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C105" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D105" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E105" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F105" t="n">
-        <v>1667</v>
+        <v>1690.0218</v>
       </c>
       <c r="G105" t="n">
-        <v>623.1333333333333</v>
+        <v>31589.32257932001</v>
       </c>
       <c r="H105" t="n">
-        <v>627.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4496,40 +4387,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C106" t="n">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D106" t="n">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E106" t="n">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F106" t="n">
-        <v>3.5399</v>
+        <v>8.365</v>
       </c>
       <c r="G106" t="n">
-        <v>623.3333333333334</v>
+        <v>31597.68757932002</v>
       </c>
       <c r="H106" t="n">
-        <v>627.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4538,40 +4422,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C107" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D107" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="E107" t="n">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="G107" t="n">
-        <v>623.4</v>
+        <v>31753.68757932002</v>
       </c>
       <c r="H107" t="n">
-        <v>626.85</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,40 +4457,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C108" t="n">
         <v>621</v>
       </c>
       <c r="D108" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E108" t="n">
         <v>621</v>
       </c>
       <c r="F108" t="n">
-        <v>3878.6851</v>
+        <v>281.0104</v>
       </c>
       <c r="G108" t="n">
-        <v>623.4</v>
+        <v>31472.67717932002</v>
       </c>
       <c r="H108" t="n">
-        <v>626.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4634,28 +4504,21 @@
         <v>621</v>
       </c>
       <c r="F109" t="n">
-        <v>60.2668</v>
+        <v>11.105</v>
       </c>
       <c r="G109" t="n">
-        <v>623.2</v>
+        <v>31472.67717932002</v>
       </c>
       <c r="H109" t="n">
-        <v>626.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,40 +4527,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C110" t="n">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="D110" t="n">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="E110" t="n">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="F110" t="n">
-        <v>4300.0277</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>623.1333333333333</v>
+        <v>31473.67717932002</v>
       </c>
       <c r="H110" t="n">
-        <v>625.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4706,40 +4562,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C111" t="n">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D111" t="n">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="E111" t="n">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="F111" t="n">
-        <v>76.2787</v>
+        <v>52.8425</v>
       </c>
       <c r="G111" t="n">
-        <v>622.8666666666667</v>
+        <v>31420.83467932002</v>
       </c>
       <c r="H111" t="n">
-        <v>625.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4748,40 +4597,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="C112" t="n">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="D112" t="n">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="E112" t="n">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="F112" t="n">
-        <v>1736.0278</v>
+        <v>257.9528</v>
       </c>
       <c r="G112" t="n">
-        <v>621.9333333333333</v>
+        <v>31162.88187932002</v>
       </c>
       <c r="H112" t="n">
-        <v>625.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4790,40 +4632,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C113" t="n">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D113" t="n">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="E113" t="n">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="F113" t="n">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>621.5333333333333</v>
+        <v>31163.88187932002</v>
       </c>
       <c r="H113" t="n">
-        <v>625.3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4832,40 +4667,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="C114" t="n">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D114" t="n">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="E114" t="n">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>1667</v>
       </c>
       <c r="G114" t="n">
-        <v>620.8666666666667</v>
+        <v>32830.88187932002</v>
       </c>
       <c r="H114" t="n">
-        <v>625.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,40 +4702,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="C115" t="n">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="D115" t="n">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="E115" t="n">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="F115" t="n">
-        <v>93.3742</v>
+        <v>105</v>
       </c>
       <c r="G115" t="n">
-        <v>620</v>
+        <v>32935.88187932002</v>
       </c>
       <c r="H115" t="n">
-        <v>624.8</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4916,40 +4737,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="C116" t="n">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="D116" t="n">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="E116" t="n">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="F116" t="n">
-        <v>1065.8345</v>
+        <v>137.0987</v>
       </c>
       <c r="G116" t="n">
-        <v>619.4</v>
+        <v>32798.78317932002</v>
       </c>
       <c r="H116" t="n">
-        <v>624.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4958,40 +4772,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="C117" t="n">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="D117" t="n">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="E117" t="n">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="F117" t="n">
-        <v>3697.8045</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>619.1333333333333</v>
+        <v>32799.78317932002</v>
       </c>
       <c r="H117" t="n">
-        <v>624.3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5000,40 +4807,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="C118" t="n">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="D118" t="n">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="E118" t="n">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="F118" t="n">
-        <v>2000</v>
+        <v>198.1202</v>
       </c>
       <c r="G118" t="n">
-        <v>618.4</v>
+        <v>32601.66297932002</v>
       </c>
       <c r="H118" t="n">
-        <v>623.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5042,40 +4842,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C119" t="n">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="D119" t="n">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="E119" t="n">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="F119" t="n">
-        <v>98.1354</v>
+        <v>0.0001</v>
       </c>
       <c r="G119" t="n">
-        <v>618.2</v>
+        <v>32601.66297932002</v>
       </c>
       <c r="H119" t="n">
-        <v>623.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,40 +4877,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="C120" t="n">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D120" t="n">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="E120" t="n">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>49.2238</v>
       </c>
       <c r="G120" t="n">
-        <v>618.1333333333333</v>
+        <v>32601.66297932002</v>
       </c>
       <c r="H120" t="n">
-        <v>623.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5126,40 +4912,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C121" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D121" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E121" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>2636.5544</v>
       </c>
       <c r="G121" t="n">
-        <v>617.8666666666667</v>
+        <v>35238.21737932001</v>
       </c>
       <c r="H121" t="n">
-        <v>623.5</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5171,37 +4950,30 @@
         <v>622</v>
       </c>
       <c r="C122" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D122" t="n">
         <v>622</v>
       </c>
       <c r="E122" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F122" t="n">
-        <v>3.3279</v>
+        <v>695.5869</v>
       </c>
       <c r="G122" t="n">
-        <v>617.6666666666666</v>
+        <v>34542.63047932001</v>
       </c>
       <c r="H122" t="n">
-        <v>623.35</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5210,40 +4982,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C123" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D123" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E123" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F123" t="n">
-        <v>25.6721</v>
+        <v>3724.6746</v>
       </c>
       <c r="G123" t="n">
-        <v>617.7333333333333</v>
+        <v>38267.30507932001</v>
       </c>
       <c r="H123" t="n">
-        <v>623.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5252,40 +5017,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C124" t="n">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="D124" t="n">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="E124" t="n">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F124" t="n">
-        <v>69.9999</v>
+        <v>3.4156</v>
       </c>
       <c r="G124" t="n">
-        <v>618.2666666666667</v>
+        <v>38263.88947932001</v>
       </c>
       <c r="H124" t="n">
-        <v>623.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,40 +5052,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C125" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D125" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E125" t="n">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F125" t="n">
-        <v>320.9999</v>
+        <v>2236.0644</v>
       </c>
       <c r="G125" t="n">
-        <v>618.8666666666667</v>
+        <v>40499.95387932001</v>
       </c>
       <c r="H125" t="n">
-        <v>623.35</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5336,40 +5087,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C126" t="n">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="D126" t="n">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="E126" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F126" t="n">
-        <v>3175.7052</v>
+        <v>502.5578</v>
       </c>
       <c r="G126" t="n">
-        <v>619.6666666666666</v>
+        <v>40499.95387932001</v>
       </c>
       <c r="H126" t="n">
-        <v>623.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5378,40 +5122,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C127" t="n">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="D127" t="n">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E127" t="n">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F127" t="n">
-        <v>729.7616</v>
+        <v>341.681</v>
       </c>
       <c r="G127" t="n">
-        <v>621.1333333333333</v>
+        <v>40841.63487932001</v>
       </c>
       <c r="H127" t="n">
-        <v>623.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5420,40 +5157,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="C128" t="n">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="D128" t="n">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="E128" t="n">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F128" t="n">
-        <v>127</v>
+        <v>562.3778</v>
       </c>
       <c r="G128" t="n">
-        <v>622.6</v>
+        <v>41404.01267932001</v>
       </c>
       <c r="H128" t="n">
-        <v>623.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5462,40 +5192,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="C129" t="n">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="D129" t="n">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="E129" t="n">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="F129" t="n">
-        <v>19.9646</v>
+        <v>3444.5831</v>
       </c>
       <c r="G129" t="n">
-        <v>624.2</v>
+        <v>41404.01267932001</v>
       </c>
       <c r="H129" t="n">
-        <v>623.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,40 +5227,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="C130" t="n">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="D130" t="n">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="E130" t="n">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>386.4392</v>
       </c>
       <c r="G130" t="n">
-        <v>626.0666666666667</v>
+        <v>41017.57347932001</v>
       </c>
       <c r="H130" t="n">
-        <v>624.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5546,40 +5262,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="C131" t="n">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="D131" t="n">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="E131" t="n">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="F131" t="n">
-        <v>1827</v>
+        <v>2204.758</v>
       </c>
       <c r="G131" t="n">
-        <v>627.8666666666667</v>
+        <v>38812.81547932001</v>
       </c>
       <c r="H131" t="n">
-        <v>624.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5588,40 +5297,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="C132" t="n">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="D132" t="n">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="E132" t="n">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="F132" t="n">
-        <v>1047.2959</v>
+        <v>1685</v>
       </c>
       <c r="G132" t="n">
-        <v>629.4666666666667</v>
+        <v>38812.81547932001</v>
       </c>
       <c r="H132" t="n">
-        <v>624.45</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5630,40 +5332,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="C133" t="n">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="D133" t="n">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E133" t="n">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F133" t="n">
-        <v>2887.0249</v>
+        <v>689</v>
       </c>
       <c r="G133" t="n">
-        <v>630.8666666666667</v>
+        <v>38812.81547932001</v>
       </c>
       <c r="H133" t="n">
-        <v>624.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5672,40 +5367,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="C134" t="n">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="D134" t="n">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="E134" t="n">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>1667</v>
       </c>
       <c r="G134" t="n">
-        <v>632.2666666666667</v>
+        <v>38812.81547932001</v>
       </c>
       <c r="H134" t="n">
-        <v>624.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,40 +5402,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="C135" t="n">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="D135" t="n">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="E135" t="n">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="F135" t="n">
-        <v>199.0465</v>
+        <v>3.5399</v>
       </c>
       <c r="G135" t="n">
-        <v>633.5333333333333</v>
+        <v>38816.35537932001</v>
       </c>
       <c r="H135" t="n">
-        <v>624.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5756,40 +5437,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C136" t="n">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D136" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E136" t="n">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F136" t="n">
-        <v>265</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>633.9333333333333</v>
+        <v>38815.35537932001</v>
       </c>
       <c r="H136" t="n">
-        <v>624.95</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5798,40 +5472,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C137" t="n">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="D137" t="n">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="E137" t="n">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>3878.6851</v>
       </c>
       <c r="G137" t="n">
-        <v>634.4</v>
+        <v>34936.67027932001</v>
       </c>
       <c r="H137" t="n">
-        <v>625.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5840,40 +5507,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C138" t="n">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="D138" t="n">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="E138" t="n">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F138" t="n">
-        <v>120</v>
+        <v>60.2668</v>
       </c>
       <c r="G138" t="n">
-        <v>635.2666666666667</v>
+        <v>34936.67027932001</v>
       </c>
       <c r="H138" t="n">
-        <v>625.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5882,40 +5542,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="C139" t="n">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="D139" t="n">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="E139" t="n">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="F139" t="n">
-        <v>1179</v>
+        <v>4300.0277</v>
       </c>
       <c r="G139" t="n">
-        <v>635.6666666666666</v>
+        <v>30636.64257932001</v>
       </c>
       <c r="H139" t="n">
-        <v>625.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,40 +5577,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="C140" t="n">
-        <v>642</v>
+        <v>620</v>
       </c>
       <c r="D140" t="n">
-        <v>642</v>
+        <v>620</v>
       </c>
       <c r="E140" t="n">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="F140" t="n">
-        <v>2540.8836</v>
+        <v>76.2787</v>
       </c>
       <c r="G140" t="n">
-        <v>636.5333333333333</v>
+        <v>30636.64257932001</v>
       </c>
       <c r="H140" t="n">
-        <v>625.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5966,40 +5612,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>650</v>
+        <v>616</v>
       </c>
       <c r="C141" t="n">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="D141" t="n">
-        <v>650</v>
+        <v>616</v>
       </c>
       <c r="E141" t="n">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>1736.0278</v>
       </c>
       <c r="G141" t="n">
-        <v>637.7333333333333</v>
+        <v>28900.61477932001</v>
       </c>
       <c r="H141" t="n">
-        <v>626.0833333333334</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6008,40 +5647,33 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="C142" t="n">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="D142" t="n">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="E142" t="n">
-        <v>641</v>
+        <v>619</v>
       </c>
       <c r="F142" t="n">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="G142" t="n">
-        <v>638.3333333333334</v>
+        <v>29050.61477932001</v>
       </c>
       <c r="H142" t="n">
-        <v>626.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6050,40 +5682,33 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="C143" t="n">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="D143" t="n">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="E143" t="n">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>638.4</v>
+        <v>29049.61477932001</v>
       </c>
       <c r="H143" t="n">
-        <v>626.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6092,40 +5717,33 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>636</v>
+        <v>614</v>
       </c>
       <c r="C144" t="n">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="D144" t="n">
-        <v>636</v>
+        <v>614</v>
       </c>
       <c r="E144" t="n">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="F144" t="n">
-        <v>80</v>
+        <v>93.3742</v>
       </c>
       <c r="G144" t="n">
-        <v>637.5333333333333</v>
+        <v>28956.24057932001</v>
       </c>
       <c r="H144" t="n">
-        <v>626.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,40 +5752,33 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="C145" t="n">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="D145" t="n">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="E145" t="n">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="F145" t="n">
-        <v>116.4</v>
+        <v>1065.8345</v>
       </c>
       <c r="G145" t="n">
-        <v>636.9333333333333</v>
+        <v>28956.24057932001</v>
       </c>
       <c r="H145" t="n">
-        <v>626.85</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6176,40 +5787,1048 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>640</v>
+        <v>614</v>
       </c>
       <c r="C146" t="n">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="D146" t="n">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="E146" t="n">
-        <v>640</v>
+        <v>611</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>3697.8045</v>
       </c>
       <c r="G146" t="n">
-        <v>636.8666666666667</v>
+        <v>32654.04507932001</v>
       </c>
       <c r="H146" t="n">
-        <v>627.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>610</v>
+      </c>
+      <c r="C147" t="n">
+        <v>610</v>
+      </c>
+      <c r="D147" t="n">
+        <v>610</v>
+      </c>
+      <c r="E147" t="n">
+        <v>610</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>30654.04507932001</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>618</v>
+      </c>
+      <c r="C148" t="n">
+        <v>618</v>
+      </c>
+      <c r="D148" t="n">
+        <v>618</v>
+      </c>
+      <c r="E148" t="n">
+        <v>618</v>
+      </c>
+      <c r="F148" t="n">
+        <v>98.1354</v>
+      </c>
+      <c r="G148" t="n">
+        <v>30752.18047932001</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>618</v>
+      </c>
+      <c r="C149" t="n">
+        <v>620</v>
+      </c>
+      <c r="D149" t="n">
+        <v>620</v>
+      </c>
+      <c r="E149" t="n">
+        <v>618</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>30753.18047932001</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>622</v>
+      </c>
+      <c r="C150" t="n">
+        <v>622</v>
+      </c>
+      <c r="D150" t="n">
+        <v>622</v>
+      </c>
+      <c r="E150" t="n">
+        <v>622</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>30754.18047932001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>622</v>
+      </c>
+      <c r="C151" t="n">
+        <v>622</v>
+      </c>
+      <c r="D151" t="n">
+        <v>622</v>
+      </c>
+      <c r="E151" t="n">
+        <v>622</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3.3279</v>
+      </c>
+      <c r="G151" t="n">
+        <v>30754.18047932001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>622</v>
+      </c>
+      <c r="C152" t="n">
+        <v>622</v>
+      </c>
+      <c r="D152" t="n">
+        <v>622</v>
+      </c>
+      <c r="E152" t="n">
+        <v>622</v>
+      </c>
+      <c r="F152" t="n">
+        <v>25.6721</v>
+      </c>
+      <c r="G152" t="n">
+        <v>30754.18047932001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>629</v>
+      </c>
+      <c r="C153" t="n">
+        <v>629</v>
+      </c>
+      <c r="D153" t="n">
+        <v>629</v>
+      </c>
+      <c r="E153" t="n">
+        <v>629</v>
+      </c>
+      <c r="F153" t="n">
+        <v>69.9999</v>
+      </c>
+      <c r="G153" t="n">
+        <v>30824.18037932001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>629</v>
+      </c>
+      <c r="C154" t="n">
+        <v>629</v>
+      </c>
+      <c r="D154" t="n">
+        <v>629</v>
+      </c>
+      <c r="E154" t="n">
+        <v>629</v>
+      </c>
+      <c r="F154" t="n">
+        <v>320.9999</v>
+      </c>
+      <c r="G154" t="n">
+        <v>30824.18037932001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>630</v>
+      </c>
+      <c r="C155" t="n">
+        <v>632</v>
+      </c>
+      <c r="D155" t="n">
+        <v>632</v>
+      </c>
+      <c r="E155" t="n">
+        <v>630</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3175.7052</v>
+      </c>
+      <c r="G155" t="n">
+        <v>33999.88557932001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>632</v>
+      </c>
+      <c r="C156" t="n">
+        <v>632</v>
+      </c>
+      <c r="D156" t="n">
+        <v>632</v>
+      </c>
+      <c r="E156" t="n">
+        <v>632</v>
+      </c>
+      <c r="F156" t="n">
+        <v>729.7616</v>
+      </c>
+      <c r="G156" t="n">
+        <v>33999.88557932001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>635</v>
+      </c>
+      <c r="C157" t="n">
+        <v>641</v>
+      </c>
+      <c r="D157" t="n">
+        <v>641</v>
+      </c>
+      <c r="E157" t="n">
+        <v>635</v>
+      </c>
+      <c r="F157" t="n">
+        <v>127</v>
+      </c>
+      <c r="G157" t="n">
+        <v>34126.88557932001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>641</v>
+      </c>
+      <c r="C158" t="n">
+        <v>641</v>
+      </c>
+      <c r="D158" t="n">
+        <v>641</v>
+      </c>
+      <c r="E158" t="n">
+        <v>641</v>
+      </c>
+      <c r="F158" t="n">
+        <v>19.9646</v>
+      </c>
+      <c r="G158" t="n">
+        <v>34126.88557932001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>642</v>
+      </c>
+      <c r="C159" t="n">
+        <v>642</v>
+      </c>
+      <c r="D159" t="n">
+        <v>642</v>
+      </c>
+      <c r="E159" t="n">
+        <v>642</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>34127.88557932001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>641</v>
+      </c>
+      <c r="C160" t="n">
+        <v>641</v>
+      </c>
+      <c r="D160" t="n">
+        <v>641</v>
+      </c>
+      <c r="E160" t="n">
+        <v>641</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1827</v>
+      </c>
+      <c r="G160" t="n">
+        <v>32300.88557932001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>641</v>
+      </c>
+      <c r="C161" t="n">
+        <v>641</v>
+      </c>
+      <c r="D161" t="n">
+        <v>641</v>
+      </c>
+      <c r="E161" t="n">
+        <v>641</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1047.2959</v>
+      </c>
+      <c r="G161" t="n">
+        <v>32300.88557932001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>633</v>
+      </c>
+      <c r="C162" t="n">
+        <v>631</v>
+      </c>
+      <c r="D162" t="n">
+        <v>633</v>
+      </c>
+      <c r="E162" t="n">
+        <v>631</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2887.0249</v>
+      </c>
+      <c r="G162" t="n">
+        <v>29413.86067932001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>639</v>
+      </c>
+      <c r="C163" t="n">
+        <v>639</v>
+      </c>
+      <c r="D163" t="n">
+        <v>639</v>
+      </c>
+      <c r="E163" t="n">
+        <v>639</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>29414.86067932001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>637</v>
+      </c>
+      <c r="C164" t="n">
+        <v>639</v>
+      </c>
+      <c r="D164" t="n">
+        <v>639</v>
+      </c>
+      <c r="E164" t="n">
+        <v>637</v>
+      </c>
+      <c r="F164" t="n">
+        <v>199.0465</v>
+      </c>
+      <c r="G164" t="n">
+        <v>29414.86067932001</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>630</v>
+      </c>
+      <c r="C165" t="n">
+        <v>628</v>
+      </c>
+      <c r="D165" t="n">
+        <v>630</v>
+      </c>
+      <c r="E165" t="n">
+        <v>628</v>
+      </c>
+      <c r="F165" t="n">
+        <v>265</v>
+      </c>
+      <c r="G165" t="n">
+        <v>29149.86067932001</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>629</v>
+      </c>
+      <c r="C166" t="n">
+        <v>629</v>
+      </c>
+      <c r="D166" t="n">
+        <v>629</v>
+      </c>
+      <c r="E166" t="n">
+        <v>629</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" t="n">
+        <v>29150.86067932001</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>629</v>
+      </c>
+      <c r="C167" t="n">
+        <v>635</v>
+      </c>
+      <c r="D167" t="n">
+        <v>635</v>
+      </c>
+      <c r="E167" t="n">
+        <v>629</v>
+      </c>
+      <c r="F167" t="n">
+        <v>120</v>
+      </c>
+      <c r="G167" t="n">
+        <v>29270.86067932001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>632</v>
+      </c>
+      <c r="C168" t="n">
+        <v>635</v>
+      </c>
+      <c r="D168" t="n">
+        <v>635</v>
+      </c>
+      <c r="E168" t="n">
+        <v>632</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1179</v>
+      </c>
+      <c r="G168" t="n">
+        <v>29270.86067932001</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>636</v>
+      </c>
+      <c r="C169" t="n">
+        <v>642</v>
+      </c>
+      <c r="D169" t="n">
+        <v>642</v>
+      </c>
+      <c r="E169" t="n">
+        <v>636</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2540.8836</v>
+      </c>
+      <c r="G169" t="n">
+        <v>31811.74427932001</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>650</v>
+      </c>
+      <c r="C170" t="n">
+        <v>650</v>
+      </c>
+      <c r="D170" t="n">
+        <v>650</v>
+      </c>
+      <c r="E170" t="n">
+        <v>650</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>31812.74427932001</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>641</v>
+      </c>
+      <c r="C171" t="n">
+        <v>641</v>
+      </c>
+      <c r="D171" t="n">
+        <v>641</v>
+      </c>
+      <c r="E171" t="n">
+        <v>641</v>
+      </c>
+      <c r="F171" t="n">
+        <v>84</v>
+      </c>
+      <c r="G171" t="n">
+        <v>31728.74427932001</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>642</v>
+      </c>
+      <c r="C172" t="n">
+        <v>642</v>
+      </c>
+      <c r="D172" t="n">
+        <v>642</v>
+      </c>
+      <c r="E172" t="n">
+        <v>642</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>31729.74427932001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>636</v>
+      </c>
+      <c r="C173" t="n">
+        <v>628</v>
+      </c>
+      <c r="D173" t="n">
+        <v>636</v>
+      </c>
+      <c r="E173" t="n">
+        <v>628</v>
+      </c>
+      <c r="F173" t="n">
+        <v>80</v>
+      </c>
+      <c r="G173" t="n">
+        <v>31649.74427932001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>633</v>
+      </c>
+      <c r="C174" t="n">
+        <v>633</v>
+      </c>
+      <c r="D174" t="n">
+        <v>633</v>
+      </c>
+      <c r="E174" t="n">
+        <v>633</v>
+      </c>
+      <c r="F174" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="G174" t="n">
+        <v>31766.14427932001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>640</v>
+      </c>
+      <c r="C175" t="n">
+        <v>640</v>
+      </c>
+      <c r="D175" t="n">
+        <v>640</v>
+      </c>
+      <c r="E175" t="n">
+        <v>640</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>31767.14427932001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest GXC.xlsx
+++ b/BackTest/2019-11-02 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M175"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>623</v>
+        <v>654</v>
       </c>
       <c r="C2" t="n">
-        <v>623</v>
+        <v>669</v>
       </c>
       <c r="D2" t="n">
-        <v>623</v>
+        <v>670</v>
       </c>
       <c r="E2" t="n">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="F2" t="n">
-        <v>611</v>
+        <v>9968.6764513</v>
       </c>
       <c r="G2" t="n">
-        <v>29632.91099999999</v>
+        <v>46818.7764513</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -462,63 +467,71 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>622</v>
+        <v>665</v>
       </c>
       <c r="C3" t="n">
-        <v>623</v>
+        <v>640</v>
       </c>
       <c r="D3" t="n">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="E3" t="n">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="F3" t="n">
-        <v>524</v>
+        <v>711.4045</v>
       </c>
       <c r="G3" t="n">
-        <v>29632.91099999999</v>
+        <v>46107.3719513</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>669</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="C4" t="n">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="D4" t="n">
-        <v>623</v>
+        <v>650</v>
       </c>
       <c r="E4" t="n">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="F4" t="n">
-        <v>1769.6616</v>
+        <v>2937.969</v>
       </c>
       <c r="G4" t="n">
-        <v>29632.91099999999</v>
+        <v>49045.3409513</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -527,37 +540,40 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>623</v>
-      </c>
-      <c r="K4" t="n">
-        <v>623</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>640</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="C5" t="n">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="D5" t="n">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="E5" t="n">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="F5" t="n">
-        <v>627.5907999999999</v>
+        <v>299.25</v>
       </c>
       <c r="G5" t="n">
-        <v>29632.91099999999</v>
+        <v>49045.3409513</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -566,41 +582,40 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>623</v>
-      </c>
-      <c r="K5" t="n">
-        <v>623</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="C6" t="n">
-        <v>621</v>
+        <v>653</v>
       </c>
       <c r="D6" t="n">
-        <v>630</v>
+        <v>653</v>
       </c>
       <c r="E6" t="n">
-        <v>621</v>
+        <v>650</v>
       </c>
       <c r="F6" t="n">
-        <v>1726.1904</v>
+        <v>343.2903</v>
       </c>
       <c r="G6" t="n">
-        <v>27906.72059999999</v>
+        <v>49388.6312513</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -609,41 +624,40 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>623</v>
-      </c>
-      <c r="K6" t="n">
-        <v>623</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="C7" t="n">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="D7" t="n">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="E7" t="n">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="F7" t="n">
-        <v>772.2725</v>
+        <v>605.7547</v>
       </c>
       <c r="G7" t="n">
-        <v>28678.99309999999</v>
+        <v>49994.3859513</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -652,9 +666,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>623</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -663,28 +675,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="C8" t="n">
-        <v>623</v>
+        <v>658</v>
       </c>
       <c r="D8" t="n">
-        <v>623</v>
+        <v>659</v>
       </c>
       <c r="E8" t="n">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>5408.0325</v>
       </c>
       <c r="G8" t="n">
-        <v>28638.99309999999</v>
+        <v>55402.4184513</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -693,9 +706,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>623</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -704,41 +715,38 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>626</v>
+        <v>657</v>
       </c>
       <c r="C9" t="n">
-        <v>625</v>
+        <v>662</v>
       </c>
       <c r="D9" t="n">
-        <v>626</v>
+        <v>662</v>
       </c>
       <c r="E9" t="n">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="F9" t="n">
-        <v>280</v>
+        <v>3828.8718</v>
       </c>
       <c r="G9" t="n">
-        <v>28918.99309999999</v>
+        <v>59231.2902513</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>623</v>
-      </c>
-      <c r="K9" t="n">
-        <v>623</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -747,41 +755,38 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="C10" t="n">
-        <v>622</v>
+        <v>666</v>
       </c>
       <c r="D10" t="n">
-        <v>623</v>
+        <v>677</v>
       </c>
       <c r="E10" t="n">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="F10" t="n">
-        <v>402.2115</v>
+        <v>9797.9185</v>
       </c>
       <c r="G10" t="n">
-        <v>28516.78159999999</v>
+        <v>69029.2087513</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>625</v>
-      </c>
-      <c r="K10" t="n">
-        <v>623</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -790,41 +795,38 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>621</v>
+        <v>666</v>
       </c>
       <c r="C11" t="n">
-        <v>621</v>
+        <v>676</v>
       </c>
       <c r="D11" t="n">
-        <v>621</v>
+        <v>676</v>
       </c>
       <c r="E11" t="n">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="F11" t="n">
-        <v>347.7636</v>
+        <v>609</v>
       </c>
       <c r="G11" t="n">
-        <v>28169.01799999999</v>
+        <v>69638.2087513</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>622</v>
-      </c>
-      <c r="K11" t="n">
-        <v>623</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -833,41 +835,38 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>621</v>
+        <v>667</v>
       </c>
       <c r="C12" t="n">
-        <v>621</v>
+        <v>675</v>
       </c>
       <c r="D12" t="n">
-        <v>621</v>
+        <v>677</v>
       </c>
       <c r="E12" t="n">
-        <v>618</v>
+        <v>666</v>
       </c>
       <c r="F12" t="n">
-        <v>5167.3208</v>
+        <v>6248.3066</v>
       </c>
       <c r="G12" t="n">
-        <v>28169.01799999999</v>
+        <v>63389.9021513</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>621</v>
-      </c>
-      <c r="K12" t="n">
-        <v>623</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -876,41 +875,38 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>620</v>
+        <v>667</v>
       </c>
       <c r="C13" t="n">
-        <v>621</v>
+        <v>676</v>
       </c>
       <c r="D13" t="n">
-        <v>621</v>
+        <v>676</v>
       </c>
       <c r="E13" t="n">
-        <v>620</v>
+        <v>666</v>
       </c>
       <c r="F13" t="n">
-        <v>1037.1241</v>
+        <v>1412.41873037</v>
       </c>
       <c r="G13" t="n">
-        <v>28169.01799999999</v>
+        <v>64802.32088167001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>621</v>
-      </c>
-      <c r="K13" t="n">
-        <v>623</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -919,28 +915,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>621</v>
+        <v>667</v>
       </c>
       <c r="C14" t="n">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="D14" t="n">
-        <v>631</v>
+        <v>676</v>
       </c>
       <c r="E14" t="n">
-        <v>621</v>
+        <v>666</v>
       </c>
       <c r="F14" t="n">
-        <v>2377.3354</v>
+        <v>1705.0221</v>
       </c>
       <c r="G14" t="n">
-        <v>30546.35339999999</v>
+        <v>63097.29878167</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -949,9 +946,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>623</v>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -960,69 +955,67 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>632</v>
+        <v>673</v>
       </c>
       <c r="C15" t="n">
-        <v>632</v>
+        <v>657</v>
       </c>
       <c r="D15" t="n">
-        <v>632</v>
+        <v>673</v>
       </c>
       <c r="E15" t="n">
-        <v>632</v>
+        <v>657</v>
       </c>
       <c r="F15" t="n">
-        <v>31.645</v>
+        <v>4720.144</v>
       </c>
       <c r="G15" t="n">
-        <v>30577.99839999999</v>
+        <v>58377.15478167</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>623</v>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>626</v>
+        <v>656</v>
       </c>
       <c r="C16" t="n">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="D16" t="n">
-        <v>626</v>
+        <v>656</v>
       </c>
       <c r="E16" t="n">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="F16" t="n">
-        <v>9223.385899999999</v>
+        <v>92</v>
       </c>
       <c r="G16" t="n">
-        <v>21354.6125</v>
+        <v>58285.15478167</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1031,39 +1024,34 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>623</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>629</v>
+        <v>669</v>
       </c>
       <c r="C17" t="n">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="D17" t="n">
-        <v>629</v>
+        <v>671</v>
       </c>
       <c r="E17" t="n">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="F17" t="n">
-        <v>376.017</v>
+        <v>2308.589</v>
       </c>
       <c r="G17" t="n">
-        <v>21730.6295</v>
+        <v>55976.56578167</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1072,39 +1060,34 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>623</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>631</v>
+        <v>656</v>
       </c>
       <c r="C18" t="n">
-        <v>632</v>
+        <v>657</v>
       </c>
       <c r="D18" t="n">
-        <v>632</v>
+        <v>657</v>
       </c>
       <c r="E18" t="n">
-        <v>631</v>
+        <v>656</v>
       </c>
       <c r="F18" t="n">
-        <v>594</v>
+        <v>111.47233515</v>
       </c>
       <c r="G18" t="n">
-        <v>22324.6295</v>
+        <v>56088.03811682</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1113,39 +1096,34 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>623</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="C19" t="n">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="D19" t="n">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="E19" t="n">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="F19" t="n">
-        <v>4018.2797</v>
+        <v>141</v>
       </c>
       <c r="G19" t="n">
-        <v>26342.90919999999</v>
+        <v>55947.03811682</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1154,80 +1132,70 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>623</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="C20" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="D20" t="n">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="E20" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="F20" t="n">
-        <v>1062.5518</v>
+        <v>3171.8484</v>
       </c>
       <c r="G20" t="n">
-        <v>26342.90919999999</v>
+        <v>52775.18971682</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>623</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>644</v>
+      </c>
+      <c r="C21" t="n">
+        <v>644</v>
+      </c>
+      <c r="D21" t="n">
+        <v>645</v>
+      </c>
+      <c r="E21" t="n">
         <v>635</v>
       </c>
-      <c r="C21" t="n">
-        <v>635</v>
-      </c>
-      <c r="D21" t="n">
-        <v>635</v>
-      </c>
-      <c r="E21" t="n">
-        <v>634</v>
-      </c>
       <c r="F21" t="n">
-        <v>3856.3228</v>
+        <v>444</v>
       </c>
       <c r="G21" t="n">
-        <v>26342.90919999999</v>
+        <v>52775.18971682</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1236,39 +1204,34 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>623</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="C22" t="n">
-        <v>621</v>
+        <v>652</v>
       </c>
       <c r="D22" t="n">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="E22" t="n">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="F22" t="n">
-        <v>1150.9087</v>
+        <v>3183.612</v>
       </c>
       <c r="G22" t="n">
-        <v>25192.00049999999</v>
+        <v>55958.80171682</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1277,39 +1240,34 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>623</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="C23" t="n">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="D23" t="n">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="E23" t="n">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="F23" t="n">
-        <v>343.6212</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>25535.6217</v>
+        <v>55964.80171682</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1318,451 +1276,394 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>623</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="C24" t="n">
-        <v>635</v>
+        <v>668</v>
       </c>
       <c r="D24" t="n">
-        <v>635</v>
+        <v>668</v>
       </c>
       <c r="E24" t="n">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="F24" t="n">
-        <v>800.8203999999999</v>
+        <v>1316.5298</v>
       </c>
       <c r="G24" t="n">
-        <v>25535.6217</v>
+        <v>57281.33151682</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>623</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="C25" t="n">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="D25" t="n">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="E25" t="n">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>223.004</v>
       </c>
       <c r="G25" t="n">
-        <v>25505.6217</v>
+        <v>57058.32751682</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>623</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="C26" t="n">
-        <v>627</v>
+        <v>663</v>
       </c>
       <c r="D26" t="n">
-        <v>627</v>
+        <v>663</v>
       </c>
       <c r="E26" t="n">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="F26" t="n">
-        <v>1.1939</v>
+        <v>5644.484</v>
       </c>
       <c r="G26" t="n">
-        <v>25505.6217</v>
+        <v>62702.81151682</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>623</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="C27" t="n">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="D27" t="n">
-        <v>626</v>
+        <v>662</v>
       </c>
       <c r="E27" t="n">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="F27" t="n">
-        <v>1737.3368</v>
+        <v>332.9242</v>
       </c>
       <c r="G27" t="n">
-        <v>23768.2849</v>
+        <v>62369.88731682</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>623</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="C28" t="n">
-        <v>621</v>
+        <v>659</v>
       </c>
       <c r="D28" t="n">
-        <v>621</v>
+        <v>659</v>
       </c>
       <c r="E28" t="n">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="F28" t="n">
-        <v>604.1217</v>
+        <v>223</v>
       </c>
       <c r="G28" t="n">
-        <v>23164.1632</v>
+        <v>62146.88731682</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>623</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>624</v>
+        <v>653</v>
       </c>
       <c r="C29" t="n">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="D29" t="n">
-        <v>624</v>
+        <v>659</v>
       </c>
       <c r="E29" t="n">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="F29" t="n">
-        <v>2988.7467</v>
+        <v>1267.8421</v>
       </c>
       <c r="G29" t="n">
-        <v>26152.9099</v>
+        <v>60879.04521682</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>621</v>
-      </c>
-      <c r="K29" t="n">
-        <v>623</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="C30" t="n">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="D30" t="n">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="E30" t="n">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="F30" t="n">
-        <v>326.2148</v>
+        <v>18124.4248</v>
       </c>
       <c r="G30" t="n">
-        <v>25826.69509999999</v>
+        <v>42754.62041682</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>623</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="C31" t="n">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="D31" t="n">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="E31" t="n">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="F31" t="n">
-        <v>41.0419</v>
+        <v>691.5916999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>25867.73699999999</v>
+        <v>42063.02871682</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>623</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="C32" t="n">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="D32" t="n">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="E32" t="n">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="F32" t="n">
-        <v>364.4399</v>
+        <v>871.5042999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>26232.17689999999</v>
+        <v>42934.53301682</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>623</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="C33" t="n">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="D33" t="n">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="E33" t="n">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="F33" t="n">
-        <v>436.295</v>
+        <v>337.7435</v>
       </c>
       <c r="G33" t="n">
-        <v>26668.47189999999</v>
+        <v>42596.78951682</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>623</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="C34" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D34" t="n">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="E34" t="n">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F34" t="n">
-        <v>651.0411</v>
+        <v>620.215</v>
       </c>
       <c r="G34" t="n">
-        <v>26668.47189999999</v>
+        <v>41976.57451682001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1771,39 +1672,34 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>623</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="C35" t="n">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="D35" t="n">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="E35" t="n">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="F35" t="n">
-        <v>7127.1943</v>
+        <v>3.5515625</v>
       </c>
       <c r="G35" t="n">
-        <v>33795.66619999999</v>
+        <v>41980.12607932001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1812,39 +1708,34 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>623</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C36" t="n">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D36" t="n">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="E36" t="n">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="F36" t="n">
-        <v>410.2186</v>
+        <v>126.6781</v>
       </c>
       <c r="G36" t="n">
-        <v>34205.88479999999</v>
+        <v>41980.12607932001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1853,17 +1744,12 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>623</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1873,19 +1759,19 @@
         <v>636</v>
       </c>
       <c r="C37" t="n">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D37" t="n">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E37" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F37" t="n">
-        <v>80</v>
+        <v>6670.8105</v>
       </c>
       <c r="G37" t="n">
-        <v>34285.88479999999</v>
+        <v>35309.31557932001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1894,39 +1780,34 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>623</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="C38" t="n">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D38" t="n">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="E38" t="n">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1755</v>
+        <v>144.9105</v>
       </c>
       <c r="G38" t="n">
-        <v>34285.88479999999</v>
+        <v>35164.40507932001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1935,39 +1816,34 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>623</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="C39" t="n">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="D39" t="n">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="E39" t="n">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="F39" t="n">
-        <v>40</v>
+        <v>762.8625</v>
       </c>
       <c r="G39" t="n">
-        <v>34325.88479999999</v>
+        <v>35164.40507932001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1976,39 +1852,34 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>623</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="C40" t="n">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="D40" t="n">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="E40" t="n">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="F40" t="n">
-        <v>189</v>
+        <v>489.2892</v>
       </c>
       <c r="G40" t="n">
-        <v>34325.88479999999</v>
+        <v>35164.40507932001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2017,39 +1888,34 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>623</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="C41" t="n">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="D41" t="n">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="E41" t="n">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="F41" t="n">
-        <v>2077.6429</v>
+        <v>327.8942</v>
       </c>
       <c r="G41" t="n">
-        <v>32248.24189999999</v>
+        <v>35492.29927932001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2058,39 +1924,34 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>623</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="C42" t="n">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="D42" t="n">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="E42" t="n">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="F42" t="n">
-        <v>3002.8582</v>
+        <v>546.4</v>
       </c>
       <c r="G42" t="n">
-        <v>35251.1001</v>
+        <v>34945.89927932001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2099,39 +1960,34 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>623</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="C43" t="n">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="D43" t="n">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="E43" t="n">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="F43" t="n">
-        <v>1598.9999</v>
+        <v>352</v>
       </c>
       <c r="G43" t="n">
-        <v>36850.1</v>
+        <v>35297.89927932001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2140,39 +1996,34 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>623</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="C44" t="n">
-        <v>669</v>
+        <v>630</v>
       </c>
       <c r="D44" t="n">
-        <v>670</v>
+        <v>630</v>
       </c>
       <c r="E44" t="n">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="F44" t="n">
-        <v>9968.6764513</v>
+        <v>397.8578</v>
       </c>
       <c r="G44" t="n">
-        <v>46818.7764513</v>
+        <v>34900.04147932001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2181,39 +2032,34 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>623</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>665</v>
+        <v>625</v>
       </c>
       <c r="C45" t="n">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="D45" t="n">
-        <v>665</v>
+        <v>630</v>
       </c>
       <c r="E45" t="n">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="F45" t="n">
-        <v>711.4045</v>
+        <v>306.3767</v>
       </c>
       <c r="G45" t="n">
-        <v>46107.3719513</v>
+        <v>34900.04147932001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2222,39 +2068,34 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>623</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="C46" t="n">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="D46" t="n">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="E46" t="n">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="F46" t="n">
-        <v>2937.969</v>
+        <v>97.2</v>
       </c>
       <c r="G46" t="n">
-        <v>49045.3409513</v>
+        <v>34900.04147932001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2263,39 +2104,34 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>623</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="C47" t="n">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="D47" t="n">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="E47" t="n">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="F47" t="n">
-        <v>299.25</v>
+        <v>4265</v>
       </c>
       <c r="G47" t="n">
-        <v>49045.3409513</v>
+        <v>30635.04147932001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2304,39 +2140,34 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>623</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="C48" t="n">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="D48" t="n">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="E48" t="n">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="F48" t="n">
-        <v>343.2903</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>49388.6312513</v>
+        <v>30636.04147932001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2345,39 +2176,34 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>623</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="C49" t="n">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="D49" t="n">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="E49" t="n">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="F49" t="n">
-        <v>605.7547</v>
+        <v>221.2716</v>
       </c>
       <c r="G49" t="n">
-        <v>49994.3859513</v>
+        <v>30857.31307932001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2386,39 +2212,34 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>623</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>655</v>
+        <v>626</v>
       </c>
       <c r="C50" t="n">
-        <v>658</v>
+        <v>626</v>
       </c>
       <c r="D50" t="n">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="E50" t="n">
-        <v>655</v>
+        <v>623</v>
       </c>
       <c r="F50" t="n">
-        <v>5408.0325</v>
+        <v>658.7659</v>
       </c>
       <c r="G50" t="n">
-        <v>55402.4184513</v>
+        <v>30198.54717932001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2427,39 +2248,34 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>623</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>657</v>
+        <v>626</v>
       </c>
       <c r="C51" t="n">
-        <v>662</v>
+        <v>627</v>
       </c>
       <c r="D51" t="n">
-        <v>662</v>
+        <v>627</v>
       </c>
       <c r="E51" t="n">
-        <v>657</v>
+        <v>626</v>
       </c>
       <c r="F51" t="n">
-        <v>3828.8718</v>
+        <v>271.2003</v>
       </c>
       <c r="G51" t="n">
-        <v>59231.2902513</v>
+        <v>30469.74747932001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2468,39 +2284,34 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>623</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>662</v>
+        <v>627</v>
       </c>
       <c r="C52" t="n">
-        <v>666</v>
+        <v>627</v>
       </c>
       <c r="D52" t="n">
-        <v>677</v>
+        <v>627</v>
       </c>
       <c r="E52" t="n">
-        <v>662</v>
+        <v>627</v>
       </c>
       <c r="F52" t="n">
-        <v>9797.9185</v>
+        <v>346.3633</v>
       </c>
       <c r="G52" t="n">
-        <v>69029.2087513</v>
+        <v>30469.74747932001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2509,86 +2320,76 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>623</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>666</v>
+        <v>627</v>
       </c>
       <c r="C53" t="n">
-        <v>676</v>
+        <v>627</v>
       </c>
       <c r="D53" t="n">
-        <v>676</v>
+        <v>627</v>
       </c>
       <c r="E53" t="n">
-        <v>665</v>
+        <v>627</v>
       </c>
       <c r="F53" t="n">
-        <v>609</v>
+        <v>344.3934</v>
       </c>
       <c r="G53" t="n">
-        <v>69638.2087513</v>
+        <v>30469.74747932001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>623</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>1.080072231139647</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>667</v>
+        <v>630</v>
       </c>
       <c r="C54" t="n">
-        <v>675</v>
+        <v>630</v>
       </c>
       <c r="D54" t="n">
-        <v>677</v>
+        <v>630</v>
       </c>
       <c r="E54" t="n">
-        <v>666</v>
+        <v>630</v>
       </c>
       <c r="F54" t="n">
-        <v>6248.3066</v>
+        <v>30</v>
       </c>
       <c r="G54" t="n">
-        <v>63389.9021513</v>
+        <v>30499.74747932001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2596,34 +2397,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>667</v>
+        <v>631</v>
       </c>
       <c r="C55" t="n">
-        <v>676</v>
+        <v>631</v>
       </c>
       <c r="D55" t="n">
-        <v>676</v>
+        <v>631</v>
       </c>
       <c r="E55" t="n">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="F55" t="n">
-        <v>1412.41873037</v>
+        <v>7791.7284</v>
       </c>
       <c r="G55" t="n">
-        <v>64802.32088167001</v>
+        <v>38291.47587932002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2631,34 +2433,35 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>667</v>
+        <v>630</v>
       </c>
       <c r="C56" t="n">
-        <v>666</v>
+        <v>630</v>
       </c>
       <c r="D56" t="n">
-        <v>676</v>
+        <v>630</v>
       </c>
       <c r="E56" t="n">
-        <v>666</v>
+        <v>630</v>
       </c>
       <c r="F56" t="n">
-        <v>1705.0221</v>
+        <v>1024</v>
       </c>
       <c r="G56" t="n">
-        <v>63097.29878167</v>
+        <v>37267.47587932002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2666,34 +2469,35 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>673</v>
+        <v>630</v>
       </c>
       <c r="C57" t="n">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="D57" t="n">
-        <v>673</v>
+        <v>630</v>
       </c>
       <c r="E57" t="n">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="F57" t="n">
-        <v>4720.144</v>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>58377.15478167</v>
+        <v>37267.47587932002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2701,34 +2505,35 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="C58" t="n">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="D58" t="n">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="E58" t="n">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="F58" t="n">
-        <v>92</v>
+        <v>276.2231</v>
       </c>
       <c r="G58" t="n">
-        <v>58285.15478167</v>
+        <v>36991.25277932001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2736,28 +2541,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>669</v>
+        <v>631</v>
       </c>
       <c r="C59" t="n">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="D59" t="n">
-        <v>671</v>
+        <v>631</v>
       </c>
       <c r="E59" t="n">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="F59" t="n">
-        <v>2308.589</v>
+        <v>315</v>
       </c>
       <c r="G59" t="n">
-        <v>55976.56578167</v>
+        <v>37306.25277932001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2771,28 +2577,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="C60" t="n">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="D60" t="n">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="E60" t="n">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="F60" t="n">
-        <v>111.47233515</v>
+        <v>406.4377</v>
       </c>
       <c r="G60" t="n">
-        <v>56088.03811682</v>
+        <v>36899.81507932001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2806,34 +2613,35 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="C61" t="n">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="D61" t="n">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="E61" t="n">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="F61" t="n">
-        <v>141</v>
+        <v>2871.36</v>
       </c>
       <c r="G61" t="n">
-        <v>55947.03811682</v>
+        <v>34028.45507932001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2841,28 +2649,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="C62" t="n">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="D62" t="n">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="E62" t="n">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="F62" t="n">
-        <v>3171.8484</v>
+        <v>749.1107</v>
       </c>
       <c r="G62" t="n">
-        <v>52775.18971682</v>
+        <v>33279.34437932001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2876,28 +2685,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="C63" t="n">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="D63" t="n">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="E63" t="n">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="F63" t="n">
-        <v>444</v>
+        <v>1690.0218</v>
       </c>
       <c r="G63" t="n">
-        <v>52775.18971682</v>
+        <v>31589.32257932001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2911,28 +2721,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="C64" t="n">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="D64" t="n">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="E64" t="n">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="F64" t="n">
-        <v>3183.612</v>
+        <v>8.365</v>
       </c>
       <c r="G64" t="n">
-        <v>55958.80171682</v>
+        <v>31597.68757932002</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2946,28 +2757,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>657</v>
+        <v>628</v>
       </c>
       <c r="C65" t="n">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="D65" t="n">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="E65" t="n">
-        <v>657</v>
+        <v>628</v>
       </c>
       <c r="F65" t="n">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="G65" t="n">
-        <v>55964.80171682</v>
+        <v>31753.68757932002</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2981,34 +2793,35 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>657</v>
+        <v>622</v>
       </c>
       <c r="C66" t="n">
-        <v>668</v>
+        <v>621</v>
       </c>
       <c r="D66" t="n">
-        <v>668</v>
+        <v>622</v>
       </c>
       <c r="E66" t="n">
-        <v>657</v>
+        <v>621</v>
       </c>
       <c r="F66" t="n">
-        <v>1316.5298</v>
+        <v>281.0104</v>
       </c>
       <c r="G66" t="n">
-        <v>57281.33151682</v>
+        <v>31472.67717932002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -3016,34 +2829,35 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="C67" t="n">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="D67" t="n">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="E67" t="n">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="F67" t="n">
-        <v>223.004</v>
+        <v>11.105</v>
       </c>
       <c r="G67" t="n">
-        <v>57058.32751682</v>
+        <v>31472.67717932002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -3051,28 +2865,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="C68" t="n">
-        <v>663</v>
+        <v>628</v>
       </c>
       <c r="D68" t="n">
-        <v>663</v>
+        <v>628</v>
       </c>
       <c r="E68" t="n">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="F68" t="n">
-        <v>5644.484</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>62702.81151682</v>
+        <v>31473.67717932002</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3086,34 +2901,35 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>652</v>
+        <v>623</v>
       </c>
       <c r="C69" t="n">
-        <v>661</v>
+        <v>623</v>
       </c>
       <c r="D69" t="n">
-        <v>662</v>
+        <v>623</v>
       </c>
       <c r="E69" t="n">
-        <v>652</v>
+        <v>623</v>
       </c>
       <c r="F69" t="n">
-        <v>332.9242</v>
+        <v>52.8425</v>
       </c>
       <c r="G69" t="n">
-        <v>62369.88731682</v>
+        <v>31420.83467932002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3121,34 +2937,35 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="C70" t="n">
-        <v>659</v>
+        <v>621</v>
       </c>
       <c r="D70" t="n">
-        <v>659</v>
+        <v>623</v>
       </c>
       <c r="E70" t="n">
-        <v>651</v>
+        <v>621</v>
       </c>
       <c r="F70" t="n">
-        <v>223</v>
+        <v>257.9528</v>
       </c>
       <c r="G70" t="n">
-        <v>62146.88731682</v>
+        <v>31162.88187932002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -3156,34 +2973,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="C71" t="n">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="D71" t="n">
-        <v>659</v>
+        <v>625</v>
       </c>
       <c r="E71" t="n">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="F71" t="n">
-        <v>1267.8421</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>60879.04521682</v>
+        <v>31163.88187932002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -3191,28 +3009,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>652</v>
+        <v>625</v>
       </c>
       <c r="C72" t="n">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="D72" t="n">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="E72" t="n">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="F72" t="n">
-        <v>18124.4248</v>
+        <v>1667</v>
       </c>
       <c r="G72" t="n">
-        <v>42754.62041682</v>
+        <v>32830.88187932002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3226,34 +3045,35 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="C73" t="n">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D73" t="n">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="E73" t="n">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="F73" t="n">
-        <v>691.5916999999999</v>
+        <v>105</v>
       </c>
       <c r="G73" t="n">
-        <v>42063.02871682</v>
+        <v>32935.88187932002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3261,28 +3081,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="C74" t="n">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="D74" t="n">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="E74" t="n">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="F74" t="n">
-        <v>871.5042999999999</v>
+        <v>137.0987</v>
       </c>
       <c r="G74" t="n">
-        <v>42934.53301682</v>
+        <v>32798.78317932002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3296,28 +3117,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C75" t="n">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="D75" t="n">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="E75" t="n">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F75" t="n">
-        <v>337.7435</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>42596.78951682</v>
+        <v>32799.78317932002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3331,448 +3153,549 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="C76" t="n">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="D76" t="n">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="E76" t="n">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="F76" t="n">
-        <v>620.215</v>
+        <v>198.1202</v>
       </c>
       <c r="G76" t="n">
-        <v>41976.57451682001</v>
+        <v>32601.66297932002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>628</v>
+      </c>
+      <c r="K76" t="n">
+        <v>628</v>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="C77" t="n">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="D77" t="n">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="E77" t="n">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="F77" t="n">
-        <v>3.5515625</v>
+        <v>0.0001</v>
       </c>
       <c r="G77" t="n">
-        <v>41980.12607932001</v>
+        <v>32601.66297932002</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>623</v>
+      </c>
+      <c r="K77" t="n">
+        <v>628</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="C78" t="n">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="D78" t="n">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="E78" t="n">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="F78" t="n">
-        <v>126.6781</v>
+        <v>49.2238</v>
       </c>
       <c r="G78" t="n">
-        <v>41980.12607932001</v>
+        <v>32601.66297932002</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>623</v>
+      </c>
+      <c r="K78" t="n">
+        <v>628</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="C79" t="n">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="D79" t="n">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="E79" t="n">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="F79" t="n">
-        <v>6670.8105</v>
+        <v>2636.5544</v>
       </c>
       <c r="G79" t="n">
-        <v>35309.31557932001</v>
+        <v>35238.21737932001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>623</v>
+      </c>
+      <c r="K79" t="n">
+        <v>623</v>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="C80" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D80" t="n">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="E80" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="F80" t="n">
-        <v>144.9105</v>
+        <v>695.5869</v>
       </c>
       <c r="G80" t="n">
-        <v>35164.40507932001</v>
+        <v>34542.63047932001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>624</v>
+      </c>
+      <c r="K80" t="n">
+        <v>623</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C81" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D81" t="n">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="E81" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F81" t="n">
-        <v>762.8625</v>
+        <v>3724.6746</v>
       </c>
       <c r="G81" t="n">
-        <v>35164.40507932001</v>
+        <v>38267.30507932001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>621</v>
+      </c>
+      <c r="K81" t="n">
+        <v>623</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C82" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D82" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="E82" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="F82" t="n">
-        <v>489.2892</v>
+        <v>3.4156</v>
       </c>
       <c r="G82" t="n">
-        <v>35164.40507932001</v>
+        <v>38263.88947932001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>624</v>
+      </c>
+      <c r="K82" t="n">
+        <v>623</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C83" t="n">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D83" t="n">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="E83" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F83" t="n">
-        <v>327.8942</v>
+        <v>2236.0644</v>
       </c>
       <c r="G83" t="n">
-        <v>35492.29927932001</v>
+        <v>40499.95387932001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>621</v>
+      </c>
+      <c r="K83" t="n">
+        <v>623</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C84" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D84" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E84" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F84" t="n">
-        <v>546.4</v>
+        <v>502.5578</v>
       </c>
       <c r="G84" t="n">
-        <v>34945.89927932001</v>
+        <v>40499.95387932001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>624</v>
+      </c>
+      <c r="K84" t="n">
+        <v>623</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C85" t="n">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D85" t="n">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E85" t="n">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F85" t="n">
-        <v>352</v>
+        <v>341.681</v>
       </c>
       <c r="G85" t="n">
-        <v>35297.89927932001</v>
+        <v>40841.63487932001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>624</v>
+      </c>
+      <c r="K85" t="n">
+        <v>623</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C86" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D86" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E86" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F86" t="n">
-        <v>397.8578</v>
+        <v>562.3778</v>
       </c>
       <c r="G86" t="n">
-        <v>34900.04147932001</v>
+        <v>41404.01267932001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>625</v>
+      </c>
+      <c r="K86" t="n">
+        <v>623</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C87" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D87" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E87" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F87" t="n">
-        <v>306.3767</v>
+        <v>3444.5831</v>
       </c>
       <c r="G87" t="n">
-        <v>34900.04147932001</v>
+        <v>41404.01267932001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>627</v>
+      </c>
+      <c r="K87" t="n">
+        <v>623</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C88" t="n">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="D88" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="E88" t="n">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="F88" t="n">
-        <v>97.2</v>
+        <v>386.4392</v>
       </c>
       <c r="G88" t="n">
-        <v>34900.04147932001</v>
+        <v>41017.57347932001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3781,33 +3704,40 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>623</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C89" t="n">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D89" t="n">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E89" t="n">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="F89" t="n">
-        <v>4265</v>
+        <v>2204.758</v>
       </c>
       <c r="G89" t="n">
-        <v>30635.04147932001</v>
+        <v>38812.81547932001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3816,116 +3746,150 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>623</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="C90" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D90" t="n">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="E90" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>1685</v>
       </c>
       <c r="G90" t="n">
-        <v>30636.04147932001</v>
+        <v>38812.81547932001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>621</v>
+      </c>
+      <c r="K90" t="n">
+        <v>623</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C91" t="n">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="D91" t="n">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="E91" t="n">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F91" t="n">
-        <v>221.2716</v>
+        <v>689</v>
       </c>
       <c r="G91" t="n">
-        <v>30857.31307932001</v>
+        <v>38812.81547932001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>621</v>
+      </c>
+      <c r="K91" t="n">
+        <v>623</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C92" t="n">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D92" t="n">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E92" t="n">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F92" t="n">
-        <v>658.7659</v>
+        <v>1667</v>
       </c>
       <c r="G92" t="n">
-        <v>30198.54717932001</v>
+        <v>38812.81547932001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>621</v>
+      </c>
+      <c r="K92" t="n">
+        <v>623</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3935,54 +3899,63 @@
         <v>626</v>
       </c>
       <c r="C93" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D93" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E93" t="n">
         <v>626</v>
       </c>
       <c r="F93" t="n">
-        <v>271.2003</v>
+        <v>3.5399</v>
       </c>
       <c r="G93" t="n">
-        <v>30469.74747932001</v>
+        <v>38816.35537932001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>621</v>
+      </c>
+      <c r="K93" t="n">
+        <v>623</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C94" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D94" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E94" t="n">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F94" t="n">
-        <v>346.3633</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>30469.74747932001</v>
+        <v>38815.35537932001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3991,33 +3964,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>623</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C95" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D95" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E95" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F95" t="n">
-        <v>344.3934</v>
+        <v>3878.6851</v>
       </c>
       <c r="G95" t="n">
-        <v>30469.74747932001</v>
+        <v>34936.67027932001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4026,33 +4006,40 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>623</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C96" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D96" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="E96" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="F96" t="n">
-        <v>30</v>
+        <v>60.2668</v>
       </c>
       <c r="G96" t="n">
-        <v>30499.74747932001</v>
+        <v>34936.67027932001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4061,33 +4048,40 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>623</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="C97" t="n">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="D97" t="n">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="E97" t="n">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="F97" t="n">
-        <v>7791.7284</v>
+        <v>4300.0277</v>
       </c>
       <c r="G97" t="n">
-        <v>38291.47587932002</v>
+        <v>30636.64257932001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4096,33 +4090,40 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>623</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C98" t="n">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="D98" t="n">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E98" t="n">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="F98" t="n">
-        <v>1024</v>
+        <v>76.2787</v>
       </c>
       <c r="G98" t="n">
-        <v>37267.47587932002</v>
+        <v>30636.64257932001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4131,103 +4132,128 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>623</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="C99" t="n">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="D99" t="n">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="E99" t="n">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="F99" t="n">
-        <v>4</v>
+        <v>1736.0278</v>
       </c>
       <c r="G99" t="n">
-        <v>37267.47587932002</v>
+        <v>28900.61477932001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>620</v>
+      </c>
+      <c r="K99" t="n">
+        <v>623</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C100" t="n">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D100" t="n">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E100" t="n">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F100" t="n">
-        <v>276.2231</v>
+        <v>150</v>
       </c>
       <c r="G100" t="n">
-        <v>36991.25277932001</v>
+        <v>29050.61477932001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>610</v>
+      </c>
+      <c r="K100" t="n">
+        <v>623</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="C101" t="n">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="D101" t="n">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="E101" t="n">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="F101" t="n">
-        <v>315</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>37306.25277932001</v>
+        <v>29049.61477932001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4236,33 +4262,40 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>623</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="C102" t="n">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="D102" t="n">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="E102" t="n">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="F102" t="n">
-        <v>406.4377</v>
+        <v>93.3742</v>
       </c>
       <c r="G102" t="n">
-        <v>36899.81507932001</v>
+        <v>28956.24057932001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4271,33 +4304,40 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>623</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="C103" t="n">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="D103" t="n">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="E103" t="n">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F103" t="n">
-        <v>2871.36</v>
+        <v>1065.8345</v>
       </c>
       <c r="G103" t="n">
-        <v>34028.45507932001</v>
+        <v>28956.24057932001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4306,33 +4346,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>623</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="C104" t="n">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="D104" t="n">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="E104" t="n">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="F104" t="n">
-        <v>749.1107</v>
+        <v>3697.8045</v>
       </c>
       <c r="G104" t="n">
-        <v>33279.34437932001</v>
+        <v>32654.04507932001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4341,33 +4388,40 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>623</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="C105" t="n">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="D105" t="n">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="E105" t="n">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="F105" t="n">
-        <v>1690.0218</v>
+        <v>2000</v>
       </c>
       <c r="G105" t="n">
-        <v>31589.32257932001</v>
+        <v>30654.04507932001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4376,81 +4430,106 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>623</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C106" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D106" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E106" t="n">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F106" t="n">
-        <v>8.365</v>
+        <v>98.1354</v>
       </c>
       <c r="G106" t="n">
-        <v>31597.68757932002</v>
+        <v>30752.18047932001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>610</v>
+      </c>
+      <c r="K106" t="n">
+        <v>623</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C107" t="n">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="D107" t="n">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="E107" t="n">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="F107" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>31753.68757932002</v>
+        <v>30753.18047932001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>618</v>
+      </c>
+      <c r="K107" t="n">
+        <v>623</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4460,19 +4539,19 @@
         <v>622</v>
       </c>
       <c r="C108" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D108" t="n">
         <v>622</v>
       </c>
       <c r="E108" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F108" t="n">
-        <v>281.0104</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>31472.67717932002</v>
+        <v>30754.18047932001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4481,33 +4560,40 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>623</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C109" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D109" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E109" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F109" t="n">
-        <v>11.105</v>
+        <v>3.3279</v>
       </c>
       <c r="G109" t="n">
-        <v>31472.67717932002</v>
+        <v>30754.18047932001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4516,68 +4602,84 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>623</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C110" t="n">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D110" t="n">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="E110" t="n">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>25.6721</v>
       </c>
       <c r="G110" t="n">
-        <v>31473.67717932002</v>
+        <v>30754.18047932001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>622</v>
+      </c>
+      <c r="K110" t="n">
+        <v>623</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="C111" t="n">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="D111" t="n">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="E111" t="n">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="F111" t="n">
-        <v>52.8425</v>
+        <v>69.9999</v>
       </c>
       <c r="G111" t="n">
-        <v>31420.83467932002</v>
+        <v>30824.18037932001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4586,138 +4688,172 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>623</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="C112" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D112" t="n">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="E112" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="F112" t="n">
-        <v>257.9528</v>
+        <v>320.9999</v>
       </c>
       <c r="G112" t="n">
-        <v>31162.88187932002</v>
+        <v>30824.18037932001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>629</v>
+      </c>
+      <c r="K112" t="n">
+        <v>623</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="C113" t="n">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="D113" t="n">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="E113" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>3175.7052</v>
       </c>
       <c r="G113" t="n">
-        <v>31163.88187932002</v>
+        <v>33999.88557932001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>629</v>
+      </c>
+      <c r="K113" t="n">
+        <v>623</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="C114" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D114" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E114" t="n">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="F114" t="n">
-        <v>1667</v>
+        <v>729.7616</v>
       </c>
       <c r="G114" t="n">
-        <v>32830.88187932002</v>
+        <v>33999.88557932001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>632</v>
+      </c>
+      <c r="K114" t="n">
+        <v>623</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C115" t="n">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="D115" t="n">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="E115" t="n">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="F115" t="n">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="G115" t="n">
-        <v>32935.88187932002</v>
+        <v>34126.88557932001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4726,33 +4862,40 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>623</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="C116" t="n">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="D116" t="n">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="E116" t="n">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="F116" t="n">
-        <v>137.0987</v>
+        <v>19.9646</v>
       </c>
       <c r="G116" t="n">
-        <v>32798.78317932002</v>
+        <v>34126.88557932001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4761,33 +4904,40 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>623</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="C117" t="n">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="D117" t="n">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="E117" t="n">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>32799.78317932002</v>
+        <v>34127.88557932001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4796,33 +4946,40 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>623</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="C118" t="n">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="D118" t="n">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="E118" t="n">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="F118" t="n">
-        <v>198.1202</v>
+        <v>1827</v>
       </c>
       <c r="G118" t="n">
-        <v>32601.66297932002</v>
+        <v>32300.88557932001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4831,33 +4988,40 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>623</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="C119" t="n">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="D119" t="n">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="E119" t="n">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0001</v>
+        <v>1047.2959</v>
       </c>
       <c r="G119" t="n">
-        <v>32601.66297932002</v>
+        <v>32300.88557932001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4866,33 +5030,40 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>623</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="C120" t="n">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="D120" t="n">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="E120" t="n">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="F120" t="n">
-        <v>49.2238</v>
+        <v>2887.0249</v>
       </c>
       <c r="G120" t="n">
-        <v>32601.66297932002</v>
+        <v>29413.86067932001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4901,33 +5072,40 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>623</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="C121" t="n">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="D121" t="n">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="E121" t="n">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="F121" t="n">
-        <v>2636.5544</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>35238.21737932001</v>
+        <v>29414.86067932001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4936,33 +5114,40 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>623</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C122" t="n">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="D122" t="n">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="E122" t="n">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="F122" t="n">
-        <v>695.5869</v>
+        <v>199.0465</v>
       </c>
       <c r="G122" t="n">
-        <v>34542.63047932001</v>
+        <v>29414.86067932001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4971,33 +5156,40 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>623</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C123" t="n">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D123" t="n">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="E123" t="n">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F123" t="n">
-        <v>3724.6746</v>
+        <v>265</v>
       </c>
       <c r="G123" t="n">
-        <v>38267.30507932001</v>
+        <v>29149.86067932001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5006,33 +5198,40 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>623</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="C124" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D124" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="E124" t="n">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="F124" t="n">
-        <v>3.4156</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>38263.88947932001</v>
+        <v>29150.86067932001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5041,33 +5240,40 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>623</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C125" t="n">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="D125" t="n">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="E125" t="n">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="F125" t="n">
-        <v>2236.0644</v>
+        <v>120</v>
       </c>
       <c r="G125" t="n">
-        <v>40499.95387932001</v>
+        <v>29270.86067932001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5076,103 +5282,128 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>623</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="C126" t="n">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="D126" t="n">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="E126" t="n">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="F126" t="n">
-        <v>502.5578</v>
+        <v>1179</v>
       </c>
       <c r="G126" t="n">
-        <v>40499.95387932001</v>
+        <v>29270.86067932001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>635</v>
+      </c>
+      <c r="K126" t="n">
+        <v>623</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="C127" t="n">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="D127" t="n">
-        <v>625</v>
+        <v>642</v>
       </c>
       <c r="E127" t="n">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="F127" t="n">
-        <v>341.681</v>
+        <v>2540.8836</v>
       </c>
       <c r="G127" t="n">
-        <v>40841.63487932001</v>
+        <v>31811.74427932001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>635</v>
+      </c>
+      <c r="K127" t="n">
+        <v>623</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="C128" t="n">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="D128" t="n">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="E128" t="n">
-        <v>627</v>
+        <v>650</v>
       </c>
       <c r="F128" t="n">
-        <v>562.3778</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>41404.01267932001</v>
+        <v>31812.74427932001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5181,33 +5412,40 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>623</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="C129" t="n">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="D129" t="n">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="E129" t="n">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="F129" t="n">
-        <v>3444.5831</v>
+        <v>84</v>
       </c>
       <c r="G129" t="n">
-        <v>41404.01267932001</v>
+        <v>31728.74427932001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5216,33 +5454,40 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>623</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="C130" t="n">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="D130" t="n">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="E130" t="n">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="F130" t="n">
-        <v>386.4392</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>41017.57347932001</v>
+        <v>31729.74427932001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5251,33 +5496,40 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>623</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="C131" t="n">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="D131" t="n">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="E131" t="n">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="F131" t="n">
-        <v>2204.758</v>
+        <v>80</v>
       </c>
       <c r="G131" t="n">
-        <v>38812.81547932001</v>
+        <v>31649.74427932001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5286,1551 +5538,106 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>623</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="C132" t="n">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="D132" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="E132" t="n">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="F132" t="n">
-        <v>1685</v>
+        <v>116.4</v>
       </c>
       <c r="G132" t="n">
-        <v>38812.81547932001</v>
+        <v>31766.14427932001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>628</v>
+      </c>
+      <c r="K132" t="n">
+        <v>623</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="C133" t="n">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="D133" t="n">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="E133" t="n">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="F133" t="n">
-        <v>689</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>38812.81547932001</v>
+        <v>31767.14427932001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>633</v>
+      </c>
+      <c r="K133" t="n">
+        <v>623</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>621</v>
-      </c>
-      <c r="C134" t="n">
-        <v>621</v>
-      </c>
-      <c r="D134" t="n">
-        <v>621</v>
-      </c>
-      <c r="E134" t="n">
-        <v>621</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1667</v>
-      </c>
-      <c r="G134" t="n">
-        <v>38812.81547932001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>626</v>
-      </c>
-      <c r="C135" t="n">
-        <v>626</v>
-      </c>
-      <c r="D135" t="n">
-        <v>626</v>
-      </c>
-      <c r="E135" t="n">
-        <v>626</v>
-      </c>
-      <c r="F135" t="n">
-        <v>3.5399</v>
-      </c>
-      <c r="G135" t="n">
-        <v>38816.35537932001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>625</v>
-      </c>
-      <c r="C136" t="n">
-        <v>625</v>
-      </c>
-      <c r="D136" t="n">
-        <v>625</v>
-      </c>
-      <c r="E136" t="n">
-        <v>625</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1</v>
-      </c>
-      <c r="G136" t="n">
-        <v>38815.35537932001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>621</v>
-      </c>
-      <c r="C137" t="n">
-        <v>621</v>
-      </c>
-      <c r="D137" t="n">
-        <v>621</v>
-      </c>
-      <c r="E137" t="n">
-        <v>621</v>
-      </c>
-      <c r="F137" t="n">
-        <v>3878.6851</v>
-      </c>
-      <c r="G137" t="n">
-        <v>34936.67027932001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>621</v>
-      </c>
-      <c r="C138" t="n">
-        <v>621</v>
-      </c>
-      <c r="D138" t="n">
-        <v>621</v>
-      </c>
-      <c r="E138" t="n">
-        <v>621</v>
-      </c>
-      <c r="F138" t="n">
-        <v>60.2668</v>
-      </c>
-      <c r="G138" t="n">
-        <v>34936.67027932001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>620</v>
-      </c>
-      <c r="C139" t="n">
-        <v>620</v>
-      </c>
-      <c r="D139" t="n">
-        <v>620</v>
-      </c>
-      <c r="E139" t="n">
-        <v>620</v>
-      </c>
-      <c r="F139" t="n">
-        <v>4300.0277</v>
-      </c>
-      <c r="G139" t="n">
-        <v>30636.64257932001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>620</v>
-      </c>
-      <c r="C140" t="n">
-        <v>620</v>
-      </c>
-      <c r="D140" t="n">
-        <v>620</v>
-      </c>
-      <c r="E140" t="n">
-        <v>620</v>
-      </c>
-      <c r="F140" t="n">
-        <v>76.2787</v>
-      </c>
-      <c r="G140" t="n">
-        <v>30636.64257932001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>616</v>
-      </c>
-      <c r="C141" t="n">
-        <v>610</v>
-      </c>
-      <c r="D141" t="n">
-        <v>616</v>
-      </c>
-      <c r="E141" t="n">
-        <v>610</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1736.0278</v>
-      </c>
-      <c r="G141" t="n">
-        <v>28900.61477932001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>619</v>
-      </c>
-      <c r="C142" t="n">
-        <v>619</v>
-      </c>
-      <c r="D142" t="n">
-        <v>619</v>
-      </c>
-      <c r="E142" t="n">
-        <v>619</v>
-      </c>
-      <c r="F142" t="n">
-        <v>150</v>
-      </c>
-      <c r="G142" t="n">
-        <v>29050.61477932001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>617</v>
-      </c>
-      <c r="C143" t="n">
-        <v>617</v>
-      </c>
-      <c r="D143" t="n">
-        <v>617</v>
-      </c>
-      <c r="E143" t="n">
-        <v>617</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1</v>
-      </c>
-      <c r="G143" t="n">
-        <v>29049.61477932001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>614</v>
-      </c>
-      <c r="C144" t="n">
-        <v>614</v>
-      </c>
-      <c r="D144" t="n">
-        <v>614</v>
-      </c>
-      <c r="E144" t="n">
-        <v>614</v>
-      </c>
-      <c r="F144" t="n">
-        <v>93.3742</v>
-      </c>
-      <c r="G144" t="n">
-        <v>28956.24057932001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>614</v>
-      </c>
-      <c r="C145" t="n">
-        <v>614</v>
-      </c>
-      <c r="D145" t="n">
-        <v>614</v>
-      </c>
-      <c r="E145" t="n">
-        <v>613</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1065.8345</v>
-      </c>
-      <c r="G145" t="n">
-        <v>28956.24057932001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>614</v>
-      </c>
-      <c r="C146" t="n">
-        <v>617</v>
-      </c>
-      <c r="D146" t="n">
-        <v>617</v>
-      </c>
-      <c r="E146" t="n">
-        <v>611</v>
-      </c>
-      <c r="F146" t="n">
-        <v>3697.8045</v>
-      </c>
-      <c r="G146" t="n">
-        <v>32654.04507932001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>610</v>
-      </c>
-      <c r="C147" t="n">
-        <v>610</v>
-      </c>
-      <c r="D147" t="n">
-        <v>610</v>
-      </c>
-      <c r="E147" t="n">
-        <v>610</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G147" t="n">
-        <v>30654.04507932001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>618</v>
-      </c>
-      <c r="C148" t="n">
-        <v>618</v>
-      </c>
-      <c r="D148" t="n">
-        <v>618</v>
-      </c>
-      <c r="E148" t="n">
-        <v>618</v>
-      </c>
-      <c r="F148" t="n">
-        <v>98.1354</v>
-      </c>
-      <c r="G148" t="n">
-        <v>30752.18047932001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>618</v>
-      </c>
-      <c r="C149" t="n">
-        <v>620</v>
-      </c>
-      <c r="D149" t="n">
-        <v>620</v>
-      </c>
-      <c r="E149" t="n">
-        <v>618</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1</v>
-      </c>
-      <c r="G149" t="n">
-        <v>30753.18047932001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>622</v>
-      </c>
-      <c r="C150" t="n">
-        <v>622</v>
-      </c>
-      <c r="D150" t="n">
-        <v>622</v>
-      </c>
-      <c r="E150" t="n">
-        <v>622</v>
-      </c>
-      <c r="F150" t="n">
-        <v>1</v>
-      </c>
-      <c r="G150" t="n">
-        <v>30754.18047932001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>622</v>
-      </c>
-      <c r="C151" t="n">
-        <v>622</v>
-      </c>
-      <c r="D151" t="n">
-        <v>622</v>
-      </c>
-      <c r="E151" t="n">
-        <v>622</v>
-      </c>
-      <c r="F151" t="n">
-        <v>3.3279</v>
-      </c>
-      <c r="G151" t="n">
-        <v>30754.18047932001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>622</v>
-      </c>
-      <c r="C152" t="n">
-        <v>622</v>
-      </c>
-      <c r="D152" t="n">
-        <v>622</v>
-      </c>
-      <c r="E152" t="n">
-        <v>622</v>
-      </c>
-      <c r="F152" t="n">
-        <v>25.6721</v>
-      </c>
-      <c r="G152" t="n">
-        <v>30754.18047932001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>629</v>
-      </c>
-      <c r="C153" t="n">
-        <v>629</v>
-      </c>
-      <c r="D153" t="n">
-        <v>629</v>
-      </c>
-      <c r="E153" t="n">
-        <v>629</v>
-      </c>
-      <c r="F153" t="n">
-        <v>69.9999</v>
-      </c>
-      <c r="G153" t="n">
-        <v>30824.18037932001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>629</v>
-      </c>
-      <c r="C154" t="n">
-        <v>629</v>
-      </c>
-      <c r="D154" t="n">
-        <v>629</v>
-      </c>
-      <c r="E154" t="n">
-        <v>629</v>
-      </c>
-      <c r="F154" t="n">
-        <v>320.9999</v>
-      </c>
-      <c r="G154" t="n">
-        <v>30824.18037932001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>630</v>
-      </c>
-      <c r="C155" t="n">
-        <v>632</v>
-      </c>
-      <c r="D155" t="n">
-        <v>632</v>
-      </c>
-      <c r="E155" t="n">
-        <v>630</v>
-      </c>
-      <c r="F155" t="n">
-        <v>3175.7052</v>
-      </c>
-      <c r="G155" t="n">
-        <v>33999.88557932001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>632</v>
-      </c>
-      <c r="C156" t="n">
-        <v>632</v>
-      </c>
-      <c r="D156" t="n">
-        <v>632</v>
-      </c>
-      <c r="E156" t="n">
-        <v>632</v>
-      </c>
-      <c r="F156" t="n">
-        <v>729.7616</v>
-      </c>
-      <c r="G156" t="n">
-        <v>33999.88557932001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>635</v>
-      </c>
-      <c r="C157" t="n">
-        <v>641</v>
-      </c>
-      <c r="D157" t="n">
-        <v>641</v>
-      </c>
-      <c r="E157" t="n">
-        <v>635</v>
-      </c>
-      <c r="F157" t="n">
-        <v>127</v>
-      </c>
-      <c r="G157" t="n">
-        <v>34126.88557932001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>641</v>
-      </c>
-      <c r="C158" t="n">
-        <v>641</v>
-      </c>
-      <c r="D158" t="n">
-        <v>641</v>
-      </c>
-      <c r="E158" t="n">
-        <v>641</v>
-      </c>
-      <c r="F158" t="n">
-        <v>19.9646</v>
-      </c>
-      <c r="G158" t="n">
-        <v>34126.88557932001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>642</v>
-      </c>
-      <c r="C159" t="n">
-        <v>642</v>
-      </c>
-      <c r="D159" t="n">
-        <v>642</v>
-      </c>
-      <c r="E159" t="n">
-        <v>642</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1</v>
-      </c>
-      <c r="G159" t="n">
-        <v>34127.88557932001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>641</v>
-      </c>
-      <c r="C160" t="n">
-        <v>641</v>
-      </c>
-      <c r="D160" t="n">
-        <v>641</v>
-      </c>
-      <c r="E160" t="n">
-        <v>641</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1827</v>
-      </c>
-      <c r="G160" t="n">
-        <v>32300.88557932001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>641</v>
-      </c>
-      <c r="C161" t="n">
-        <v>641</v>
-      </c>
-      <c r="D161" t="n">
-        <v>641</v>
-      </c>
-      <c r="E161" t="n">
-        <v>641</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1047.2959</v>
-      </c>
-      <c r="G161" t="n">
-        <v>32300.88557932001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>633</v>
-      </c>
-      <c r="C162" t="n">
-        <v>631</v>
-      </c>
-      <c r="D162" t="n">
-        <v>633</v>
-      </c>
-      <c r="E162" t="n">
-        <v>631</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2887.0249</v>
-      </c>
-      <c r="G162" t="n">
-        <v>29413.86067932001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>639</v>
-      </c>
-      <c r="C163" t="n">
-        <v>639</v>
-      </c>
-      <c r="D163" t="n">
-        <v>639</v>
-      </c>
-      <c r="E163" t="n">
-        <v>639</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1</v>
-      </c>
-      <c r="G163" t="n">
-        <v>29414.86067932001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>637</v>
-      </c>
-      <c r="C164" t="n">
-        <v>639</v>
-      </c>
-      <c r="D164" t="n">
-        <v>639</v>
-      </c>
-      <c r="E164" t="n">
-        <v>637</v>
-      </c>
-      <c r="F164" t="n">
-        <v>199.0465</v>
-      </c>
-      <c r="G164" t="n">
-        <v>29414.86067932001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>630</v>
-      </c>
-      <c r="C165" t="n">
-        <v>628</v>
-      </c>
-      <c r="D165" t="n">
-        <v>630</v>
-      </c>
-      <c r="E165" t="n">
-        <v>628</v>
-      </c>
-      <c r="F165" t="n">
-        <v>265</v>
-      </c>
-      <c r="G165" t="n">
-        <v>29149.86067932001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>629</v>
-      </c>
-      <c r="C166" t="n">
-        <v>629</v>
-      </c>
-      <c r="D166" t="n">
-        <v>629</v>
-      </c>
-      <c r="E166" t="n">
-        <v>629</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1</v>
-      </c>
-      <c r="G166" t="n">
-        <v>29150.86067932001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>629</v>
-      </c>
-      <c r="C167" t="n">
-        <v>635</v>
-      </c>
-      <c r="D167" t="n">
-        <v>635</v>
-      </c>
-      <c r="E167" t="n">
-        <v>629</v>
-      </c>
-      <c r="F167" t="n">
-        <v>120</v>
-      </c>
-      <c r="G167" t="n">
-        <v>29270.86067932001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>632</v>
-      </c>
-      <c r="C168" t="n">
-        <v>635</v>
-      </c>
-      <c r="D168" t="n">
-        <v>635</v>
-      </c>
-      <c r="E168" t="n">
-        <v>632</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1179</v>
-      </c>
-      <c r="G168" t="n">
-        <v>29270.86067932001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>636</v>
-      </c>
-      <c r="C169" t="n">
-        <v>642</v>
-      </c>
-      <c r="D169" t="n">
-        <v>642</v>
-      </c>
-      <c r="E169" t="n">
-        <v>636</v>
-      </c>
-      <c r="F169" t="n">
-        <v>2540.8836</v>
-      </c>
-      <c r="G169" t="n">
-        <v>31811.74427932001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>650</v>
-      </c>
-      <c r="C170" t="n">
-        <v>650</v>
-      </c>
-      <c r="D170" t="n">
-        <v>650</v>
-      </c>
-      <c r="E170" t="n">
-        <v>650</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1</v>
-      </c>
-      <c r="G170" t="n">
-        <v>31812.74427932001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>641</v>
-      </c>
-      <c r="C171" t="n">
-        <v>641</v>
-      </c>
-      <c r="D171" t="n">
-        <v>641</v>
-      </c>
-      <c r="E171" t="n">
-        <v>641</v>
-      </c>
-      <c r="F171" t="n">
-        <v>84</v>
-      </c>
-      <c r="G171" t="n">
-        <v>31728.74427932001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>642</v>
-      </c>
-      <c r="C172" t="n">
-        <v>642</v>
-      </c>
-      <c r="D172" t="n">
-        <v>642</v>
-      </c>
-      <c r="E172" t="n">
-        <v>642</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1</v>
-      </c>
-      <c r="G172" t="n">
-        <v>31729.74427932001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>636</v>
-      </c>
-      <c r="C173" t="n">
-        <v>628</v>
-      </c>
-      <c r="D173" t="n">
-        <v>636</v>
-      </c>
-      <c r="E173" t="n">
-        <v>628</v>
-      </c>
-      <c r="F173" t="n">
-        <v>80</v>
-      </c>
-      <c r="G173" t="n">
-        <v>31649.74427932001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>633</v>
-      </c>
-      <c r="C174" t="n">
-        <v>633</v>
-      </c>
-      <c r="D174" t="n">
-        <v>633</v>
-      </c>
-      <c r="E174" t="n">
-        <v>633</v>
-      </c>
-      <c r="F174" t="n">
-        <v>116.4</v>
-      </c>
-      <c r="G174" t="n">
-        <v>31766.14427932001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>640</v>
-      </c>
-      <c r="C175" t="n">
-        <v>640</v>
-      </c>
-      <c r="D175" t="n">
-        <v>640</v>
-      </c>
-      <c r="E175" t="n">
-        <v>640</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1</v>
-      </c>
-      <c r="G175" t="n">
-        <v>31767.14427932001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
+      <c r="N133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest GXC.xlsx
+++ b/BackTest/2019-11-02 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>654</v>
+        <v>624</v>
       </c>
       <c r="C2" t="n">
-        <v>669</v>
+        <v>624</v>
       </c>
       <c r="D2" t="n">
-        <v>670</v>
+        <v>624</v>
       </c>
       <c r="E2" t="n">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="F2" t="n">
-        <v>9968.6764513</v>
+        <v>2575.4932</v>
       </c>
       <c r="G2" t="n">
-        <v>46818.7764513</v>
+        <v>18049.4005</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>665</v>
+        <v>624</v>
       </c>
       <c r="C3" t="n">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="D3" t="n">
-        <v>665</v>
+        <v>626</v>
       </c>
       <c r="E3" t="n">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="F3" t="n">
-        <v>711.4045</v>
+        <v>2549.8994</v>
       </c>
       <c r="G3" t="n">
-        <v>46107.3719513</v>
+        <v>20599.2999</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>669</v>
+        <v>624</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
@@ -516,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="C4" t="n">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="D4" t="n">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="E4" t="n">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="F4" t="n">
-        <v>2937.969</v>
+        <v>120</v>
       </c>
       <c r="G4" t="n">
-        <v>49045.3409513</v>
+        <v>20599.2999</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="C5" t="n">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="D5" t="n">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="E5" t="n">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="F5" t="n">
-        <v>299.25</v>
+        <v>154.6588</v>
       </c>
       <c r="G5" t="n">
-        <v>49045.3409513</v>
+        <v>20444.6411</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
@@ -600,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="C6" t="n">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="D6" t="n">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="E6" t="n">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="F6" t="n">
-        <v>343.2903</v>
+        <v>106.49</v>
       </c>
       <c r="G6" t="n">
-        <v>49388.6312513</v>
+        <v>20551.1311</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
@@ -642,30 +642,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="C7" t="n">
-        <v>655</v>
+        <v>626</v>
       </c>
       <c r="D7" t="n">
-        <v>655</v>
+        <v>626</v>
       </c>
       <c r="E7" t="n">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="F7" t="n">
-        <v>605.7547</v>
+        <v>61.3838</v>
       </c>
       <c r="G7" t="n">
-        <v>49994.3859513</v>
+        <v>20551.1311</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>626</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
@@ -682,30 +684,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>655</v>
+        <v>626</v>
       </c>
       <c r="C8" t="n">
-        <v>658</v>
+        <v>627</v>
       </c>
       <c r="D8" t="n">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="E8" t="n">
-        <v>655</v>
+        <v>626</v>
       </c>
       <c r="F8" t="n">
-        <v>5408.0325</v>
+        <v>3508.9226</v>
       </c>
       <c r="G8" t="n">
-        <v>55402.4184513</v>
+        <v>24060.0537</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>626</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
@@ -722,30 +726,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="C9" t="n">
-        <v>662</v>
+        <v>627</v>
       </c>
       <c r="D9" t="n">
-        <v>662</v>
+        <v>627</v>
       </c>
       <c r="E9" t="n">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="F9" t="n">
-        <v>3828.8718</v>
+        <v>232.6985</v>
       </c>
       <c r="G9" t="n">
-        <v>59231.2902513</v>
+        <v>24060.0537</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>627</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
@@ -762,30 +768,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>662</v>
+        <v>627</v>
       </c>
       <c r="C10" t="n">
-        <v>666</v>
+        <v>627</v>
       </c>
       <c r="D10" t="n">
-        <v>677</v>
+        <v>627</v>
       </c>
       <c r="E10" t="n">
-        <v>662</v>
+        <v>627</v>
       </c>
       <c r="F10" t="n">
-        <v>9797.9185</v>
+        <v>120</v>
       </c>
       <c r="G10" t="n">
-        <v>69029.2087513</v>
+        <v>24060.0537</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>627</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
@@ -802,30 +810,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666</v>
+        <v>627</v>
       </c>
       <c r="C11" t="n">
-        <v>676</v>
+        <v>634</v>
       </c>
       <c r="D11" t="n">
-        <v>676</v>
+        <v>634</v>
       </c>
       <c r="E11" t="n">
-        <v>665</v>
+        <v>627</v>
       </c>
       <c r="F11" t="n">
-        <v>609</v>
+        <v>1445.0117</v>
       </c>
       <c r="G11" t="n">
-        <v>69638.2087513</v>
+        <v>25505.0654</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>627</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
@@ -842,30 +852,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>667</v>
+        <v>630</v>
       </c>
       <c r="C12" t="n">
-        <v>675</v>
+        <v>633</v>
       </c>
       <c r="D12" t="n">
-        <v>677</v>
+        <v>633</v>
       </c>
       <c r="E12" t="n">
-        <v>666</v>
+        <v>630</v>
       </c>
       <c r="F12" t="n">
-        <v>6248.3066</v>
+        <v>378.2518</v>
       </c>
       <c r="G12" t="n">
-        <v>63389.9021513</v>
+        <v>25126.81359999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>634</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -882,30 +894,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>667</v>
+        <v>633</v>
       </c>
       <c r="C13" t="n">
-        <v>676</v>
+        <v>633</v>
       </c>
       <c r="D13" t="n">
-        <v>676</v>
+        <v>633</v>
       </c>
       <c r="E13" t="n">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="F13" t="n">
-        <v>1412.41873037</v>
+        <v>107.2259</v>
       </c>
       <c r="G13" t="n">
-        <v>64802.32088167001</v>
+        <v>25126.81359999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>633</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
@@ -922,30 +936,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>667</v>
+        <v>633</v>
       </c>
       <c r="C14" t="n">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="D14" t="n">
-        <v>676</v>
+        <v>633</v>
       </c>
       <c r="E14" t="n">
-        <v>666</v>
+        <v>631</v>
       </c>
       <c r="F14" t="n">
-        <v>1705.0221</v>
+        <v>166.2258</v>
       </c>
       <c r="G14" t="n">
-        <v>63097.29878167</v>
+        <v>24960.58779999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>633</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
@@ -962,37 +978,41 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673</v>
+        <v>631</v>
       </c>
       <c r="C15" t="n">
-        <v>657</v>
+        <v>632</v>
       </c>
       <c r="D15" t="n">
-        <v>673</v>
+        <v>632</v>
       </c>
       <c r="E15" t="n">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="F15" t="n">
-        <v>4720.144</v>
+        <v>459.9925</v>
       </c>
       <c r="G15" t="n">
-        <v>58377.15478167</v>
+        <v>25420.58029999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>631</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
       <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1000,32 +1020,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="C16" t="n">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="D16" t="n">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="E16" t="n">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="F16" t="n">
-        <v>92</v>
+        <v>3205.0109</v>
       </c>
       <c r="G16" t="n">
-        <v>58285.15478167</v>
+        <v>25420.58029999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>632</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1036,32 +1062,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>669</v>
+        <v>633</v>
       </c>
       <c r="C17" t="n">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="D17" t="n">
-        <v>671</v>
+        <v>633</v>
       </c>
       <c r="E17" t="n">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="F17" t="n">
-        <v>2308.589</v>
+        <v>192.7589</v>
       </c>
       <c r="G17" t="n">
-        <v>55976.56578167</v>
+        <v>25613.33919999999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>632</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1072,32 +1104,38 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="C18" t="n">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="D18" t="n">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="E18" t="n">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="F18" t="n">
-        <v>111.47233515</v>
+        <v>160</v>
       </c>
       <c r="G18" t="n">
-        <v>56088.03811682</v>
+        <v>25613.33919999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>633</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1108,22 +1146,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="C19" t="n">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="D19" t="n">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="E19" t="n">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="F19" t="n">
-        <v>141</v>
+        <v>232.1168</v>
       </c>
       <c r="G19" t="n">
-        <v>55947.03811682</v>
+        <v>25381.2224</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1133,7 +1171,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1144,32 +1186,38 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="C20" t="n">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="D20" t="n">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="E20" t="n">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="F20" t="n">
-        <v>3171.8484</v>
+        <v>2628.2977</v>
       </c>
       <c r="G20" t="n">
-        <v>52775.18971682</v>
+        <v>25381.2224</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>632</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1180,22 +1228,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="C21" t="n">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="D21" t="n">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="E21" t="n">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="F21" t="n">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="G21" t="n">
-        <v>52775.18971682</v>
+        <v>25301.2224</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1205,7 +1253,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1216,32 +1268,38 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="C22" t="n">
-        <v>652</v>
+        <v>618</v>
       </c>
       <c r="D22" t="n">
-        <v>652</v>
+        <v>619</v>
       </c>
       <c r="E22" t="n">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="F22" t="n">
-        <v>3183.612</v>
+        <v>1547.667</v>
       </c>
       <c r="G22" t="n">
-        <v>55958.80171682</v>
+        <v>25301.2224</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>618</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1252,32 +1310,38 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>657</v>
+        <v>611</v>
       </c>
       <c r="C23" t="n">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="D23" t="n">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="E23" t="n">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>4839.0297</v>
       </c>
       <c r="G23" t="n">
-        <v>55964.80171682</v>
+        <v>30140.25209999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>618</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1288,32 +1352,38 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>657</v>
+        <v>618</v>
       </c>
       <c r="C24" t="n">
-        <v>668</v>
+        <v>620</v>
       </c>
       <c r="D24" t="n">
-        <v>668</v>
+        <v>620</v>
       </c>
       <c r="E24" t="n">
-        <v>657</v>
+        <v>618</v>
       </c>
       <c r="F24" t="n">
-        <v>1316.5298</v>
+        <v>586.6660000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>57281.33151682</v>
+        <v>29553.58609999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>624</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1324,32 +1394,38 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>649</v>
+        <v>620</v>
       </c>
       <c r="C25" t="n">
-        <v>649</v>
+        <v>620</v>
       </c>
       <c r="D25" t="n">
-        <v>649</v>
+        <v>620</v>
       </c>
       <c r="E25" t="n">
-        <v>649</v>
+        <v>620</v>
       </c>
       <c r="F25" t="n">
-        <v>223.004</v>
+        <v>319</v>
       </c>
       <c r="G25" t="n">
-        <v>57058.32751682</v>
+        <v>29553.58609999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>620</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1360,32 +1436,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>649</v>
+        <v>620</v>
       </c>
       <c r="C26" t="n">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="D26" t="n">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="E26" t="n">
-        <v>649</v>
+        <v>620</v>
       </c>
       <c r="F26" t="n">
-        <v>5644.484</v>
+        <v>80</v>
       </c>
       <c r="G26" t="n">
-        <v>62702.81151682</v>
+        <v>29633.58609999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>620</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1396,32 +1478,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>652</v>
+        <v>622</v>
       </c>
       <c r="C27" t="n">
-        <v>661</v>
+        <v>622</v>
       </c>
       <c r="D27" t="n">
-        <v>662</v>
+        <v>622</v>
       </c>
       <c r="E27" t="n">
-        <v>652</v>
+        <v>622</v>
       </c>
       <c r="F27" t="n">
-        <v>332.9242</v>
+        <v>3.7463</v>
       </c>
       <c r="G27" t="n">
-        <v>62369.88731682</v>
+        <v>29629.83979999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>630</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1432,32 +1520,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>651</v>
+        <v>624</v>
       </c>
       <c r="C28" t="n">
-        <v>659</v>
+        <v>624</v>
       </c>
       <c r="D28" t="n">
-        <v>659</v>
+        <v>624</v>
       </c>
       <c r="E28" t="n">
-        <v>651</v>
+        <v>624</v>
       </c>
       <c r="F28" t="n">
-        <v>223</v>
+        <v>614.0712</v>
       </c>
       <c r="G28" t="n">
-        <v>62146.88731682</v>
+        <v>30243.91099999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>622</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1468,32 +1562,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>653</v>
+        <v>624</v>
       </c>
       <c r="C29" t="n">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="D29" t="n">
-        <v>659</v>
+        <v>625</v>
       </c>
       <c r="E29" t="n">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="F29" t="n">
-        <v>1267.8421</v>
+        <v>570.5667</v>
       </c>
       <c r="G29" t="n">
-        <v>60879.04521682</v>
+        <v>30243.91099999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>624</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1504,32 +1604,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="C30" t="n">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="D30" t="n">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="E30" t="n">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="F30" t="n">
-        <v>18124.4248</v>
+        <v>1485</v>
       </c>
       <c r="G30" t="n">
-        <v>42754.62041682</v>
+        <v>30243.91099999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>624</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1540,32 +1646,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="C31" t="n">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="D31" t="n">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="E31" t="n">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="F31" t="n">
-        <v>691.5916999999999</v>
+        <v>611</v>
       </c>
       <c r="G31" t="n">
-        <v>42063.02871682</v>
+        <v>29632.91099999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>624</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1576,32 +1688,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="C32" t="n">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="D32" t="n">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="E32" t="n">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="F32" t="n">
-        <v>871.5042999999999</v>
+        <v>524</v>
       </c>
       <c r="G32" t="n">
-        <v>42934.53301682</v>
+        <v>29632.91099999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>623</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1612,32 +1730,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="C33" t="n">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="D33" t="n">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="E33" t="n">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="F33" t="n">
-        <v>337.7435</v>
+        <v>1769.6616</v>
       </c>
       <c r="G33" t="n">
-        <v>42596.78951682</v>
+        <v>29632.91099999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>623</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1648,32 +1772,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="C34" t="n">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="D34" t="n">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="E34" t="n">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="F34" t="n">
-        <v>620.215</v>
+        <v>627.5907999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>41976.57451682001</v>
+        <v>29632.91099999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>623</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1684,32 +1814,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C35" t="n">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="D35" t="n">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="E35" t="n">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="F35" t="n">
-        <v>3.5515625</v>
+        <v>1726.1904</v>
       </c>
       <c r="G35" t="n">
-        <v>41980.12607932001</v>
+        <v>27906.72059999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>623</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1720,32 +1856,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="C36" t="n">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D36" t="n">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E36" t="n">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="F36" t="n">
-        <v>126.6781</v>
+        <v>772.2725</v>
       </c>
       <c r="G36" t="n">
-        <v>41980.12607932001</v>
+        <v>28678.99309999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>621</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1756,22 +1898,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="C37" t="n">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="D37" t="n">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="E37" t="n">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="F37" t="n">
-        <v>6670.8105</v>
+        <v>40</v>
       </c>
       <c r="G37" t="n">
-        <v>35309.31557932001</v>
+        <v>28638.99309999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1781,7 +1923,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1792,22 +1938,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C38" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D38" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E38" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F38" t="n">
-        <v>144.9105</v>
+        <v>280</v>
       </c>
       <c r="G38" t="n">
-        <v>35164.40507932001</v>
+        <v>28918.99309999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1817,7 +1963,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1828,22 +1978,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C39" t="n">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="D39" t="n">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="E39" t="n">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="F39" t="n">
-        <v>762.8625</v>
+        <v>402.2115</v>
       </c>
       <c r="G39" t="n">
-        <v>35164.40507932001</v>
+        <v>28516.78159999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1853,7 +2003,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1864,32 +2018,38 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C40" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D40" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="E40" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="F40" t="n">
-        <v>489.2892</v>
+        <v>347.7636</v>
       </c>
       <c r="G40" t="n">
-        <v>35164.40507932001</v>
+        <v>28169.01799999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>622</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1900,22 +2060,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C41" t="n">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="D41" t="n">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="E41" t="n">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F41" t="n">
-        <v>327.8942</v>
+        <v>5167.3208</v>
       </c>
       <c r="G41" t="n">
-        <v>35492.29927932001</v>
+        <v>28169.01799999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1925,7 +2085,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1936,22 +2100,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C42" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D42" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="E42" t="n">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="F42" t="n">
-        <v>546.4</v>
+        <v>1037.1241</v>
       </c>
       <c r="G42" t="n">
-        <v>34945.89927932001</v>
+        <v>28169.01799999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1961,7 +2125,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1972,7 +2140,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="C43" t="n">
         <v>631</v>
@@ -1981,13 +2149,13 @@
         <v>631</v>
       </c>
       <c r="E43" t="n">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F43" t="n">
-        <v>352</v>
+        <v>2377.3354</v>
       </c>
       <c r="G43" t="n">
-        <v>35297.89927932001</v>
+        <v>30546.35339999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1997,7 +2165,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2180,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C44" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D44" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E44" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F44" t="n">
-        <v>397.8578</v>
+        <v>31.645</v>
       </c>
       <c r="G44" t="n">
-        <v>34900.04147932001</v>
+        <v>30577.99839999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2033,7 +2205,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2044,22 +2220,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C45" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D45" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E45" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F45" t="n">
-        <v>306.3767</v>
+        <v>9223.385899999999</v>
       </c>
       <c r="G45" t="n">
-        <v>34900.04147932001</v>
+        <v>21354.6125</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2069,7 +2245,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2080,22 +2260,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C46" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D46" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E46" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F46" t="n">
-        <v>97.2</v>
+        <v>376.017</v>
       </c>
       <c r="G46" t="n">
-        <v>34900.04147932001</v>
+        <v>21730.6295</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2105,7 +2285,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2116,22 +2300,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C47" t="n">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D47" t="n">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="E47" t="n">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="F47" t="n">
-        <v>4265</v>
+        <v>594</v>
       </c>
       <c r="G47" t="n">
-        <v>30635.04147932001</v>
+        <v>22324.6295</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2141,7 +2325,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2152,22 +2340,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C48" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="D48" t="n">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="E48" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>4018.2797</v>
       </c>
       <c r="G48" t="n">
-        <v>30636.04147932001</v>
+        <v>26342.90919999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2177,7 +2365,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2188,22 +2380,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="C49" t="n">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D49" t="n">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="E49" t="n">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="F49" t="n">
-        <v>221.2716</v>
+        <v>1062.5518</v>
       </c>
       <c r="G49" t="n">
-        <v>30857.31307932001</v>
+        <v>26342.90919999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2213,7 +2405,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2224,22 +2420,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="C50" t="n">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="D50" t="n">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="E50" t="n">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="F50" t="n">
-        <v>658.7659</v>
+        <v>3856.3228</v>
       </c>
       <c r="G50" t="n">
-        <v>30198.54717932001</v>
+        <v>26342.90919999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2249,7 +2445,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2260,22 +2460,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="C51" t="n">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D51" t="n">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E51" t="n">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F51" t="n">
-        <v>271.2003</v>
+        <v>1150.9087</v>
       </c>
       <c r="G51" t="n">
-        <v>30469.74747932001</v>
+        <v>25192.00049999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2285,7 +2485,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2296,22 +2500,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="C52" t="n">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D52" t="n">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="E52" t="n">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="F52" t="n">
-        <v>346.3633</v>
+        <v>343.6212</v>
       </c>
       <c r="G52" t="n">
-        <v>30469.74747932001</v>
+        <v>25535.6217</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2321,7 +2525,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2332,22 +2540,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="C53" t="n">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D53" t="n">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="E53" t="n">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="F53" t="n">
-        <v>344.3934</v>
+        <v>800.8203999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>30469.74747932001</v>
+        <v>25535.6217</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2357,7 +2565,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2368,22 +2580,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C54" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D54" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E54" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F54" t="n">
         <v>30</v>
       </c>
       <c r="G54" t="n">
-        <v>30499.74747932001</v>
+        <v>25505.6217</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2393,7 +2605,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2404,22 +2620,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C55" t="n">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D55" t="n">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E55" t="n">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F55" t="n">
-        <v>7791.7284</v>
+        <v>1.1939</v>
       </c>
       <c r="G55" t="n">
-        <v>38291.47587932002</v>
+        <v>25505.6217</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2429,7 +2645,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2440,22 +2660,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C56" t="n">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="D56" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E56" t="n">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="F56" t="n">
-        <v>1024</v>
+        <v>1737.3368</v>
       </c>
       <c r="G56" t="n">
-        <v>37267.47587932002</v>
+        <v>23768.2849</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2465,7 +2685,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2476,22 +2700,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C57" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D57" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="E57" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>604.1217</v>
       </c>
       <c r="G57" t="n">
-        <v>37267.47587932002</v>
+        <v>23164.1632</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2501,7 +2725,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2512,22 +2740,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C58" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D58" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E58" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F58" t="n">
-        <v>276.2231</v>
+        <v>2988.7467</v>
       </c>
       <c r="G58" t="n">
-        <v>36991.25277932001</v>
+        <v>26152.9099</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2537,7 +2765,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2548,22 +2780,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="C59" t="n">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="D59" t="n">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="E59" t="n">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F59" t="n">
-        <v>315</v>
+        <v>326.2148</v>
       </c>
       <c r="G59" t="n">
-        <v>37306.25277932001</v>
+        <v>25826.69509999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2573,7 +2805,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2584,22 +2820,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C60" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D60" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E60" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F60" t="n">
-        <v>406.4377</v>
+        <v>41.0419</v>
       </c>
       <c r="G60" t="n">
-        <v>36899.81507932001</v>
+        <v>25867.73699999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2609,7 +2845,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2620,22 +2860,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C61" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D61" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E61" t="n">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="F61" t="n">
-        <v>2871.36</v>
+        <v>364.4399</v>
       </c>
       <c r="G61" t="n">
-        <v>34028.45507932001</v>
+        <v>26232.17689999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2645,7 +2885,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2656,22 +2900,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C62" t="n">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D62" t="n">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E62" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F62" t="n">
-        <v>749.1107</v>
+        <v>436.295</v>
       </c>
       <c r="G62" t="n">
-        <v>33279.34437932001</v>
+        <v>26668.47189999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2681,7 +2925,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2692,22 +2940,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="C63" t="n">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="D63" t="n">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="E63" t="n">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="F63" t="n">
-        <v>1690.0218</v>
+        <v>651.0411</v>
       </c>
       <c r="G63" t="n">
-        <v>31589.32257932001</v>
+        <v>26668.47189999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2717,7 +2965,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2728,22 +2980,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="C64" t="n">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="D64" t="n">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="E64" t="n">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="F64" t="n">
-        <v>8.365</v>
+        <v>7127.1943</v>
       </c>
       <c r="G64" t="n">
-        <v>31597.68757932002</v>
+        <v>33795.66619999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2753,7 +3005,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2764,22 +3020,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C65" t="n">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D65" t="n">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="E65" t="n">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="F65" t="n">
-        <v>156</v>
+        <v>410.2186</v>
       </c>
       <c r="G65" t="n">
-        <v>31753.68757932002</v>
+        <v>34205.88479999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2789,7 +3045,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2800,22 +3060,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="C66" t="n">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="D66" t="n">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="E66" t="n">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="F66" t="n">
-        <v>281.0104</v>
+        <v>80</v>
       </c>
       <c r="G66" t="n">
-        <v>31472.67717932002</v>
+        <v>34285.88479999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2825,7 +3085,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2836,22 +3100,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="C67" t="n">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="D67" t="n">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="E67" t="n">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="F67" t="n">
-        <v>11.105</v>
+        <v>131.1755</v>
       </c>
       <c r="G67" t="n">
-        <v>31472.67717932002</v>
+        <v>34285.88479999999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2861,7 +3125,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2872,22 +3140,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="C68" t="n">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="D68" t="n">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="E68" t="n">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G68" t="n">
-        <v>31473.67717932002</v>
+        <v>34325.88479999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2897,7 +3165,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2908,22 +3180,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="C69" t="n">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="D69" t="n">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="E69" t="n">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="F69" t="n">
-        <v>52.8425</v>
+        <v>189</v>
       </c>
       <c r="G69" t="n">
-        <v>31420.83467932002</v>
+        <v>34325.88479999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2933,7 +3205,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2944,22 +3220,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="C70" t="n">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="D70" t="n">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="E70" t="n">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="F70" t="n">
-        <v>257.9528</v>
+        <v>2077.6429</v>
       </c>
       <c r="G70" t="n">
-        <v>31162.88187932002</v>
+        <v>32248.24189999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2969,7 +3245,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2980,22 +3260,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>625</v>
+        <v>648</v>
       </c>
       <c r="C71" t="n">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="D71" t="n">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="E71" t="n">
-        <v>625</v>
+        <v>648</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>3002.8582</v>
       </c>
       <c r="G71" t="n">
-        <v>31163.88187932002</v>
+        <v>35251.1001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3005,7 +3285,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3016,22 +3300,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>625</v>
+        <v>651</v>
       </c>
       <c r="C72" t="n">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="D72" t="n">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="E72" t="n">
-        <v>625</v>
+        <v>651</v>
       </c>
       <c r="F72" t="n">
-        <v>1667</v>
+        <v>1598.9999</v>
       </c>
       <c r="G72" t="n">
-        <v>32830.88187932002</v>
+        <v>36850.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3041,7 +3325,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3052,22 +3340,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>629</v>
+        <v>654</v>
       </c>
       <c r="C73" t="n">
-        <v>630</v>
+        <v>669</v>
       </c>
       <c r="D73" t="n">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="E73" t="n">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="F73" t="n">
-        <v>105</v>
+        <v>9968.6764513</v>
       </c>
       <c r="G73" t="n">
-        <v>32935.88187932002</v>
+        <v>46818.7764513</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3077,7 +3365,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3088,22 +3380,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>622</v>
+        <v>665</v>
       </c>
       <c r="C74" t="n">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="D74" t="n">
-        <v>628</v>
+        <v>665</v>
       </c>
       <c r="E74" t="n">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="F74" t="n">
-        <v>137.0987</v>
+        <v>711.4045</v>
       </c>
       <c r="G74" t="n">
-        <v>32798.78317932002</v>
+        <v>46107.3719513</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3113,7 +3405,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3124,22 +3420,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="C75" t="n">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="D75" t="n">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="E75" t="n">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2937.969</v>
       </c>
       <c r="G75" t="n">
-        <v>32799.78317932002</v>
+        <v>49045.3409513</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3149,7 +3445,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3160,36 +3460,36 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="C76" t="n">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="D76" t="n">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="E76" t="n">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="F76" t="n">
-        <v>198.1202</v>
+        <v>299.25</v>
       </c>
       <c r="G76" t="n">
-        <v>32601.66297932002</v>
+        <v>49045.3409513</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>628</v>
-      </c>
-      <c r="K76" t="n">
-        <v>628</v>
-      </c>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3200,38 +3500,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>623</v>
+        <v>650</v>
       </c>
       <c r="C77" t="n">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="D77" t="n">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="E77" t="n">
-        <v>623</v>
+        <v>650</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0001</v>
+        <v>343.2903</v>
       </c>
       <c r="G77" t="n">
-        <v>32601.66297932002</v>
+        <v>49388.6312513</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>623</v>
-      </c>
-      <c r="K77" t="n">
-        <v>628</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M77" t="n">
@@ -3244,38 +3540,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>623</v>
+        <v>653</v>
       </c>
       <c r="C78" t="n">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D78" t="n">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="E78" t="n">
-        <v>623</v>
+        <v>651</v>
       </c>
       <c r="F78" t="n">
-        <v>49.2238</v>
+        <v>605.7547</v>
       </c>
       <c r="G78" t="n">
-        <v>32601.66297932002</v>
+        <v>49994.3859513</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>623</v>
-      </c>
-      <c r="K78" t="n">
-        <v>628</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -3288,36 +3580,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="C79" t="n">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="D79" t="n">
-        <v>624</v>
+        <v>659</v>
       </c>
       <c r="E79" t="n">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="F79" t="n">
-        <v>2636.5544</v>
+        <v>5408.0325</v>
       </c>
       <c r="G79" t="n">
-        <v>35238.21737932001</v>
+        <v>55402.4184513</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>623</v>
-      </c>
-      <c r="K79" t="n">
-        <v>623</v>
-      </c>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3328,38 +3620,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>622</v>
+        <v>657</v>
       </c>
       <c r="C80" t="n">
-        <v>621</v>
+        <v>662</v>
       </c>
       <c r="D80" t="n">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="E80" t="n">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="F80" t="n">
-        <v>695.5869</v>
+        <v>3828.8718</v>
       </c>
       <c r="G80" t="n">
-        <v>34542.63047932001</v>
+        <v>59231.2902513</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>624</v>
-      </c>
-      <c r="K80" t="n">
-        <v>623</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -3372,35 +3660,31 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>624</v>
+        <v>662</v>
       </c>
       <c r="C81" t="n">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="D81" t="n">
-        <v>624</v>
+        <v>677</v>
       </c>
       <c r="E81" t="n">
-        <v>624</v>
+        <v>662</v>
       </c>
       <c r="F81" t="n">
-        <v>3724.6746</v>
+        <v>9797.9185</v>
       </c>
       <c r="G81" t="n">
-        <v>38267.30507932001</v>
+        <v>69029.2087513</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>621</v>
-      </c>
-      <c r="K81" t="n">
-        <v>623</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3416,43 +3700,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>621</v>
+        <v>666</v>
       </c>
       <c r="C82" t="n">
-        <v>621</v>
+        <v>676</v>
       </c>
       <c r="D82" t="n">
-        <v>621</v>
+        <v>676</v>
       </c>
       <c r="E82" t="n">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="F82" t="n">
-        <v>3.4156</v>
+        <v>609</v>
       </c>
       <c r="G82" t="n">
-        <v>38263.88947932001</v>
+        <v>69638.2087513</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>624</v>
-      </c>
-      <c r="K82" t="n">
-        <v>623</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -3460,40 +3738,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>624</v>
+        <v>667</v>
       </c>
       <c r="C83" t="n">
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="D83" t="n">
-        <v>624</v>
+        <v>677</v>
       </c>
       <c r="E83" t="n">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="F83" t="n">
-        <v>2236.0644</v>
+        <v>6248.3066</v>
       </c>
       <c r="G83" t="n">
-        <v>40499.95387932001</v>
+        <v>63389.9021513</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>621</v>
-      </c>
-      <c r="K83" t="n">
-        <v>623</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3504,40 +3774,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>624</v>
+        <v>667</v>
       </c>
       <c r="C84" t="n">
-        <v>624</v>
+        <v>676</v>
       </c>
       <c r="D84" t="n">
-        <v>624</v>
+        <v>676</v>
       </c>
       <c r="E84" t="n">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="F84" t="n">
-        <v>502.5578</v>
+        <v>1412.41873037</v>
       </c>
       <c r="G84" t="n">
-        <v>40499.95387932001</v>
+        <v>64802.32088167001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>624</v>
-      </c>
-      <c r="K84" t="n">
-        <v>623</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3548,40 +3810,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>625</v>
+        <v>667</v>
       </c>
       <c r="C85" t="n">
-        <v>625</v>
+        <v>666</v>
       </c>
       <c r="D85" t="n">
-        <v>625</v>
+        <v>676</v>
       </c>
       <c r="E85" t="n">
-        <v>625</v>
+        <v>666</v>
       </c>
       <c r="F85" t="n">
-        <v>341.681</v>
+        <v>1705.0221</v>
       </c>
       <c r="G85" t="n">
-        <v>40841.63487932001</v>
+        <v>63097.29878167</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>624</v>
-      </c>
-      <c r="K85" t="n">
-        <v>623</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3592,40 +3846,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>627</v>
+        <v>673</v>
       </c>
       <c r="C86" t="n">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="D86" t="n">
-        <v>627</v>
+        <v>673</v>
       </c>
       <c r="E86" t="n">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="F86" t="n">
-        <v>562.3778</v>
+        <v>4720.144</v>
       </c>
       <c r="G86" t="n">
-        <v>41404.01267932001</v>
+        <v>58377.15478167</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>625</v>
-      </c>
-      <c r="K86" t="n">
-        <v>623</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3636,40 +3882,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="C87" t="n">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="D87" t="n">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="E87" t="n">
-        <v>627</v>
+        <v>656</v>
       </c>
       <c r="F87" t="n">
-        <v>3444.5831</v>
+        <v>92</v>
       </c>
       <c r="G87" t="n">
-        <v>41404.01267932001</v>
+        <v>58285.15478167</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>627</v>
-      </c>
-      <c r="K87" t="n">
-        <v>623</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3680,38 +3918,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>624</v>
+        <v>669</v>
       </c>
       <c r="C88" t="n">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D88" t="n">
-        <v>624</v>
+        <v>671</v>
       </c>
       <c r="E88" t="n">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="F88" t="n">
-        <v>386.4392</v>
+        <v>2308.589</v>
       </c>
       <c r="G88" t="n">
-        <v>41017.57347932001</v>
+        <v>55976.56578167</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>623</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3722,38 +3954,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>623</v>
+        <v>656</v>
       </c>
       <c r="C89" t="n">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="D89" t="n">
-        <v>623</v>
+        <v>657</v>
       </c>
       <c r="E89" t="n">
-        <v>621</v>
+        <v>656</v>
       </c>
       <c r="F89" t="n">
-        <v>2204.758</v>
+        <v>111.47233515</v>
       </c>
       <c r="G89" t="n">
-        <v>38812.81547932001</v>
+        <v>56088.03811682</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>623</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3764,40 +3990,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="C90" t="n">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="D90" t="n">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="E90" t="n">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="F90" t="n">
-        <v>1685</v>
+        <v>141</v>
       </c>
       <c r="G90" t="n">
-        <v>38812.81547932001</v>
+        <v>55947.03811682</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>621</v>
-      </c>
-      <c r="K90" t="n">
-        <v>623</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3808,40 +4026,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="C91" t="n">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="D91" t="n">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="E91" t="n">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="F91" t="n">
-        <v>689</v>
+        <v>3171.8484</v>
       </c>
       <c r="G91" t="n">
-        <v>38812.81547932001</v>
+        <v>52775.18971682</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>621</v>
-      </c>
-      <c r="K91" t="n">
-        <v>623</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3852,40 +4062,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="C92" t="n">
-        <v>621</v>
+        <v>644</v>
       </c>
       <c r="D92" t="n">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="E92" t="n">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="F92" t="n">
-        <v>1667</v>
+        <v>444</v>
       </c>
       <c r="G92" t="n">
-        <v>38812.81547932001</v>
+        <v>52775.18971682</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>621</v>
-      </c>
-      <c r="K92" t="n">
-        <v>623</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3896,40 +4098,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="C93" t="n">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="D93" t="n">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="E93" t="n">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="F93" t="n">
-        <v>3.5399</v>
+        <v>3183.612</v>
       </c>
       <c r="G93" t="n">
-        <v>38816.35537932001</v>
+        <v>55958.80171682</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>621</v>
-      </c>
-      <c r="K93" t="n">
-        <v>623</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3940,22 +4134,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="C94" t="n">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="D94" t="n">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="E94" t="n">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G94" t="n">
-        <v>38815.35537932001</v>
+        <v>55964.80171682</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3964,14 +4158,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>623</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3982,22 +4170,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="C95" t="n">
-        <v>621</v>
+        <v>668</v>
       </c>
       <c r="D95" t="n">
-        <v>621</v>
+        <v>668</v>
       </c>
       <c r="E95" t="n">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="F95" t="n">
-        <v>3878.6851</v>
+        <v>1316.5298</v>
       </c>
       <c r="G95" t="n">
-        <v>34936.67027932001</v>
+        <v>57281.33151682</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4006,14 +4194,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>623</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4024,38 +4206,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="C96" t="n">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="D96" t="n">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="E96" t="n">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="F96" t="n">
-        <v>60.2668</v>
+        <v>223.004</v>
       </c>
       <c r="G96" t="n">
-        <v>34936.67027932001</v>
+        <v>57058.32751682</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>623</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4066,22 +4242,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>620</v>
+        <v>649</v>
       </c>
       <c r="C97" t="n">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="D97" t="n">
-        <v>620</v>
+        <v>663</v>
       </c>
       <c r="E97" t="n">
-        <v>620</v>
+        <v>649</v>
       </c>
       <c r="F97" t="n">
-        <v>4300.0277</v>
+        <v>5644.484</v>
       </c>
       <c r="G97" t="n">
-        <v>30636.64257932001</v>
+        <v>62702.81151682</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4090,14 +4266,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>623</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +4278,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="C98" t="n">
-        <v>620</v>
+        <v>661</v>
       </c>
       <c r="D98" t="n">
-        <v>620</v>
+        <v>662</v>
       </c>
       <c r="E98" t="n">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="F98" t="n">
-        <v>76.2787</v>
+        <v>332.9242</v>
       </c>
       <c r="G98" t="n">
-        <v>30636.64257932001</v>
+        <v>62369.88731682</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4132,14 +4302,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>623</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4150,40 +4314,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>616</v>
+        <v>651</v>
       </c>
       <c r="C99" t="n">
-        <v>610</v>
+        <v>659</v>
       </c>
       <c r="D99" t="n">
-        <v>616</v>
+        <v>659</v>
       </c>
       <c r="E99" t="n">
-        <v>610</v>
+        <v>651</v>
       </c>
       <c r="F99" t="n">
-        <v>1736.0278</v>
+        <v>223</v>
       </c>
       <c r="G99" t="n">
-        <v>28900.61477932001</v>
+        <v>62146.88731682</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>620</v>
-      </c>
-      <c r="K99" t="n">
-        <v>623</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4194,40 +4350,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="C100" t="n">
-        <v>619</v>
+        <v>652</v>
       </c>
       <c r="D100" t="n">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="E100" t="n">
-        <v>619</v>
+        <v>652</v>
       </c>
       <c r="F100" t="n">
-        <v>150</v>
+        <v>1267.8421</v>
       </c>
       <c r="G100" t="n">
-        <v>29050.61477932001</v>
+        <v>60879.04521682</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>610</v>
-      </c>
-      <c r="K100" t="n">
-        <v>623</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4238,38 +4386,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>617</v>
+        <v>652</v>
       </c>
       <c r="C101" t="n">
-        <v>617</v>
+        <v>644</v>
       </c>
       <c r="D101" t="n">
-        <v>617</v>
+        <v>652</v>
       </c>
       <c r="E101" t="n">
-        <v>617</v>
+        <v>644</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>18124.4248</v>
       </c>
       <c r="G101" t="n">
-        <v>29049.61477932001</v>
+        <v>42754.62041682</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>623</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4280,38 +4422,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>614</v>
+        <v>643</v>
       </c>
       <c r="C102" t="n">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="D102" t="n">
-        <v>614</v>
+        <v>643</v>
       </c>
       <c r="E102" t="n">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="F102" t="n">
-        <v>93.3742</v>
+        <v>691.5916999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>28956.24057932001</v>
+        <v>42063.02871682</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>623</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4322,22 +4458,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="C103" t="n">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="D103" t="n">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="E103" t="n">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="F103" t="n">
-        <v>1065.8345</v>
+        <v>871.5042999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>28956.24057932001</v>
+        <v>42934.53301682</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4346,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>623</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4364,22 +4494,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="C104" t="n">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="D104" t="n">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="E104" t="n">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="F104" t="n">
-        <v>3697.8045</v>
+        <v>337.7435</v>
       </c>
       <c r="G104" t="n">
-        <v>32654.04507932001</v>
+        <v>42596.78951682</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4388,14 +4518,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>623</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4406,22 +4530,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="C105" t="n">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="D105" t="n">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="E105" t="n">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="F105" t="n">
-        <v>2000</v>
+        <v>620.215</v>
       </c>
       <c r="G105" t="n">
-        <v>30654.04507932001</v>
+        <v>41976.57451682001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4430,14 +4554,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>623</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4448,40 +4566,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C106" t="n">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="D106" t="n">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="E106" t="n">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="F106" t="n">
-        <v>98.1354</v>
+        <v>3.5515625</v>
       </c>
       <c r="G106" t="n">
-        <v>30752.18047932001</v>
+        <v>41980.12607932001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>610</v>
-      </c>
-      <c r="K106" t="n">
-        <v>623</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4492,40 +4602,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="C107" t="n">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="D107" t="n">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="E107" t="n">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>126.6781</v>
       </c>
       <c r="G107" t="n">
-        <v>30753.18047932001</v>
+        <v>41980.12607932001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>618</v>
-      </c>
-      <c r="K107" t="n">
-        <v>623</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4536,22 +4638,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="C108" t="n">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D108" t="n">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="E108" t="n">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>6670.8105</v>
       </c>
       <c r="G108" t="n">
-        <v>30754.18047932001</v>
+        <v>35309.31557932001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4560,14 +4662,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>623</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4578,22 +4674,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="C109" t="n">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="D109" t="n">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E109" t="n">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="F109" t="n">
-        <v>3.3279</v>
+        <v>144.9105</v>
       </c>
       <c r="G109" t="n">
-        <v>30754.18047932001</v>
+        <v>35164.40507932001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4602,14 +4698,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>623</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4620,40 +4710,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="C110" t="n">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="D110" t="n">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="E110" t="n">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="F110" t="n">
-        <v>25.6721</v>
+        <v>762.8625</v>
       </c>
       <c r="G110" t="n">
-        <v>30754.18047932001</v>
+        <v>35164.40507932001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>622</v>
-      </c>
-      <c r="K110" t="n">
-        <v>623</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4664,22 +4746,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C111" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D111" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E111" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F111" t="n">
-        <v>69.9999</v>
+        <v>489.2892</v>
       </c>
       <c r="G111" t="n">
-        <v>30824.18037932001</v>
+        <v>35164.40507932001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4688,14 +4770,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>623</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4706,40 +4782,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C112" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D112" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E112" t="n">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F112" t="n">
-        <v>320.9999</v>
+        <v>327.8942</v>
       </c>
       <c r="G112" t="n">
-        <v>30824.18037932001</v>
+        <v>35492.29927932001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>629</v>
-      </c>
-      <c r="K112" t="n">
-        <v>623</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4753,37 +4821,29 @@
         <v>630</v>
       </c>
       <c r="C113" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D113" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E113" t="n">
         <v>630</v>
       </c>
       <c r="F113" t="n">
-        <v>3175.7052</v>
+        <v>546.4</v>
       </c>
       <c r="G113" t="n">
-        <v>33999.88557932001</v>
+        <v>34945.89927932001</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>629</v>
-      </c>
-      <c r="K113" t="n">
-        <v>623</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4794,40 +4854,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C114" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D114" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E114" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F114" t="n">
-        <v>729.7616</v>
+        <v>352</v>
       </c>
       <c r="G114" t="n">
-        <v>33999.88557932001</v>
+        <v>35297.89927932001</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>632</v>
-      </c>
-      <c r="K114" t="n">
-        <v>623</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4838,22 +4890,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C115" t="n">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D115" t="n">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="E115" t="n">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F115" t="n">
-        <v>127</v>
+        <v>397.8578</v>
       </c>
       <c r="G115" t="n">
-        <v>34126.88557932001</v>
+        <v>34900.04147932001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4862,14 +4914,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>623</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4880,22 +4926,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="C116" t="n">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D116" t="n">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="E116" t="n">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="F116" t="n">
-        <v>19.9646</v>
+        <v>306.3767</v>
       </c>
       <c r="G116" t="n">
-        <v>34126.88557932001</v>
+        <v>34900.04147932001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4904,14 +4950,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>623</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4922,22 +4962,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="C117" t="n">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D117" t="n">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="E117" t="n">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>97.2</v>
       </c>
       <c r="G117" t="n">
-        <v>34127.88557932001</v>
+        <v>34900.04147932001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4946,14 +4986,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>623</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4964,22 +4998,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="C118" t="n">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="D118" t="n">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="E118" t="n">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="F118" t="n">
-        <v>1827</v>
+        <v>4265</v>
       </c>
       <c r="G118" t="n">
-        <v>32300.88557932001</v>
+        <v>30635.04147932001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4988,14 +5022,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>623</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5006,22 +5034,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="C119" t="n">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D119" t="n">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="E119" t="n">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="F119" t="n">
-        <v>1047.2959</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>32300.88557932001</v>
+        <v>30636.04147932001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5030,14 +5058,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>623</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5048,22 +5070,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C120" t="n">
         <v>631</v>
       </c>
       <c r="D120" t="n">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E120" t="n">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F120" t="n">
-        <v>2887.0249</v>
+        <v>221.2716</v>
       </c>
       <c r="G120" t="n">
-        <v>29413.86067932001</v>
+        <v>30857.31307932001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5072,14 +5094,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>623</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5090,22 +5106,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="C121" t="n">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="D121" t="n">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="E121" t="n">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>658.7659</v>
       </c>
       <c r="G121" t="n">
-        <v>29414.86067932001</v>
+        <v>30198.54717932001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5114,14 +5130,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>623</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5132,22 +5142,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="C122" t="n">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="D122" t="n">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="E122" t="n">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="F122" t="n">
-        <v>199.0465</v>
+        <v>271.2003</v>
       </c>
       <c r="G122" t="n">
-        <v>29414.86067932001</v>
+        <v>30469.74747932001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5156,14 +5166,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>623</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5174,22 +5178,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C123" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D123" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E123" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F123" t="n">
-        <v>265</v>
+        <v>346.3633</v>
       </c>
       <c r="G123" t="n">
-        <v>29149.86067932001</v>
+        <v>30469.74747932001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5198,14 +5202,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>623</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5216,22 +5214,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C124" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D124" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E124" t="n">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>344.3934</v>
       </c>
       <c r="G124" t="n">
-        <v>29150.86067932001</v>
+        <v>30469.74747932001</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5240,14 +5238,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>623</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5258,22 +5250,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C125" t="n">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D125" t="n">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E125" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F125" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G125" t="n">
-        <v>29270.86067932001</v>
+        <v>30499.74747932001</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5282,14 +5274,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>623</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5300,40 +5286,32 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C126" t="n">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D126" t="n">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E126" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F126" t="n">
-        <v>1179</v>
+        <v>7791.7284</v>
       </c>
       <c r="G126" t="n">
-        <v>29270.86067932001</v>
+        <v>38291.47587932002</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>635</v>
-      </c>
-      <c r="K126" t="n">
-        <v>623</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5344,40 +5322,32 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C127" t="n">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="D127" t="n">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="E127" t="n">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="F127" t="n">
-        <v>2540.8836</v>
+        <v>1024</v>
       </c>
       <c r="G127" t="n">
-        <v>31811.74427932001</v>
+        <v>37267.47587932002</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>635</v>
-      </c>
-      <c r="K127" t="n">
-        <v>623</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5388,22 +5358,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="C128" t="n">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="D128" t="n">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="E128" t="n">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G128" t="n">
-        <v>31812.74427932001</v>
+        <v>37267.47587932002</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5412,14 +5382,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>623</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5430,22 +5394,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="C129" t="n">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="D129" t="n">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="E129" t="n">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="F129" t="n">
-        <v>84</v>
+        <v>276.2231</v>
       </c>
       <c r="G129" t="n">
-        <v>31728.74427932001</v>
+        <v>36991.25277932001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5454,14 +5418,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>623</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5472,22 +5430,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="C130" t="n">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="D130" t="n">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="E130" t="n">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>315</v>
       </c>
       <c r="G130" t="n">
-        <v>31729.74427932001</v>
+        <v>37306.25277932001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5496,14 +5454,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>623</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5514,22 +5466,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C131" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D131" t="n">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E131" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F131" t="n">
-        <v>80</v>
+        <v>406.4377</v>
       </c>
       <c r="G131" t="n">
-        <v>31649.74427932001</v>
+        <v>36899.81507932001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5538,14 +5490,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>623</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5556,40 +5502,32 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="C132" t="n">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D132" t="n">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E132" t="n">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="F132" t="n">
-        <v>116.4</v>
+        <v>2871.36</v>
       </c>
       <c r="G132" t="n">
-        <v>31766.14427932001</v>
+        <v>34028.45507932001</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>628</v>
-      </c>
-      <c r="K132" t="n">
-        <v>623</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5600,44 +5538,2592 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>629</v>
+      </c>
+      <c r="C133" t="n">
+        <v>628</v>
+      </c>
+      <c r="D133" t="n">
+        <v>629</v>
+      </c>
+      <c r="E133" t="n">
+        <v>628</v>
+      </c>
+      <c r="F133" t="n">
+        <v>749.1107</v>
+      </c>
+      <c r="G133" t="n">
+        <v>33279.34437932001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>623</v>
+      </c>
+      <c r="C134" t="n">
+        <v>620</v>
+      </c>
+      <c r="D134" t="n">
+        <v>623</v>
+      </c>
+      <c r="E134" t="n">
+        <v>620</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1690.0218</v>
+      </c>
+      <c r="G134" t="n">
+        <v>31589.32257932001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>624</v>
+      </c>
+      <c r="C135" t="n">
+        <v>624</v>
+      </c>
+      <c r="D135" t="n">
+        <v>624</v>
+      </c>
+      <c r="E135" t="n">
+        <v>624</v>
+      </c>
+      <c r="F135" t="n">
+        <v>8.365</v>
+      </c>
+      <c r="G135" t="n">
+        <v>31597.68757932002</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>628</v>
+      </c>
+      <c r="C136" t="n">
+        <v>629</v>
+      </c>
+      <c r="D136" t="n">
+        <v>629</v>
+      </c>
+      <c r="E136" t="n">
+        <v>628</v>
+      </c>
+      <c r="F136" t="n">
+        <v>156</v>
+      </c>
+      <c r="G136" t="n">
+        <v>31753.68757932002</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>622</v>
+      </c>
+      <c r="C137" t="n">
+        <v>621</v>
+      </c>
+      <c r="D137" t="n">
+        <v>622</v>
+      </c>
+      <c r="E137" t="n">
+        <v>621</v>
+      </c>
+      <c r="F137" t="n">
+        <v>281.0104</v>
+      </c>
+      <c r="G137" t="n">
+        <v>31472.67717932002</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>621</v>
+      </c>
+      <c r="C138" t="n">
+        <v>621</v>
+      </c>
+      <c r="D138" t="n">
+        <v>621</v>
+      </c>
+      <c r="E138" t="n">
+        <v>621</v>
+      </c>
+      <c r="F138" t="n">
+        <v>11.105</v>
+      </c>
+      <c r="G138" t="n">
+        <v>31472.67717932002</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>628</v>
+      </c>
+      <c r="C139" t="n">
+        <v>628</v>
+      </c>
+      <c r="D139" t="n">
+        <v>628</v>
+      </c>
+      <c r="E139" t="n">
+        <v>628</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>31473.67717932002</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>623</v>
+      </c>
+      <c r="C140" t="n">
+        <v>623</v>
+      </c>
+      <c r="D140" t="n">
+        <v>623</v>
+      </c>
+      <c r="E140" t="n">
+        <v>623</v>
+      </c>
+      <c r="F140" t="n">
+        <v>52.8425</v>
+      </c>
+      <c r="G140" t="n">
+        <v>31420.83467932002</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>623</v>
+      </c>
+      <c r="C141" t="n">
+        <v>621</v>
+      </c>
+      <c r="D141" t="n">
+        <v>623</v>
+      </c>
+      <c r="E141" t="n">
+        <v>621</v>
+      </c>
+      <c r="F141" t="n">
+        <v>257.9528</v>
+      </c>
+      <c r="G141" t="n">
+        <v>31162.88187932002</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>625</v>
+      </c>
+      <c r="C142" t="n">
+        <v>625</v>
+      </c>
+      <c r="D142" t="n">
+        <v>625</v>
+      </c>
+      <c r="E142" t="n">
+        <v>625</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>31163.88187932002</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>625</v>
+      </c>
+      <c r="C143" t="n">
+        <v>629</v>
+      </c>
+      <c r="D143" t="n">
+        <v>629</v>
+      </c>
+      <c r="E143" t="n">
+        <v>625</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1667</v>
+      </c>
+      <c r="G143" t="n">
+        <v>32830.88187932002</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>629</v>
+      </c>
+      <c r="C144" t="n">
+        <v>630</v>
+      </c>
+      <c r="D144" t="n">
+        <v>630</v>
+      </c>
+      <c r="E144" t="n">
+        <v>629</v>
+      </c>
+      <c r="F144" t="n">
+        <v>105</v>
+      </c>
+      <c r="G144" t="n">
+        <v>32935.88187932002</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>622</v>
+      </c>
+      <c r="C145" t="n">
+        <v>622</v>
+      </c>
+      <c r="D145" t="n">
+        <v>628</v>
+      </c>
+      <c r="E145" t="n">
+        <v>622</v>
+      </c>
+      <c r="F145" t="n">
+        <v>137.0987</v>
+      </c>
+      <c r="G145" t="n">
+        <v>32798.78317932002</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>628</v>
+      </c>
+      <c r="C146" t="n">
+        <v>628</v>
+      </c>
+      <c r="D146" t="n">
+        <v>628</v>
+      </c>
+      <c r="E146" t="n">
+        <v>628</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>32799.78317932002</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>623</v>
+      </c>
+      <c r="C147" t="n">
+        <v>623</v>
+      </c>
+      <c r="D147" t="n">
+        <v>623</v>
+      </c>
+      <c r="E147" t="n">
+        <v>623</v>
+      </c>
+      <c r="F147" t="n">
+        <v>198.1202</v>
+      </c>
+      <c r="G147" t="n">
+        <v>32601.66297932002</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>623</v>
+      </c>
+      <c r="C148" t="n">
+        <v>623</v>
+      </c>
+      <c r="D148" t="n">
+        <v>623</v>
+      </c>
+      <c r="E148" t="n">
+        <v>623</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G148" t="n">
+        <v>32601.66297932002</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>623</v>
+      </c>
+      <c r="C149" t="n">
+        <v>623</v>
+      </c>
+      <c r="D149" t="n">
+        <v>623</v>
+      </c>
+      <c r="E149" t="n">
+        <v>623</v>
+      </c>
+      <c r="F149" t="n">
+        <v>49.2238</v>
+      </c>
+      <c r="G149" t="n">
+        <v>32601.66297932002</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>624</v>
+      </c>
+      <c r="C150" t="n">
+        <v>624</v>
+      </c>
+      <c r="D150" t="n">
+        <v>624</v>
+      </c>
+      <c r="E150" t="n">
+        <v>624</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2636.5544</v>
+      </c>
+      <c r="G150" t="n">
+        <v>35238.21737932001</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>622</v>
+      </c>
+      <c r="C151" t="n">
+        <v>621</v>
+      </c>
+      <c r="D151" t="n">
+        <v>622</v>
+      </c>
+      <c r="E151" t="n">
+        <v>621</v>
+      </c>
+      <c r="F151" t="n">
+        <v>695.5869</v>
+      </c>
+      <c r="G151" t="n">
+        <v>34542.63047932001</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>624</v>
+      </c>
+      <c r="C152" t="n">
+        <v>624</v>
+      </c>
+      <c r="D152" t="n">
+        <v>624</v>
+      </c>
+      <c r="E152" t="n">
+        <v>624</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3724.6746</v>
+      </c>
+      <c r="G152" t="n">
+        <v>38267.30507932001</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>621</v>
+      </c>
+      <c r="C153" t="n">
+        <v>621</v>
+      </c>
+      <c r="D153" t="n">
+        <v>621</v>
+      </c>
+      <c r="E153" t="n">
+        <v>621</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3.4156</v>
+      </c>
+      <c r="G153" t="n">
+        <v>38263.88947932001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>624</v>
+      </c>
+      <c r="C154" t="n">
+        <v>624</v>
+      </c>
+      <c r="D154" t="n">
+        <v>624</v>
+      </c>
+      <c r="E154" t="n">
+        <v>624</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2236.0644</v>
+      </c>
+      <c r="G154" t="n">
+        <v>40499.95387932001</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>624</v>
+      </c>
+      <c r="C155" t="n">
+        <v>624</v>
+      </c>
+      <c r="D155" t="n">
+        <v>624</v>
+      </c>
+      <c r="E155" t="n">
+        <v>624</v>
+      </c>
+      <c r="F155" t="n">
+        <v>502.5578</v>
+      </c>
+      <c r="G155" t="n">
+        <v>40499.95387932001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>625</v>
+      </c>
+      <c r="C156" t="n">
+        <v>625</v>
+      </c>
+      <c r="D156" t="n">
+        <v>625</v>
+      </c>
+      <c r="E156" t="n">
+        <v>625</v>
+      </c>
+      <c r="F156" t="n">
+        <v>341.681</v>
+      </c>
+      <c r="G156" t="n">
+        <v>40841.63487932001</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>627</v>
+      </c>
+      <c r="C157" t="n">
+        <v>627</v>
+      </c>
+      <c r="D157" t="n">
+        <v>627</v>
+      </c>
+      <c r="E157" t="n">
+        <v>627</v>
+      </c>
+      <c r="F157" t="n">
+        <v>562.3778</v>
+      </c>
+      <c r="G157" t="n">
+        <v>41404.01267932001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>627</v>
+      </c>
+      <c r="C158" t="n">
+        <v>627</v>
+      </c>
+      <c r="D158" t="n">
+        <v>627</v>
+      </c>
+      <c r="E158" t="n">
+        <v>627</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3444.5831</v>
+      </c>
+      <c r="G158" t="n">
+        <v>41404.01267932001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>624</v>
+      </c>
+      <c r="C159" t="n">
+        <v>623</v>
+      </c>
+      <c r="D159" t="n">
+        <v>624</v>
+      </c>
+      <c r="E159" t="n">
+        <v>623</v>
+      </c>
+      <c r="F159" t="n">
+        <v>386.4392</v>
+      </c>
+      <c r="G159" t="n">
+        <v>41017.57347932001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>623</v>
+      </c>
+      <c r="C160" t="n">
+        <v>621</v>
+      </c>
+      <c r="D160" t="n">
+        <v>623</v>
+      </c>
+      <c r="E160" t="n">
+        <v>621</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2204.758</v>
+      </c>
+      <c r="G160" t="n">
+        <v>38812.81547932001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>622</v>
+      </c>
+      <c r="C161" t="n">
+        <v>621</v>
+      </c>
+      <c r="D161" t="n">
+        <v>622</v>
+      </c>
+      <c r="E161" t="n">
+        <v>621</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1685</v>
+      </c>
+      <c r="G161" t="n">
+        <v>38812.81547932001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>621</v>
+      </c>
+      <c r="C162" t="n">
+        <v>621</v>
+      </c>
+      <c r="D162" t="n">
+        <v>621</v>
+      </c>
+      <c r="E162" t="n">
+        <v>621</v>
+      </c>
+      <c r="F162" t="n">
+        <v>689</v>
+      </c>
+      <c r="G162" t="n">
+        <v>38812.81547932001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>621</v>
+      </c>
+      <c r="C163" t="n">
+        <v>621</v>
+      </c>
+      <c r="D163" t="n">
+        <v>621</v>
+      </c>
+      <c r="E163" t="n">
+        <v>621</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1667</v>
+      </c>
+      <c r="G163" t="n">
+        <v>38812.81547932001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>626</v>
+      </c>
+      <c r="C164" t="n">
+        <v>626</v>
+      </c>
+      <c r="D164" t="n">
+        <v>626</v>
+      </c>
+      <c r="E164" t="n">
+        <v>626</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3.5399</v>
+      </c>
+      <c r="G164" t="n">
+        <v>38816.35537932001</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>625</v>
+      </c>
+      <c r="C165" t="n">
+        <v>625</v>
+      </c>
+      <c r="D165" t="n">
+        <v>625</v>
+      </c>
+      <c r="E165" t="n">
+        <v>625</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>38815.35537932001</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>621</v>
+      </c>
+      <c r="C166" t="n">
+        <v>621</v>
+      </c>
+      <c r="D166" t="n">
+        <v>621</v>
+      </c>
+      <c r="E166" t="n">
+        <v>621</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3878.6851</v>
+      </c>
+      <c r="G166" t="n">
+        <v>34936.67027932001</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>621</v>
+      </c>
+      <c r="C167" t="n">
+        <v>621</v>
+      </c>
+      <c r="D167" t="n">
+        <v>621</v>
+      </c>
+      <c r="E167" t="n">
+        <v>621</v>
+      </c>
+      <c r="F167" t="n">
+        <v>60.2668</v>
+      </c>
+      <c r="G167" t="n">
+        <v>34936.67027932001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>620</v>
+      </c>
+      <c r="C168" t="n">
+        <v>620</v>
+      </c>
+      <c r="D168" t="n">
+        <v>620</v>
+      </c>
+      <c r="E168" t="n">
+        <v>620</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4300.0277</v>
+      </c>
+      <c r="G168" t="n">
+        <v>30636.64257932001</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>620</v>
+      </c>
+      <c r="C169" t="n">
+        <v>620</v>
+      </c>
+      <c r="D169" t="n">
+        <v>620</v>
+      </c>
+      <c r="E169" t="n">
+        <v>620</v>
+      </c>
+      <c r="F169" t="n">
+        <v>76.2787</v>
+      </c>
+      <c r="G169" t="n">
+        <v>30636.64257932001</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>616</v>
+      </c>
+      <c r="C170" t="n">
+        <v>610</v>
+      </c>
+      <c r="D170" t="n">
+        <v>616</v>
+      </c>
+      <c r="E170" t="n">
+        <v>610</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1736.0278</v>
+      </c>
+      <c r="G170" t="n">
+        <v>28900.61477932001</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>619</v>
+      </c>
+      <c r="C171" t="n">
+        <v>619</v>
+      </c>
+      <c r="D171" t="n">
+        <v>619</v>
+      </c>
+      <c r="E171" t="n">
+        <v>619</v>
+      </c>
+      <c r="F171" t="n">
+        <v>150</v>
+      </c>
+      <c r="G171" t="n">
+        <v>29050.61477932001</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>617</v>
+      </c>
+      <c r="C172" t="n">
+        <v>617</v>
+      </c>
+      <c r="D172" t="n">
+        <v>617</v>
+      </c>
+      <c r="E172" t="n">
+        <v>617</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>29049.61477932001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>614</v>
+      </c>
+      <c r="C173" t="n">
+        <v>614</v>
+      </c>
+      <c r="D173" t="n">
+        <v>614</v>
+      </c>
+      <c r="E173" t="n">
+        <v>614</v>
+      </c>
+      <c r="F173" t="n">
+        <v>93.3742</v>
+      </c>
+      <c r="G173" t="n">
+        <v>28956.24057932001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>614</v>
+      </c>
+      <c r="C174" t="n">
+        <v>614</v>
+      </c>
+      <c r="D174" t="n">
+        <v>614</v>
+      </c>
+      <c r="E174" t="n">
+        <v>613</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1065.8345</v>
+      </c>
+      <c r="G174" t="n">
+        <v>28956.24057932001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>614</v>
+      </c>
+      <c r="C175" t="n">
+        <v>617</v>
+      </c>
+      <c r="D175" t="n">
+        <v>617</v>
+      </c>
+      <c r="E175" t="n">
+        <v>611</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3697.8045</v>
+      </c>
+      <c r="G175" t="n">
+        <v>32654.04507932001</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>610</v>
+      </c>
+      <c r="C176" t="n">
+        <v>610</v>
+      </c>
+      <c r="D176" t="n">
+        <v>610</v>
+      </c>
+      <c r="E176" t="n">
+        <v>610</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G176" t="n">
+        <v>30654.04507932001</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>618</v>
+      </c>
+      <c r="C177" t="n">
+        <v>618</v>
+      </c>
+      <c r="D177" t="n">
+        <v>618</v>
+      </c>
+      <c r="E177" t="n">
+        <v>618</v>
+      </c>
+      <c r="F177" t="n">
+        <v>98.1354</v>
+      </c>
+      <c r="G177" t="n">
+        <v>30752.18047932001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>618</v>
+      </c>
+      <c r="C178" t="n">
+        <v>620</v>
+      </c>
+      <c r="D178" t="n">
+        <v>620</v>
+      </c>
+      <c r="E178" t="n">
+        <v>618</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>30753.18047932001</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>622</v>
+      </c>
+      <c r="C179" t="n">
+        <v>622</v>
+      </c>
+      <c r="D179" t="n">
+        <v>622</v>
+      </c>
+      <c r="E179" t="n">
+        <v>622</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" t="n">
+        <v>30754.18047932001</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>622</v>
+      </c>
+      <c r="C180" t="n">
+        <v>622</v>
+      </c>
+      <c r="D180" t="n">
+        <v>622</v>
+      </c>
+      <c r="E180" t="n">
+        <v>622</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3.3279</v>
+      </c>
+      <c r="G180" t="n">
+        <v>30754.18047932001</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>622</v>
+      </c>
+      <c r="C181" t="n">
+        <v>622</v>
+      </c>
+      <c r="D181" t="n">
+        <v>622</v>
+      </c>
+      <c r="E181" t="n">
+        <v>622</v>
+      </c>
+      <c r="F181" t="n">
+        <v>25.6721</v>
+      </c>
+      <c r="G181" t="n">
+        <v>30754.18047932001</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>629</v>
+      </c>
+      <c r="C182" t="n">
+        <v>629</v>
+      </c>
+      <c r="D182" t="n">
+        <v>629</v>
+      </c>
+      <c r="E182" t="n">
+        <v>629</v>
+      </c>
+      <c r="F182" t="n">
+        <v>69.9999</v>
+      </c>
+      <c r="G182" t="n">
+        <v>30824.18037932001</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>629</v>
+      </c>
+      <c r="C183" t="n">
+        <v>629</v>
+      </c>
+      <c r="D183" t="n">
+        <v>629</v>
+      </c>
+      <c r="E183" t="n">
+        <v>629</v>
+      </c>
+      <c r="F183" t="n">
+        <v>320.9999</v>
+      </c>
+      <c r="G183" t="n">
+        <v>30824.18037932001</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>630</v>
+      </c>
+      <c r="C184" t="n">
+        <v>632</v>
+      </c>
+      <c r="D184" t="n">
+        <v>632</v>
+      </c>
+      <c r="E184" t="n">
+        <v>630</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3175.7052</v>
+      </c>
+      <c r="G184" t="n">
+        <v>33999.88557932001</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>632</v>
+      </c>
+      <c r="C185" t="n">
+        <v>632</v>
+      </c>
+      <c r="D185" t="n">
+        <v>632</v>
+      </c>
+      <c r="E185" t="n">
+        <v>632</v>
+      </c>
+      <c r="F185" t="n">
+        <v>729.7616</v>
+      </c>
+      <c r="G185" t="n">
+        <v>33999.88557932001</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>635</v>
+      </c>
+      <c r="C186" t="n">
+        <v>641</v>
+      </c>
+      <c r="D186" t="n">
+        <v>641</v>
+      </c>
+      <c r="E186" t="n">
+        <v>635</v>
+      </c>
+      <c r="F186" t="n">
+        <v>127</v>
+      </c>
+      <c r="G186" t="n">
+        <v>34126.88557932001</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>641</v>
+      </c>
+      <c r="C187" t="n">
+        <v>641</v>
+      </c>
+      <c r="D187" t="n">
+        <v>641</v>
+      </c>
+      <c r="E187" t="n">
+        <v>641</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19.9646</v>
+      </c>
+      <c r="G187" t="n">
+        <v>34126.88557932001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>642</v>
+      </c>
+      <c r="C188" t="n">
+        <v>642</v>
+      </c>
+      <c r="D188" t="n">
+        <v>642</v>
+      </c>
+      <c r="E188" t="n">
+        <v>642</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" t="n">
+        <v>34127.88557932001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>641</v>
+      </c>
+      <c r="C189" t="n">
+        <v>641</v>
+      </c>
+      <c r="D189" t="n">
+        <v>641</v>
+      </c>
+      <c r="E189" t="n">
+        <v>641</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1827</v>
+      </c>
+      <c r="G189" t="n">
+        <v>32300.88557932001</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>641</v>
+      </c>
+      <c r="C190" t="n">
+        <v>641</v>
+      </c>
+      <c r="D190" t="n">
+        <v>641</v>
+      </c>
+      <c r="E190" t="n">
+        <v>641</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1047.2959</v>
+      </c>
+      <c r="G190" t="n">
+        <v>32300.88557932001</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>633</v>
+      </c>
+      <c r="C191" t="n">
+        <v>631</v>
+      </c>
+      <c r="D191" t="n">
+        <v>633</v>
+      </c>
+      <c r="E191" t="n">
+        <v>631</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2887.0249</v>
+      </c>
+      <c r="G191" t="n">
+        <v>29413.86067932001</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>639</v>
+      </c>
+      <c r="C192" t="n">
+        <v>639</v>
+      </c>
+      <c r="D192" t="n">
+        <v>639</v>
+      </c>
+      <c r="E192" t="n">
+        <v>639</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
+      <c r="G192" t="n">
+        <v>29414.86067932001</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>637</v>
+      </c>
+      <c r="C193" t="n">
+        <v>639</v>
+      </c>
+      <c r="D193" t="n">
+        <v>639</v>
+      </c>
+      <c r="E193" t="n">
+        <v>637</v>
+      </c>
+      <c r="F193" t="n">
+        <v>199.0465</v>
+      </c>
+      <c r="G193" t="n">
+        <v>29414.86067932001</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>630</v>
+      </c>
+      <c r="C194" t="n">
+        <v>628</v>
+      </c>
+      <c r="D194" t="n">
+        <v>630</v>
+      </c>
+      <c r="E194" t="n">
+        <v>628</v>
+      </c>
+      <c r="F194" t="n">
+        <v>265</v>
+      </c>
+      <c r="G194" t="n">
+        <v>29149.86067932001</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>629</v>
+      </c>
+      <c r="C195" t="n">
+        <v>629</v>
+      </c>
+      <c r="D195" t="n">
+        <v>629</v>
+      </c>
+      <c r="E195" t="n">
+        <v>629</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="n">
+        <v>29150.86067932001</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>629</v>
+      </c>
+      <c r="C196" t="n">
+        <v>635</v>
+      </c>
+      <c r="D196" t="n">
+        <v>635</v>
+      </c>
+      <c r="E196" t="n">
+        <v>629</v>
+      </c>
+      <c r="F196" t="n">
+        <v>120</v>
+      </c>
+      <c r="G196" t="n">
+        <v>29270.86067932001</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>632</v>
+      </c>
+      <c r="C197" t="n">
+        <v>635</v>
+      </c>
+      <c r="D197" t="n">
+        <v>635</v>
+      </c>
+      <c r="E197" t="n">
+        <v>632</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1179</v>
+      </c>
+      <c r="G197" t="n">
+        <v>29270.86067932001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>636</v>
+      </c>
+      <c r="C198" t="n">
+        <v>642</v>
+      </c>
+      <c r="D198" t="n">
+        <v>642</v>
+      </c>
+      <c r="E198" t="n">
+        <v>636</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2540.8836</v>
+      </c>
+      <c r="G198" t="n">
+        <v>31811.74427932001</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>650</v>
+      </c>
+      <c r="C199" t="n">
+        <v>650</v>
+      </c>
+      <c r="D199" t="n">
+        <v>650</v>
+      </c>
+      <c r="E199" t="n">
+        <v>650</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" t="n">
+        <v>31812.74427932001</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>641</v>
+      </c>
+      <c r="C200" t="n">
+        <v>641</v>
+      </c>
+      <c r="D200" t="n">
+        <v>641</v>
+      </c>
+      <c r="E200" t="n">
+        <v>641</v>
+      </c>
+      <c r="F200" t="n">
+        <v>84</v>
+      </c>
+      <c r="G200" t="n">
+        <v>31728.74427932001</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>642</v>
+      </c>
+      <c r="C201" t="n">
+        <v>642</v>
+      </c>
+      <c r="D201" t="n">
+        <v>642</v>
+      </c>
+      <c r="E201" t="n">
+        <v>642</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>31729.74427932001</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>636</v>
+      </c>
+      <c r="C202" t="n">
+        <v>628</v>
+      </c>
+      <c r="D202" t="n">
+        <v>636</v>
+      </c>
+      <c r="E202" t="n">
+        <v>628</v>
+      </c>
+      <c r="F202" t="n">
+        <v>80</v>
+      </c>
+      <c r="G202" t="n">
+        <v>31649.74427932001</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>633</v>
+      </c>
+      <c r="C203" t="n">
+        <v>633</v>
+      </c>
+      <c r="D203" t="n">
+        <v>633</v>
+      </c>
+      <c r="E203" t="n">
+        <v>633</v>
+      </c>
+      <c r="F203" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="G203" t="n">
+        <v>31766.14427932001</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
         <v>640</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C204" t="n">
         <v>640</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D204" t="n">
         <v>640</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E204" t="n">
         <v>640</v>
       </c>
-      <c r="F133" t="n">
-        <v>1</v>
-      </c>
-      <c r="G133" t="n">
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="n">
         <v>31767.14427932001</v>
       </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>633</v>
-      </c>
-      <c r="K133" t="n">
-        <v>623</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest GXC.xlsx
+++ b/BackTest/2019-11-02 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N204"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>18049.4005</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>20599.2999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>624</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>20599.2999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>626</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>20444.6411</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>626</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +601,21 @@
         <v>20551.1311</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
         <v>621</v>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,24 +640,21 @@
         <v>20551.1311</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
         <v>626</v>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -702,24 +679,21 @@
         <v>24060.0537</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>626</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,24 +718,19 @@
         <v>24060.0537</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>627</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -786,24 +755,21 @@
         <v>24060.0537</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>627</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -828,24 +794,19 @@
         <v>25505.0654</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>627</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -870,24 +831,19 @@
         <v>25126.81359999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>634</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,24 +868,19 @@
         <v>25126.81359999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>633</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -954,24 +905,19 @@
         <v>24960.58779999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>633</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -996,24 +942,19 @@
         <v>25420.58029999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>631</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,24 +979,19 @@
         <v>25420.58029999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>632</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1080,24 +1016,19 @@
         <v>25613.33919999999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>632</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1122,24 +1053,19 @@
         <v>25613.33919999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>633</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1166,20 +1092,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1204,24 +1127,19 @@
         <v>25381.2224</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>632</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1248,20 +1166,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1286,24 +1201,19 @@
         <v>25301.2224</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>618</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1328,24 +1238,19 @@
         <v>30140.25209999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>618</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1370,24 +1275,19 @@
         <v>29553.58609999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>624</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1412,24 +1312,19 @@
         <v>29553.58609999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>620</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1454,24 +1349,19 @@
         <v>29633.58609999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>620</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1496,24 +1386,19 @@
         <v>29629.83979999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>630</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1538,24 +1423,19 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>622</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1580,24 +1460,19 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>624</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1622,24 +1497,19 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>624</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1664,24 +1534,19 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>624</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1706,24 +1571,19 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>623</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1748,24 +1608,19 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>623</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1790,24 +1645,19 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>623</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1832,24 +1682,19 @@
         <v>27906.72059999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>623</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1874,24 +1719,19 @@
         <v>28678.99309999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>621</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1918,20 +1758,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1958,20 +1795,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1998,20 +1832,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2036,24 +1867,19 @@
         <v>28169.01799999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>622</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2080,20 +1906,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2120,20 +1943,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2160,20 +1980,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2200,20 +2017,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2240,20 +2054,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2280,20 +2091,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2320,20 +2128,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2360,20 +2165,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2400,20 +2202,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2438,22 +2237,17 @@
         <v>26342.90919999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2480,20 +2274,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2520,20 +2307,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2558,22 +2338,15 @@
         <v>25535.6217</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2598,22 +2371,15 @@
         <v>25505.6217</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2640,20 +2406,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2680,20 +2439,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2720,20 +2472,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2760,20 +2505,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2800,20 +2538,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2840,20 +2571,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2880,20 +2604,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2920,20 +2637,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2960,20 +2670,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3000,20 +2703,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3040,20 +2736,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3080,20 +2769,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3120,20 +2802,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3160,20 +2835,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3200,20 +2868,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3240,20 +2901,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3280,20 +2934,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3320,20 +2967,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3360,20 +3000,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3398,22 +3031,15 @@
         <v>46107.3719513</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3438,22 +3064,15 @@
         <v>49045.3409513</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3478,22 +3097,15 @@
         <v>49045.3409513</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3518,22 +3130,15 @@
         <v>49388.6312513</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3558,22 +3163,15 @@
         <v>49994.3859513</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3598,22 +3196,15 @@
         <v>55402.4184513</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3640,20 +3231,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3678,22 +3262,15 @@
         <v>69029.2087513</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3718,20 +3295,15 @@
         <v>69638.2087513</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L82" t="n">
+        <v>1</v>
       </c>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3756,18 +3328,15 @@
         <v>63389.9021513</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3792,18 +3361,15 @@
         <v>64802.32088167001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3828,18 +3394,15 @@
         <v>63097.29878167</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3864,18 +3427,15 @@
         <v>58377.15478167</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3900,18 +3460,15 @@
         <v>58285.15478167</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3936,18 +3493,15 @@
         <v>55976.56578167</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3972,18 +3526,15 @@
         <v>56088.03811682</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4008,18 +3559,15 @@
         <v>55947.03811682</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4044,18 +3592,15 @@
         <v>52775.18971682</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4082,16 +3627,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4118,16 +3660,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4152,18 +3691,15 @@
         <v>55964.80171682</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4188,18 +3724,15 @@
         <v>57281.33151682</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4224,18 +3757,15 @@
         <v>57058.32751682</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4260,18 +3790,15 @@
         <v>62702.81151682</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4298,16 +3825,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4334,16 +3858,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4370,16 +3891,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4406,16 +3924,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4442,16 +3957,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4478,16 +3990,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4512,18 +4021,15 @@
         <v>42596.78951682</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4550,16 +4056,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4586,16 +4089,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4622,16 +4122,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4658,16 +4155,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4694,16 +4188,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4730,16 +4221,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4766,16 +4254,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4802,16 +4287,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4838,16 +4320,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4874,16 +4353,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4910,16 +4386,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4946,16 +4419,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4982,16 +4452,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5018,16 +4485,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5054,16 +4518,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5090,16 +4551,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5126,16 +4584,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5162,16 +4617,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5196,18 +4648,15 @@
         <v>30469.74747932001</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5234,16 +4683,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5268,18 +4714,15 @@
         <v>30499.74747932001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5306,16 +4749,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5342,16 +4782,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5378,16 +4815,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5414,16 +4848,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5450,16 +4881,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5486,16 +4914,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5522,16 +4947,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5558,16 +4980,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5594,16 +5013,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5630,16 +5046,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5666,16 +5079,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5702,16 +5112,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5738,16 +5145,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5774,16 +5178,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5810,16 +5211,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5846,16 +5244,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5882,16 +5277,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5918,16 +5310,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5954,16 +5343,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5990,16 +5376,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6026,16 +5409,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6062,16 +5442,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6098,16 +5475,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6134,16 +5508,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6170,16 +5541,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6206,16 +5574,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6242,16 +5607,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6278,16 +5640,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6314,16 +5673,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6350,16 +5706,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6386,16 +5739,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6422,16 +5772,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6458,16 +5805,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6494,16 +5838,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6530,16 +5871,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6566,16 +5904,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6602,16 +5937,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6638,16 +5970,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6674,16 +6003,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6710,16 +6036,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6746,16 +6069,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6782,16 +6102,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6818,16 +6135,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6854,16 +6168,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6890,16 +6201,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6926,16 +6234,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6962,16 +6267,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6998,16 +6300,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7034,16 +6333,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7070,16 +6366,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7106,16 +6399,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7142,16 +6432,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7178,16 +6465,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7214,16 +6498,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7250,16 +6531,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7286,16 +6564,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7322,16 +6597,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7358,16 +6630,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7394,16 +6663,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7430,16 +6696,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7466,16 +6729,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7502,16 +6762,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7536,18 +6793,15 @@
         <v>34127.88557932001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7572,18 +6826,15 @@
         <v>32300.88557932001</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7608,18 +6859,15 @@
         <v>32300.88557932001</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7644,18 +6892,15 @@
         <v>29413.86067932001</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7680,18 +6925,15 @@
         <v>29414.86067932001</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7716,18 +6958,15 @@
         <v>29414.86067932001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7752,18 +6991,15 @@
         <v>29149.86067932001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7788,18 +7024,15 @@
         <v>29150.86067932001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7826,16 +7059,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7862,16 +7092,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7898,16 +7125,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7934,16 +7158,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7968,18 +7189,15 @@
         <v>31728.74427932001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8004,18 +7222,15 @@
         <v>31729.74427932001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8040,18 +7255,15 @@
         <v>31649.74427932001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8076,18 +7288,15 @@
         <v>31766.14427932001</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8114,18 +7323,15 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest GXC.xlsx
+++ b/BackTest/2019-11-02 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>18049.4005</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>20599.2999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>624</v>
@@ -523,7 +523,7 @@
         <v>20599.2999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>626</v>
@@ -562,7 +562,7 @@
         <v>20444.6411</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>626</v>
@@ -601,7 +601,7 @@
         <v>20551.1311</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>621</v>
@@ -640,7 +640,7 @@
         <v>20551.1311</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>626</v>
@@ -679,7 +679,7 @@
         <v>24060.0537</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>626</v>
@@ -718,9 +718,11 @@
         <v>24060.0537</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>627</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -755,7 +757,7 @@
         <v>24060.0537</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>627</v>
@@ -794,9 +796,11 @@
         <v>25505.0654</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>627</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -831,9 +835,11 @@
         <v>25126.81359999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>634</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -868,9 +874,11 @@
         <v>25126.81359999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>633</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -905,9 +913,11 @@
         <v>24960.58779999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>633</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -942,9 +952,11 @@
         <v>25420.58029999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>631</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -979,9 +991,11 @@
         <v>25420.58029999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>632</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1053,9 +1067,11 @@
         <v>25613.33919999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>633</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1090,9 +1106,11 @@
         <v>25381.2224</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>633</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1127,9 +1145,11 @@
         <v>25381.2224</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>632</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1164,9 +1184,11 @@
         <v>25301.2224</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>632</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1201,9 +1223,11 @@
         <v>25301.2224</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>618</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1238,9 +1262,11 @@
         <v>30140.25209999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>618</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1275,9 +1301,11 @@
         <v>29553.58609999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>624</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1312,9 +1340,11 @@
         <v>29553.58609999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>620</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1349,9 +1379,11 @@
         <v>29633.58609999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>620</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1386,9 +1418,11 @@
         <v>29629.83979999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>630</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1423,9 +1457,11 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>622</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1460,9 +1496,11 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>624</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1497,9 +1535,11 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>624</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1534,9 +1574,11 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>624</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1571,9 +1613,11 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>623</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1608,9 +1652,11 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>623</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1645,9 +1691,11 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>623</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1682,9 +1730,11 @@
         <v>27906.72059999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>623</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1719,9 +1769,11 @@
         <v>28678.99309999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>621</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1756,9 +1808,11 @@
         <v>28638.99309999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>631</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1793,9 +1847,11 @@
         <v>28918.99309999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>623</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1830,9 +1886,11 @@
         <v>28516.78159999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>625</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1867,9 +1925,11 @@
         <v>28169.01799999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>622</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1904,9 +1964,11 @@
         <v>28169.01799999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>621</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1941,9 +2003,11 @@
         <v>28169.01799999999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>621</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -1978,9 +2042,11 @@
         <v>30546.35339999999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>621</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2015,9 +2081,11 @@
         <v>30577.99839999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>631</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2237,16 +2305,18 @@
         <v>26342.90919999999</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
       <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -2276,7 +2346,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2309,7 +2383,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2338,11 +2416,15 @@
         <v>25535.6217</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2371,11 +2453,15 @@
         <v>25505.6217</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2408,7 +2494,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2441,7 +2531,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2474,7 +2568,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2507,7 +2605,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2540,7 +2642,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2573,7 +2679,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2606,7 +2716,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2639,7 +2753,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2672,7 +2790,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2705,7 +2827,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2738,7 +2864,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2771,7 +2901,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2804,7 +2938,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2837,7 +2975,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2870,7 +3012,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2903,7 +3049,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2936,7 +3086,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2969,7 +3123,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3002,7 +3160,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3031,11 +3193,15 @@
         <v>46107.3719513</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3064,11 +3230,15 @@
         <v>49045.3409513</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3097,11 +3267,15 @@
         <v>49045.3409513</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3130,11 +3304,15 @@
         <v>49388.6312513</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3163,11 +3341,15 @@
         <v>49994.3859513</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3196,11 +3378,15 @@
         <v>55402.4184513</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3233,7 +3419,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3262,11 +3452,15 @@
         <v>69029.2087513</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3295,11 +3489,15 @@
         <v>69638.2087513</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3328,11 +3526,15 @@
         <v>63389.9021513</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3361,11 +3563,15 @@
         <v>64802.32088167001</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3394,11 +3600,15 @@
         <v>63097.29878167</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3427,11 +3637,15 @@
         <v>58377.15478167</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3460,11 +3674,15 @@
         <v>58285.15478167</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3493,11 +3711,15 @@
         <v>55976.56578167</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3526,14 +3748,16 @@
         <v>56088.03811682</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3559,7 +3783,7 @@
         <v>55947.03811682</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3592,7 +3816,7 @@
         <v>52775.18971682</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3625,7 +3849,7 @@
         <v>52775.18971682</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3658,7 +3882,7 @@
         <v>55958.80171682</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3691,7 +3915,7 @@
         <v>55964.80171682</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3724,7 +3948,7 @@
         <v>57281.33151682</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3757,7 +3981,7 @@
         <v>57058.32751682</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3790,7 +4014,7 @@
         <v>62702.81151682</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3823,7 +4047,7 @@
         <v>62369.88731682</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3856,7 +4080,7 @@
         <v>62146.88731682</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3889,7 +4113,7 @@
         <v>60879.04521682</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3922,7 +4146,7 @@
         <v>42754.62041682</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3955,7 +4179,7 @@
         <v>42063.02871682</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3988,7 +4212,7 @@
         <v>42934.53301682</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4021,7 +4245,7 @@
         <v>42596.78951682</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4054,7 +4278,7 @@
         <v>41976.57451682001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4087,7 +4311,7 @@
         <v>41980.12607932001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4120,7 +4344,7 @@
         <v>41980.12607932001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4153,7 +4377,7 @@
         <v>35309.31557932001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4186,7 +4410,7 @@
         <v>35164.40507932001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4219,7 +4443,7 @@
         <v>35164.40507932001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4252,7 +4476,7 @@
         <v>35164.40507932001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4285,7 +4509,7 @@
         <v>35492.29927932001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4318,7 +4542,7 @@
         <v>34945.89927932001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4351,7 +4575,7 @@
         <v>35297.89927932001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4384,7 +4608,7 @@
         <v>34900.04147932001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4417,7 +4641,7 @@
         <v>34900.04147932001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4450,7 +4674,7 @@
         <v>34900.04147932001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4483,7 +4707,7 @@
         <v>30635.04147932001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4516,7 +4740,7 @@
         <v>30636.04147932001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4549,7 +4773,7 @@
         <v>30857.31307932001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4582,7 +4806,7 @@
         <v>30198.54717932001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4615,7 +4839,7 @@
         <v>30469.74747932001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4648,7 +4872,7 @@
         <v>30469.74747932001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4681,7 +4905,7 @@
         <v>30469.74747932001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4714,7 +4938,7 @@
         <v>30499.74747932001</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4747,7 +4971,7 @@
         <v>38291.47587932002</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4780,7 +5004,7 @@
         <v>37267.47587932002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4813,7 +5037,7 @@
         <v>37267.47587932002</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4846,7 +5070,7 @@
         <v>36991.25277932001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4879,7 +5103,7 @@
         <v>37306.25277932001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -6793,7 +7017,7 @@
         <v>34127.88557932001</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6826,7 +7050,7 @@
         <v>32300.88557932001</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6859,7 +7083,7 @@
         <v>32300.88557932001</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6892,7 +7116,7 @@
         <v>29413.86067932001</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6925,7 +7149,7 @@
         <v>29414.86067932001</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6958,7 +7182,7 @@
         <v>29414.86067932001</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6991,7 +7215,7 @@
         <v>29149.86067932001</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7024,7 +7248,7 @@
         <v>29150.86067932001</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7189,7 +7413,7 @@
         <v>31728.74427932001</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7222,7 +7446,7 @@
         <v>31729.74427932001</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7255,7 +7479,7 @@
         <v>31649.74427932001</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7288,7 +7512,7 @@
         <v>31766.14427932001</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7332,6 +7556,6 @@
       <c r="M204" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest GXC.xlsx
+++ b/BackTest/2019-11-02 BackTest GXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -679,11 +679,9 @@
         <v>24060.0537</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>626</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -718,11 +716,9 @@
         <v>24060.0537</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>627</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -757,11 +753,9 @@
         <v>24060.0537</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>627</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -796,11 +790,9 @@
         <v>25505.0654</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -835,11 +827,9 @@
         <v>25126.81359999999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>634</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -874,11 +864,9 @@
         <v>25126.81359999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>633</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
@@ -913,11 +901,9 @@
         <v>24960.58779999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>633</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -952,11 +938,9 @@
         <v>25420.58029999999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>631</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -991,11 +975,9 @@
         <v>25420.58029999999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>632</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1067,11 +1049,9 @@
         <v>25613.33919999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>633</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1106,11 +1086,9 @@
         <v>25381.2224</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>633</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1145,11 +1123,9 @@
         <v>25381.2224</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>632</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1184,11 +1160,9 @@
         <v>25301.2224</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>632</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1223,20 +1197,16 @@
         <v>25301.2224</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>618</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1262,17 +1232,11 @@
         <v>30140.25209999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>618</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1301,17 +1265,11 @@
         <v>29553.58609999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>624</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1340,17 +1298,11 @@
         <v>29553.58609999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>620</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1379,17 +1331,11 @@
         <v>29633.58609999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>620</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1418,17 +1364,11 @@
         <v>29629.83979999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>630</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1457,17 +1397,11 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>622</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1496,17 +1430,11 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>624</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1535,17 +1463,11 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>624</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1574,17 +1496,11 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>624</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1613,17 +1529,11 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>623</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1652,17 +1562,11 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>623</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1691,17 +1595,11 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>623</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1730,17 +1628,11 @@
         <v>27906.72059999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>623</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1769,17 +1661,11 @@
         <v>28678.99309999999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>621</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1808,17 +1694,11 @@
         <v>28638.99309999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>631</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1847,17 +1727,11 @@
         <v>28918.99309999999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>623</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1886,17 +1760,11 @@
         <v>28516.78159999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1925,17 +1793,11 @@
         <v>28169.01799999999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>622</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1964,17 +1826,11 @@
         <v>28169.01799999999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>621</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2003,17 +1859,11 @@
         <v>28169.01799999999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>621</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2042,17 +1892,11 @@
         <v>30546.35339999999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>621</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2081,17 +1925,11 @@
         <v>30577.99839999999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>631</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2120,15 +1958,11 @@
         <v>21354.6125</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2161,11 +1995,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2198,11 +2028,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2235,11 +2061,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2272,11 +2094,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2309,11 +2127,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2346,11 +2160,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2383,11 +2193,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2420,11 +2226,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2457,11 +2259,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2494,11 +2292,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2531,11 +2325,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2568,11 +2358,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2605,11 +2391,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2642,11 +2424,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2679,11 +2457,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2716,11 +2490,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2753,11 +2523,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2790,11 +2556,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2589,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2864,11 +2622,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2901,11 +2655,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2938,11 +2688,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2975,11 +2721,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3012,11 +2754,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3049,11 +2787,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3086,11 +2820,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3123,11 +2853,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3160,11 +2886,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3197,11 +2919,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3234,11 +2952,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3271,11 +2985,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3308,11 +3018,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3345,11 +3051,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3382,11 +3084,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3419,11 +3117,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3456,11 +3150,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3493,11 +3183,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3530,11 +3216,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3567,11 +3249,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3604,11 +3282,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3641,11 +3315,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3678,11 +3348,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3715,11 +3381,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3748,16 +3410,14 @@
         <v>56088.03811682</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3783,7 +3443,7 @@
         <v>55947.03811682</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3816,7 +3476,7 @@
         <v>52775.18971682</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3849,7 +3509,7 @@
         <v>52775.18971682</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3882,7 +3542,7 @@
         <v>55958.80171682</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3915,7 +3575,7 @@
         <v>55964.80171682</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3948,7 +3608,7 @@
         <v>57281.33151682</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3981,7 +3641,7 @@
         <v>57058.32751682</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4014,7 +3674,7 @@
         <v>62702.81151682</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4047,7 +3707,7 @@
         <v>62369.88731682</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4080,7 +3740,7 @@
         <v>62146.88731682</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4113,7 +3773,7 @@
         <v>60879.04521682</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4146,7 +3806,7 @@
         <v>42754.62041682</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4179,7 +3839,7 @@
         <v>42063.02871682</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4212,7 +3872,7 @@
         <v>42934.53301682</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4245,7 +3905,7 @@
         <v>42596.78951682</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4278,7 +3938,7 @@
         <v>41976.57451682001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4311,7 +3971,7 @@
         <v>41980.12607932001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4344,7 +4004,7 @@
         <v>41980.12607932001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4476,7 +4136,7 @@
         <v>35164.40507932001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4509,7 +4169,7 @@
         <v>35492.29927932001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4542,7 +4202,7 @@
         <v>34945.89927932001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4575,7 +4235,7 @@
         <v>35297.89927932001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4608,7 +4268,7 @@
         <v>34900.04147932001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4641,7 +4301,7 @@
         <v>34900.04147932001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4674,7 +4334,7 @@
         <v>34900.04147932001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4707,7 +4367,7 @@
         <v>30635.04147932001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4740,7 +4400,7 @@
         <v>30636.04147932001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4773,7 +4433,7 @@
         <v>30857.31307932001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4806,7 +4466,7 @@
         <v>30198.54717932001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4839,7 +4499,7 @@
         <v>30469.74747932001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4872,7 +4532,7 @@
         <v>30469.74747932001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4905,7 +4565,7 @@
         <v>30469.74747932001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4938,7 +4598,7 @@
         <v>30499.74747932001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4971,7 +4631,7 @@
         <v>38291.47587932002</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5004,7 +4664,7 @@
         <v>37267.47587932002</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5037,7 +4697,7 @@
         <v>37267.47587932002</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5070,7 +4730,7 @@
         <v>36991.25277932001</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5103,7 +4763,7 @@
         <v>37306.25277932001</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -7556,6 +7216,6 @@
       <c r="M204" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest GXC.xlsx
+++ b/BackTest/2019-11-02 BackTest GXC.xlsx
@@ -679,9 +679,11 @@
         <v>24060.0537</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>626</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -716,7 +718,7 @@
         <v>24060.0537</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -753,7 +755,7 @@
         <v>24060.0537</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1197,16 +1199,18 @@
         <v>25301.2224</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
       <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1232,11 +1236,15 @@
         <v>30140.25209999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1265,11 +1273,15 @@
         <v>29553.58609999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1298,11 +1310,15 @@
         <v>29553.58609999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1331,11 +1347,15 @@
         <v>29633.58609999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1364,11 +1384,15 @@
         <v>29629.83979999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1397,11 +1421,15 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1430,11 +1458,15 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1463,11 +1495,15 @@
         <v>30243.91099999999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1496,11 +1532,15 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1529,11 +1569,15 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1562,11 +1606,15 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1595,11 +1643,15 @@
         <v>29632.91099999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1628,11 +1680,15 @@
         <v>27906.72059999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1661,11 +1717,15 @@
         <v>28678.99309999999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1694,11 +1754,15 @@
         <v>28638.99309999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1727,11 +1791,15 @@
         <v>28918.99309999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1764,7 +1832,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1793,11 +1865,15 @@
         <v>28169.01799999999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1826,11 +1902,15 @@
         <v>28169.01799999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1859,11 +1939,15 @@
         <v>28169.01799999999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1892,11 +1976,15 @@
         <v>30546.35339999999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1925,11 +2013,15 @@
         <v>30577.99839999999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1958,11 +2050,15 @@
         <v>21354.6125</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1995,7 +2091,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2028,7 +2128,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2061,7 +2165,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2094,7 +2202,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2127,7 +2239,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2160,7 +2276,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2193,7 +2313,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2226,7 +2350,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2259,7 +2387,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2292,7 +2424,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2325,7 +2461,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2358,7 +2498,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2391,7 +2535,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2424,7 +2572,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2457,7 +2609,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2490,7 +2646,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2523,7 +2683,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2556,7 +2720,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2589,7 +2757,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2622,7 +2794,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2655,7 +2831,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2688,7 +2868,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2721,7 +2905,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2754,7 +2942,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2787,7 +2979,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2820,7 +3016,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2853,7 +3053,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2886,7 +3090,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2919,7 +3127,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2952,7 +3164,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2985,7 +3201,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3018,7 +3238,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3051,7 +3275,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3084,7 +3312,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3117,7 +3349,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3150,7 +3386,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3179,14 +3419,16 @@
         <v>69638.2087513</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -3212,7 +3454,7 @@
         <v>63389.9021513</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3245,7 +3487,7 @@
         <v>64802.32088167001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3278,7 +3520,7 @@
         <v>63097.29878167</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3311,7 +3553,7 @@
         <v>58377.15478167</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3344,7 +3586,7 @@
         <v>58285.15478167</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3377,7 +3619,7 @@
         <v>55976.56578167</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3410,7 +3652,7 @@
         <v>56088.03811682</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3443,7 +3685,7 @@
         <v>55947.03811682</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3575,7 +3817,7 @@
         <v>55964.80171682</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3608,7 +3850,7 @@
         <v>57281.33151682</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3641,7 +3883,7 @@
         <v>57058.32751682</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3674,7 +3916,7 @@
         <v>62702.81151682</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3707,7 +3949,7 @@
         <v>62369.88731682</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3740,7 +3982,7 @@
         <v>62146.88731682</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3773,7 +4015,7 @@
         <v>60879.04521682</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3806,7 +4048,7 @@
         <v>42754.62041682</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3839,7 +4081,7 @@
         <v>42063.02871682</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3872,7 +4114,7 @@
         <v>42934.53301682</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3905,7 +4147,7 @@
         <v>42596.78951682</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4037,7 +4279,7 @@
         <v>35309.31557932001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4070,7 +4312,7 @@
         <v>35164.40507932001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4103,7 +4345,7 @@
         <v>35164.40507932001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest GXC.xlsx
+++ b/BackTest/2019-11-02 BackTest GXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M204"/>
+  <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2575.4932</v>
       </c>
       <c r="G2" t="n">
-        <v>18049.4005</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>2549.8994</v>
       </c>
       <c r="G3" t="n">
-        <v>20599.2999</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>624</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,21 @@
         <v>120</v>
       </c>
       <c r="G4" t="n">
-        <v>20599.2999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>626</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,21 @@
         <v>154.6588</v>
       </c>
       <c r="G5" t="n">
-        <v>20444.6411</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
         <v>626</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +581,21 @@
         <v>106.49</v>
       </c>
       <c r="G6" t="n">
-        <v>20551.1311</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
         <v>621</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +617,21 @@
         <v>61.3838</v>
       </c>
       <c r="G7" t="n">
-        <v>20551.1311</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
         <v>626</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +653,21 @@
         <v>3508.9226</v>
       </c>
       <c r="G8" t="n">
-        <v>24060.0537</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
         <v>626</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,22 +689,21 @@
         <v>232.6985</v>
       </c>
       <c r="G9" t="n">
-        <v>24060.0537</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -752,22 +725,21 @@
         <v>120</v>
       </c>
       <c r="G10" t="n">
-        <v>24060.0537</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -789,22 +761,21 @@
         <v>1445.0117</v>
       </c>
       <c r="G11" t="n">
-        <v>25505.0654</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -826,22 +797,21 @@
         <v>378.2518</v>
       </c>
       <c r="G12" t="n">
-        <v>25126.81359999999</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -863,22 +833,21 @@
         <v>107.2259</v>
       </c>
       <c r="G13" t="n">
-        <v>25126.81359999999</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -900,22 +869,21 @@
         <v>166.2258</v>
       </c>
       <c r="G14" t="n">
-        <v>24960.58779999999</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -937,22 +905,21 @@
         <v>459.9925</v>
       </c>
       <c r="G15" t="n">
-        <v>25420.58029999999</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>631</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -974,22 +941,21 @@
         <v>3205.0109</v>
       </c>
       <c r="G16" t="n">
-        <v>25420.58029999999</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1011,22 +977,19 @@
         <v>192.7589</v>
       </c>
       <c r="G17" t="n">
-        <v>25613.33919999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1048,22 +1011,19 @@
         <v>160</v>
       </c>
       <c r="G18" t="n">
-        <v>25613.33919999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1085,22 +1045,19 @@
         <v>232.1168</v>
       </c>
       <c r="G19" t="n">
-        <v>25381.2224</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1122,22 +1079,21 @@
         <v>2628.2977</v>
       </c>
       <c r="G20" t="n">
-        <v>25381.2224</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1159,22 +1115,21 @@
         <v>80</v>
       </c>
       <c r="G21" t="n">
-        <v>25301.2224</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1196,22 +1151,21 @@
         <v>1547.667</v>
       </c>
       <c r="G22" t="n">
-        <v>25301.2224</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1233,22 +1187,21 @@
         <v>4839.0297</v>
       </c>
       <c r="G23" t="n">
-        <v>30140.25209999999</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1270,22 +1223,21 @@
         <v>586.6660000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>29553.58609999999</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1307,22 +1259,21 @@
         <v>319</v>
       </c>
       <c r="G25" t="n">
-        <v>29553.58609999999</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1344,22 +1295,21 @@
         <v>80</v>
       </c>
       <c r="G26" t="n">
-        <v>29633.58609999999</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1381,22 +1331,21 @@
         <v>3.7463</v>
       </c>
       <c r="G27" t="n">
-        <v>29629.83979999999</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1418,22 +1367,21 @@
         <v>614.0712</v>
       </c>
       <c r="G28" t="n">
-        <v>30243.91099999999</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>622</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1455,22 +1403,19 @@
         <v>570.5667</v>
       </c>
       <c r="G29" t="n">
-        <v>30243.91099999999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1492,22 +1437,21 @@
         <v>1485</v>
       </c>
       <c r="G30" t="n">
-        <v>30243.91099999999</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1529,22 +1473,21 @@
         <v>611</v>
       </c>
       <c r="G31" t="n">
-        <v>29632.91099999999</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1566,22 +1509,21 @@
         <v>524</v>
       </c>
       <c r="G32" t="n">
-        <v>29632.91099999999</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1603,22 +1545,21 @@
         <v>1769.6616</v>
       </c>
       <c r="G33" t="n">
-        <v>29632.91099999999</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1640,22 +1581,21 @@
         <v>627.5907999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>29632.91099999999</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1677,22 +1617,21 @@
         <v>1726.1904</v>
       </c>
       <c r="G35" t="n">
-        <v>27906.72059999999</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1714,22 +1653,21 @@
         <v>772.2725</v>
       </c>
       <c r="G36" t="n">
-        <v>28678.99309999999</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1751,22 +1689,19 @@
         <v>40</v>
       </c>
       <c r="G37" t="n">
-        <v>28638.99309999999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1788,22 +1723,19 @@
         <v>280</v>
       </c>
       <c r="G38" t="n">
-        <v>28918.99309999999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1825,22 +1757,19 @@
         <v>402.2115</v>
       </c>
       <c r="G39" t="n">
-        <v>28516.78159999999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1862,22 +1791,19 @@
         <v>347.7636</v>
       </c>
       <c r="G40" t="n">
-        <v>28169.01799999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1899,22 +1825,19 @@
         <v>5167.3208</v>
       </c>
       <c r="G41" t="n">
-        <v>28169.01799999999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1936,22 +1859,19 @@
         <v>1037.1241</v>
       </c>
       <c r="G42" t="n">
-        <v>28169.01799999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1973,22 +1893,19 @@
         <v>2377.3354</v>
       </c>
       <c r="G43" t="n">
-        <v>30546.35339999999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2010,22 +1927,19 @@
         <v>31.645</v>
       </c>
       <c r="G44" t="n">
-        <v>30577.99839999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2047,22 +1961,19 @@
         <v>9223.385899999999</v>
       </c>
       <c r="G45" t="n">
-        <v>21354.6125</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2084,22 +1995,19 @@
         <v>376.017</v>
       </c>
       <c r="G46" t="n">
-        <v>21730.6295</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2121,22 +2029,19 @@
         <v>594</v>
       </c>
       <c r="G47" t="n">
-        <v>22324.6295</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2158,22 +2063,19 @@
         <v>4018.2797</v>
       </c>
       <c r="G48" t="n">
-        <v>26342.90919999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2195,22 +2097,19 @@
         <v>1062.5518</v>
       </c>
       <c r="G49" t="n">
-        <v>26342.90919999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2232,22 +2131,19 @@
         <v>3856.3228</v>
       </c>
       <c r="G50" t="n">
-        <v>26342.90919999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2269,22 +2165,19 @@
         <v>1150.9087</v>
       </c>
       <c r="G51" t="n">
-        <v>25192.00049999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2306,22 +2199,19 @@
         <v>343.6212</v>
       </c>
       <c r="G52" t="n">
-        <v>25535.6217</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2343,22 +2233,19 @@
         <v>800.8203999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>25535.6217</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2380,22 +2267,19 @@
         <v>30</v>
       </c>
       <c r="G54" t="n">
-        <v>25505.6217</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2417,22 +2301,19 @@
         <v>1.1939</v>
       </c>
       <c r="G55" t="n">
-        <v>25505.6217</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2454,22 +2335,19 @@
         <v>1737.3368</v>
       </c>
       <c r="G56" t="n">
-        <v>23768.2849</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2491,22 +2369,19 @@
         <v>604.1217</v>
       </c>
       <c r="G57" t="n">
-        <v>23164.1632</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2528,22 +2403,19 @@
         <v>2988.7467</v>
       </c>
       <c r="G58" t="n">
-        <v>26152.9099</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2565,22 +2437,19 @@
         <v>326.2148</v>
       </c>
       <c r="G59" t="n">
-        <v>25826.69509999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2602,22 +2471,19 @@
         <v>41.0419</v>
       </c>
       <c r="G60" t="n">
-        <v>25867.73699999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2639,22 +2505,19 @@
         <v>364.4399</v>
       </c>
       <c r="G61" t="n">
-        <v>26232.17689999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2676,22 +2539,19 @@
         <v>436.295</v>
       </c>
       <c r="G62" t="n">
-        <v>26668.47189999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2713,22 +2573,19 @@
         <v>651.0411</v>
       </c>
       <c r="G63" t="n">
-        <v>26668.47189999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2750,22 +2607,19 @@
         <v>7127.1943</v>
       </c>
       <c r="G64" t="n">
-        <v>33795.66619999999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2787,22 +2641,19 @@
         <v>410.2186</v>
       </c>
       <c r="G65" t="n">
-        <v>34205.88479999999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2824,22 +2675,19 @@
         <v>80</v>
       </c>
       <c r="G66" t="n">
-        <v>34285.88479999999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2861,22 +2709,19 @@
         <v>131.1755</v>
       </c>
       <c r="G67" t="n">
-        <v>34285.88479999999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2898,22 +2743,19 @@
         <v>40</v>
       </c>
       <c r="G68" t="n">
-        <v>34325.88479999999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2935,22 +2777,19 @@
         <v>189</v>
       </c>
       <c r="G69" t="n">
-        <v>34325.88479999999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2972,22 +2811,19 @@
         <v>2077.6429</v>
       </c>
       <c r="G70" t="n">
-        <v>32248.24189999999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3009,22 +2845,19 @@
         <v>3002.8582</v>
       </c>
       <c r="G71" t="n">
-        <v>35251.1001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3046,22 +2879,19 @@
         <v>1598.9999</v>
       </c>
       <c r="G72" t="n">
-        <v>36850.1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3083,22 +2913,19 @@
         <v>9968.6764513</v>
       </c>
       <c r="G73" t="n">
-        <v>46818.7764513</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3120,22 +2947,19 @@
         <v>711.4045</v>
       </c>
       <c r="G74" t="n">
-        <v>46107.3719513</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3157,22 +2981,19 @@
         <v>2937.969</v>
       </c>
       <c r="G75" t="n">
-        <v>49045.3409513</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3194,22 +3015,19 @@
         <v>299.25</v>
       </c>
       <c r="G76" t="n">
-        <v>49045.3409513</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3231,22 +3049,19 @@
         <v>343.2903</v>
       </c>
       <c r="G77" t="n">
-        <v>49388.6312513</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3268,22 +3083,19 @@
         <v>605.7547</v>
       </c>
       <c r="G78" t="n">
-        <v>49994.3859513</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3305,22 +3117,19 @@
         <v>5408.0325</v>
       </c>
       <c r="G79" t="n">
-        <v>55402.4184513</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3342,22 +3151,19 @@
         <v>3828.8718</v>
       </c>
       <c r="G80" t="n">
-        <v>59231.2902513</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3379,22 +3185,19 @@
         <v>9797.9185</v>
       </c>
       <c r="G81" t="n">
-        <v>69029.2087513</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3416,20 +3219,19 @@
         <v>609</v>
       </c>
       <c r="G82" t="n">
-        <v>69638.2087513</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
       </c>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3451,18 +3253,17 @@
         <v>6248.3066</v>
       </c>
       <c r="G83" t="n">
-        <v>63389.9021513</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3484,18 +3285,15 @@
         <v>1412.41873037</v>
       </c>
       <c r="G84" t="n">
-        <v>64802.32088167001</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3517,18 +3315,15 @@
         <v>1705.0221</v>
       </c>
       <c r="G85" t="n">
-        <v>63097.29878167</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3550,18 +3345,15 @@
         <v>4720.144</v>
       </c>
       <c r="G86" t="n">
-        <v>58377.15478167</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3583,18 +3375,15 @@
         <v>92</v>
       </c>
       <c r="G87" t="n">
-        <v>58285.15478167</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3616,18 +3405,15 @@
         <v>2308.589</v>
       </c>
       <c r="G88" t="n">
-        <v>55976.56578167</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3649,18 +3435,15 @@
         <v>111.47233515</v>
       </c>
       <c r="G89" t="n">
-        <v>56088.03811682</v>
-      </c>
-      <c r="H89" t="n">
         <v>2</v>
       </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3682,18 +3465,15 @@
         <v>141</v>
       </c>
       <c r="G90" t="n">
-        <v>55947.03811682</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3715,18 +3495,15 @@
         <v>3171.8484</v>
       </c>
       <c r="G91" t="n">
-        <v>52775.18971682</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3748,18 +3525,15 @@
         <v>444</v>
       </c>
       <c r="G92" t="n">
-        <v>52775.18971682</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3781,18 +3555,15 @@
         <v>3183.612</v>
       </c>
       <c r="G93" t="n">
-        <v>55958.80171682</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3814,18 +3585,15 @@
         <v>6</v>
       </c>
       <c r="G94" t="n">
-        <v>55964.80171682</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3847,18 +3615,15 @@
         <v>1316.5298</v>
       </c>
       <c r="G95" t="n">
-        <v>57281.33151682</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3880,18 +3645,15 @@
         <v>223.004</v>
       </c>
       <c r="G96" t="n">
-        <v>57058.32751682</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3913,18 +3675,15 @@
         <v>5644.484</v>
       </c>
       <c r="G97" t="n">
-        <v>62702.81151682</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3946,18 +3705,15 @@
         <v>332.9242</v>
       </c>
       <c r="G98" t="n">
-        <v>62369.88731682</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3979,18 +3735,15 @@
         <v>223</v>
       </c>
       <c r="G99" t="n">
-        <v>62146.88731682</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4012,18 +3765,15 @@
         <v>1267.8421</v>
       </c>
       <c r="G100" t="n">
-        <v>60879.04521682</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4045,18 +3795,15 @@
         <v>18124.4248</v>
       </c>
       <c r="G101" t="n">
-        <v>42754.62041682</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4078,18 +3825,15 @@
         <v>691.5916999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>42063.02871682</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4111,18 +3855,15 @@
         <v>871.5042999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>42934.53301682</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4144,18 +3885,15 @@
         <v>337.7435</v>
       </c>
       <c r="G104" t="n">
-        <v>42596.78951682</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4177,18 +3915,15 @@
         <v>620.215</v>
       </c>
       <c r="G105" t="n">
-        <v>41976.57451682001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4210,18 +3945,15 @@
         <v>3.5515625</v>
       </c>
       <c r="G106" t="n">
-        <v>41980.12607932001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4243,18 +3975,15 @@
         <v>126.6781</v>
       </c>
       <c r="G107" t="n">
-        <v>41980.12607932001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4276,18 +4005,15 @@
         <v>6670.8105</v>
       </c>
       <c r="G108" t="n">
-        <v>35309.31557932001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4309,18 +4035,15 @@
         <v>144.9105</v>
       </c>
       <c r="G109" t="n">
-        <v>35164.40507932001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4342,18 +4065,15 @@
         <v>762.8625</v>
       </c>
       <c r="G110" t="n">
-        <v>35164.40507932001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4375,18 +4095,15 @@
         <v>489.2892</v>
       </c>
       <c r="G111" t="n">
-        <v>35164.40507932001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4408,18 +4125,15 @@
         <v>327.8942</v>
       </c>
       <c r="G112" t="n">
-        <v>35492.29927932001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4441,18 +4155,15 @@
         <v>546.4</v>
       </c>
       <c r="G113" t="n">
-        <v>34945.89927932001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4474,18 +4185,15 @@
         <v>352</v>
       </c>
       <c r="G114" t="n">
-        <v>35297.89927932001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4507,18 +4215,15 @@
         <v>397.8578</v>
       </c>
       <c r="G115" t="n">
-        <v>34900.04147932001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4540,18 +4245,15 @@
         <v>306.3767</v>
       </c>
       <c r="G116" t="n">
-        <v>34900.04147932001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4573,18 +4275,15 @@
         <v>97.2</v>
       </c>
       <c r="G117" t="n">
-        <v>34900.04147932001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4606,18 +4305,15 @@
         <v>4265</v>
       </c>
       <c r="G118" t="n">
-        <v>30635.04147932001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4639,18 +4335,15 @@
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>30636.04147932001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4672,18 +4365,15 @@
         <v>221.2716</v>
       </c>
       <c r="G120" t="n">
-        <v>30857.31307932001</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4705,18 +4395,15 @@
         <v>658.7659</v>
       </c>
       <c r="G121" t="n">
-        <v>30198.54717932001</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4738,18 +4425,15 @@
         <v>271.2003</v>
       </c>
       <c r="G122" t="n">
-        <v>30469.74747932001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4771,18 +4455,15 @@
         <v>346.3633</v>
       </c>
       <c r="G123" t="n">
-        <v>30469.74747932001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4804,18 +4485,15 @@
         <v>344.3934</v>
       </c>
       <c r="G124" t="n">
-        <v>30469.74747932001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4837,18 +4515,15 @@
         <v>30</v>
       </c>
       <c r="G125" t="n">
-        <v>30499.74747932001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4870,18 +4545,15 @@
         <v>7791.7284</v>
       </c>
       <c r="G126" t="n">
-        <v>38291.47587932002</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4903,18 +4575,15 @@
         <v>1024</v>
       </c>
       <c r="G127" t="n">
-        <v>37267.47587932002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4936,18 +4605,15 @@
         <v>4</v>
       </c>
       <c r="G128" t="n">
-        <v>37267.47587932002</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4969,18 +4635,15 @@
         <v>276.2231</v>
       </c>
       <c r="G129" t="n">
-        <v>36991.25277932001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5002,18 +4665,15 @@
         <v>315</v>
       </c>
       <c r="G130" t="n">
-        <v>37306.25277932001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5035,18 +4695,15 @@
         <v>406.4377</v>
       </c>
       <c r="G131" t="n">
-        <v>36899.81507932001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5068,18 +4725,15 @@
         <v>2871.36</v>
       </c>
       <c r="G132" t="n">
-        <v>34028.45507932001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5101,18 +4755,15 @@
         <v>749.1107</v>
       </c>
       <c r="G133" t="n">
-        <v>33279.34437932001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5134,18 +4785,15 @@
         <v>1690.0218</v>
       </c>
       <c r="G134" t="n">
-        <v>31589.32257932001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5167,18 +4815,15 @@
         <v>8.365</v>
       </c>
       <c r="G135" t="n">
-        <v>31597.68757932002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5200,18 +4845,15 @@
         <v>156</v>
       </c>
       <c r="G136" t="n">
-        <v>31753.68757932002</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5233,18 +4875,15 @@
         <v>281.0104</v>
       </c>
       <c r="G137" t="n">
-        <v>31472.67717932002</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5266,18 +4905,15 @@
         <v>11.105</v>
       </c>
       <c r="G138" t="n">
-        <v>31472.67717932002</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5299,18 +4935,15 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>31473.67717932002</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5332,18 +4965,15 @@
         <v>52.8425</v>
       </c>
       <c r="G140" t="n">
-        <v>31420.83467932002</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5365,18 +4995,15 @@
         <v>257.9528</v>
       </c>
       <c r="G141" t="n">
-        <v>31162.88187932002</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5398,18 +5025,15 @@
         <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>31163.88187932002</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5431,18 +5055,15 @@
         <v>1667</v>
       </c>
       <c r="G143" t="n">
-        <v>32830.88187932002</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5464,18 +5085,15 @@
         <v>105</v>
       </c>
       <c r="G144" t="n">
-        <v>32935.88187932002</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5497,18 +5115,15 @@
         <v>137.0987</v>
       </c>
       <c r="G145" t="n">
-        <v>32798.78317932002</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5530,18 +5145,15 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>32799.78317932002</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5563,18 +5175,15 @@
         <v>198.1202</v>
       </c>
       <c r="G147" t="n">
-        <v>32601.66297932002</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5596,18 +5205,15 @@
         <v>0.0001</v>
       </c>
       <c r="G148" t="n">
-        <v>32601.66297932002</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5629,18 +5235,15 @@
         <v>49.2238</v>
       </c>
       <c r="G149" t="n">
-        <v>32601.66297932002</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5662,18 +5265,15 @@
         <v>2636.5544</v>
       </c>
       <c r="G150" t="n">
-        <v>35238.21737932001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5695,18 +5295,15 @@
         <v>695.5869</v>
       </c>
       <c r="G151" t="n">
-        <v>34542.63047932001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5728,18 +5325,15 @@
         <v>3724.6746</v>
       </c>
       <c r="G152" t="n">
-        <v>38267.30507932001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5761,18 +5355,15 @@
         <v>3.4156</v>
       </c>
       <c r="G153" t="n">
-        <v>38263.88947932001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5794,18 +5385,15 @@
         <v>2236.0644</v>
       </c>
       <c r="G154" t="n">
-        <v>40499.95387932001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5827,18 +5415,15 @@
         <v>502.5578</v>
       </c>
       <c r="G155" t="n">
-        <v>40499.95387932001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5860,18 +5445,15 @@
         <v>341.681</v>
       </c>
       <c r="G156" t="n">
-        <v>40841.63487932001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5893,18 +5475,15 @@
         <v>562.3778</v>
       </c>
       <c r="G157" t="n">
-        <v>41404.01267932001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5926,18 +5505,15 @@
         <v>3444.5831</v>
       </c>
       <c r="G158" t="n">
-        <v>41404.01267932001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5959,18 +5535,21 @@
         <v>386.4392</v>
       </c>
       <c r="G159" t="n">
-        <v>41017.57347932001</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5992,18 +5571,21 @@
         <v>2204.758</v>
       </c>
       <c r="G160" t="n">
-        <v>38812.81547932001</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6025,18 +5607,21 @@
         <v>1685</v>
       </c>
       <c r="G161" t="n">
-        <v>38812.81547932001</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6058,18 +5643,21 @@
         <v>689</v>
       </c>
       <c r="G162" t="n">
-        <v>38812.81547932001</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6091,18 +5679,21 @@
         <v>1667</v>
       </c>
       <c r="G163" t="n">
-        <v>38812.81547932001</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6124,18 +5715,21 @@
         <v>3.5399</v>
       </c>
       <c r="G164" t="n">
-        <v>38816.35537932001</v>
+        <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6157,18 +5751,21 @@
         <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>38815.35537932001</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6190,18 +5787,21 @@
         <v>3878.6851</v>
       </c>
       <c r="G166" t="n">
-        <v>34936.67027932001</v>
+        <v>1</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6223,18 +5823,21 @@
         <v>60.2668</v>
       </c>
       <c r="G167" t="n">
-        <v>34936.67027932001</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6256,18 +5859,21 @@
         <v>4300.0277</v>
       </c>
       <c r="G168" t="n">
-        <v>30636.64257932001</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6289,18 +5895,21 @@
         <v>76.2787</v>
       </c>
       <c r="G169" t="n">
-        <v>30636.64257932001</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6322,18 +5931,21 @@
         <v>1736.0278</v>
       </c>
       <c r="G170" t="n">
-        <v>28900.61477932001</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6355,18 +5967,21 @@
         <v>150</v>
       </c>
       <c r="G171" t="n">
-        <v>29050.61477932001</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6388,18 +6003,21 @@
         <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>29049.61477932001</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6421,18 +6039,21 @@
         <v>93.3742</v>
       </c>
       <c r="G173" t="n">
-        <v>28956.24057932001</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6454,18 +6075,21 @@
         <v>1065.8345</v>
       </c>
       <c r="G174" t="n">
-        <v>28956.24057932001</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6487,18 +6111,21 @@
         <v>3697.8045</v>
       </c>
       <c r="G175" t="n">
-        <v>32654.04507932001</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6520,18 +6147,21 @@
         <v>2000</v>
       </c>
       <c r="G176" t="n">
-        <v>30654.04507932001</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6553,18 +6183,21 @@
         <v>98.1354</v>
       </c>
       <c r="G177" t="n">
-        <v>30752.18047932001</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6586,18 +6219,21 @@
         <v>1</v>
       </c>
       <c r="G178" t="n">
-        <v>30753.18047932001</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6619,18 +6255,21 @@
         <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>30754.18047932001</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6652,18 +6291,19 @@
         <v>3.3279</v>
       </c>
       <c r="G180" t="n">
-        <v>30754.18047932001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6685,18 +6325,19 @@
         <v>25.6721</v>
       </c>
       <c r="G181" t="n">
-        <v>30754.18047932001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6718,18 +6359,19 @@
         <v>69.9999</v>
       </c>
       <c r="G182" t="n">
-        <v>30824.18037932001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6751,18 +6393,19 @@
         <v>320.9999</v>
       </c>
       <c r="G183" t="n">
-        <v>30824.18037932001</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6784,18 +6427,19 @@
         <v>3175.7052</v>
       </c>
       <c r="G184" t="n">
-        <v>33999.88557932001</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6817,18 +6461,19 @@
         <v>729.7616</v>
       </c>
       <c r="G185" t="n">
-        <v>33999.88557932001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6850,18 +6495,19 @@
         <v>127</v>
       </c>
       <c r="G186" t="n">
-        <v>34126.88557932001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6883,18 +6529,19 @@
         <v>19.9646</v>
       </c>
       <c r="G187" t="n">
-        <v>34126.88557932001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6916,18 +6563,19 @@
         <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>34127.88557932001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6949,18 +6597,19 @@
         <v>1827</v>
       </c>
       <c r="G189" t="n">
-        <v>32300.88557932001</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6982,18 +6631,19 @@
         <v>1047.2959</v>
       </c>
       <c r="G190" t="n">
-        <v>32300.88557932001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7015,18 +6665,19 @@
         <v>2887.0249</v>
       </c>
       <c r="G191" t="n">
-        <v>29413.86067932001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7048,18 +6699,19 @@
         <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>29414.86067932001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7081,18 +6733,19 @@
         <v>199.0465</v>
       </c>
       <c r="G193" t="n">
-        <v>29414.86067932001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7114,18 +6767,19 @@
         <v>265</v>
       </c>
       <c r="G194" t="n">
-        <v>29149.86067932001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7147,18 +6801,19 @@
         <v>1</v>
       </c>
       <c r="G195" t="n">
-        <v>29150.86067932001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7180,18 +6835,19 @@
         <v>120</v>
       </c>
       <c r="G196" t="n">
-        <v>29270.86067932001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7213,18 +6869,19 @@
         <v>1179</v>
       </c>
       <c r="G197" t="n">
-        <v>29270.86067932001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7246,18 +6903,19 @@
         <v>2540.8836</v>
       </c>
       <c r="G198" t="n">
-        <v>31811.74427932001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7279,18 +6937,19 @@
         <v>1</v>
       </c>
       <c r="G199" t="n">
-        <v>31812.74427932001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7312,18 +6971,19 @@
         <v>84</v>
       </c>
       <c r="G200" t="n">
-        <v>31728.74427932001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7345,18 +7005,19 @@
         <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>31729.74427932001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7378,18 +7039,19 @@
         <v>80</v>
       </c>
       <c r="G202" t="n">
-        <v>31649.74427932001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7411,18 +7073,19 @@
         <v>116.4</v>
       </c>
       <c r="G203" t="n">
-        <v>31766.14427932001</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7444,18 +7107,19 @@
         <v>1</v>
       </c>
       <c r="G204" t="n">
-        <v>31767.14427932001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
